--- a/public/alkes_excel_file/ECG_Recorder.xlsx
+++ b/public/alkes_excel_file/ECG_Recorder.xlsx
@@ -5,26 +5,26 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\bpfkbanjarbaru\public\alkes_excel_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BA86C5-52D1-4051-A9D1-2CE672DBD5A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA8BB6B-39B4-49E3-BE52-3D458D77D3BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Riwayat Revisi" sheetId="24" r:id="rId1"/>
     <sheet name="LK" sheetId="3" r:id="rId2"/>
     <sheet name="bank kata" sheetId="26" state="hidden" r:id="rId3"/>
     <sheet name="ID" sheetId="9" r:id="rId4"/>
-    <sheet name="ESA" sheetId="30" r:id="rId5"/>
+    <sheet name="ESA" sheetId="30" state="hidden" r:id="rId5"/>
     <sheet name="PENYELIA" sheetId="1" r:id="rId6"/>
     <sheet name="LH" sheetId="20" r:id="rId7"/>
     <sheet name="SERTIFIKAT" sheetId="29" r:id="rId8"/>
     <sheet name="DB Thermohygro" sheetId="23" state="hidden" r:id="rId9"/>
     <sheet name="DB ECG" sheetId="10" state="hidden" r:id="rId10"/>
     <sheet name="UB" sheetId="8" r:id="rId11"/>
-    <sheet name="DB CALIPER" sheetId="15" r:id="rId12"/>
+    <sheet name="DB CALIPER" sheetId="15" state="hidden" r:id="rId12"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId13"/>
@@ -11941,15 +11941,15 @@
   </sheetPr>
   <dimension ref="A2:E100"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
-    <col min="3" max="3" width="42.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.54296875" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12280,20 +12280,20 @@
   </sheetPr>
   <dimension ref="A1:AF323"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView topLeftCell="A105" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="K105" sqref="K105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
-    <col min="13" max="13" width="11.6328125" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" customWidth="1"/>
-    <col min="20" max="20" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" customWidth="1"/>
+    <col min="20" max="20" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12326,7 +12326,7 @@
       <c r="E4" s="812"/>
       <c r="F4" s="812"/>
     </row>
-    <row r="5" spans="1:32" ht="35.5" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:32" ht="35.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="290" t="s">
         <v>431</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="831" t="s">
         <v>246</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="194" t="s">
         <v>248</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>6.0000000000000006E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="135">
         <v>0.5</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="135">
         <v>1</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="135">
         <v>2</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="205">
         <v>3</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="216" t="s">
         <v>435</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A14" s="217" t="s">
         <v>436</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="212">
         <v>20</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="216" t="s">
         <v>437</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="216" t="s">
         <v>438</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="212">
         <v>2</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="216" t="s">
         <v>440</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="216" t="s">
         <v>438</v>
       </c>
@@ -13355,7 +13355,7 @@
       <c r="S23" s="208"/>
       <c r="T23" s="199"/>
     </row>
-    <row r="24" spans="1:21" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="214">
         <v>10</v>
       </c>
@@ -13424,7 +13424,7 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:21" ht="35.5" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:21" ht="35.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="290" t="s">
         <v>445</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="813" t="s">
         <v>239</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="134" t="s">
         <v>246</v>
       </c>
@@ -13508,7 +13508,7 @@
       <c r="S29" s="803"/>
       <c r="T29" s="808"/>
     </row>
-    <row r="30" spans="1:21" ht="14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="194" t="s">
         <v>248</v>
       </c>
@@ -13729,7 +13729,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="136">
         <v>3</v>
       </c>
@@ -13782,7 +13782,7 @@
       </c>
       <c r="T34" s="70"/>
     </row>
-    <row r="35" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="216" t="s">
         <v>435</v>
       </c>
@@ -13832,7 +13832,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A36" s="217" t="s">
         <v>436</v>
       </c>
@@ -14000,7 +14000,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="212">
         <v>2</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="216" t="s">
         <v>437</v>
       </c>
@@ -14112,7 +14112,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="216" t="s">
         <v>438</v>
       </c>
@@ -14224,7 +14224,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="212">
         <v>2</v>
       </c>
@@ -14292,7 +14292,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="216" t="s">
         <v>440</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="216" t="s">
         <v>438</v>
       </c>
@@ -14386,7 +14386,7 @@
       <c r="S45" s="208"/>
       <c r="T45" s="199"/>
     </row>
-    <row r="46" spans="1:21" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="214">
         <v>10</v>
       </c>
@@ -14454,7 +14454,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="35.5" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:20" ht="35.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A49" s="290" t="s">
         <v>449</v>
       </c>
@@ -14465,7 +14465,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="813" t="s">
         <v>239</v>
       </c>
@@ -14503,7 +14503,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="134" t="s">
         <v>246</v>
       </c>
@@ -14535,7 +14535,7 @@
       <c r="S51" s="803"/>
       <c r="T51" s="808"/>
     </row>
-    <row r="52" spans="1:20" ht="14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="194" t="s">
         <v>248</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="136">
         <v>3</v>
       </c>
@@ -14811,7 +14811,7 @@
       </c>
       <c r="T56" s="70"/>
     </row>
-    <row r="57" spans="1:20" ht="13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="216" t="s">
         <v>435</v>
       </c>
@@ -14861,7 +14861,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A58" s="217" t="s">
         <v>436</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="212">
         <v>2</v>
       </c>
@@ -15091,7 +15091,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="216" t="s">
         <v>437</v>
       </c>
@@ -15141,7 +15141,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="216" t="s">
         <v>438</v>
       </c>
@@ -15247,7 +15247,7 @@
         <v>2.5999999999999998E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="212">
         <v>2</v>
       </c>
@@ -15309,7 +15309,7 @@
         <v>2.5999999999999998E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="216" t="s">
         <v>440</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="216" t="s">
         <v>438</v>
       </c>
@@ -15403,7 +15403,7 @@
       <c r="S67" s="208"/>
       <c r="T67" s="199"/>
     </row>
-    <row r="68" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="214">
         <v>10</v>
       </c>
@@ -15465,7 +15465,7 @@
         <v>2.5999999999999998E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:20" ht="25.8" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A71" s="850" t="s">
         <v>452</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="192" t="s">
         <v>239</v>
       </c>
@@ -15514,7 +15514,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="134" t="s">
         <v>246</v>
       </c>
@@ -15549,7 +15549,7 @@
       <c r="S73" s="803"/>
       <c r="T73" s="808"/>
     </row>
-    <row r="74" spans="1:20" ht="14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A74" s="194" t="s">
         <v>248</v>
       </c>
@@ -15770,7 +15770,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="136">
         <v>3</v>
       </c>
@@ -15823,7 +15823,7 @@
       </c>
       <c r="T78" s="70"/>
     </row>
-    <row r="79" spans="1:20" ht="13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="216" t="s">
         <v>435</v>
       </c>
@@ -15873,7 +15873,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A80" s="217" t="s">
         <v>436</v>
       </c>
@@ -16035,7 +16035,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="212">
         <v>2</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="216" t="s">
         <v>437</v>
       </c>
@@ -16144,7 +16144,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="216" t="s">
         <v>438</v>
       </c>
@@ -16247,7 +16247,7 @@
         <v>2.5999999999999998E-5</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="212">
         <v>2</v>
       </c>
@@ -16306,7 +16306,7 @@
         <v>2.5999999999999998E-5</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="216" t="s">
         <v>440</v>
       </c>
@@ -16356,7 +16356,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="216" t="s">
         <v>438</v>
       </c>
@@ -16400,7 +16400,7 @@
       <c r="S89" s="208"/>
       <c r="T89" s="199"/>
     </row>
-    <row r="90" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="214">
         <v>10</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>2.5999999999999998E-5</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A95" s="1586" t="str">
         <f>IF(ID!$B$72='DB ECG'!$A$125,'DB ECG'!A5,IF(ID!$B$72='DB ECG'!$A$126,'DB ECG'!H5,IF(ID!$B$72='DB ECG'!$A$127,'DB ECG'!O5,IF(ID!$B$72='DB ECG'!$A$128,'DB ECG'!A27,IF(ID!$B$72='DB ECG'!$A$129,'DB ECG'!H27,IF(ID!$B$72='DB ECG'!$A$130,'DB ECG'!O27,IF(ID!$B$72='DB ECG'!$A$131,'DB ECG'!A49,IF(ID!$B$72='DB ECG'!$A$132,'DB ECG'!H49,IF(ID!$B$72='DB ECG'!$A$133,'DB ECG'!O49,IF(ID!$B$72='DB ECG'!$A$134,'DB ECG'!A71,IF(ID!$B$72='DB ECG'!$A$135,'DB ECG'!H71,'DB ECG'!O71)))))))))))</f>
         <v>RIGEL PatSim200, SN : 15L-0684</v>
@@ -16470,7 +16470,7 @@
       <c r="E95" s="1587"/>
       <c r="F95" s="1587"/>
     </row>
-    <row r="96" spans="1:20" ht="13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="1588" t="str">
         <f>IF(ID!$B$72='DB ECG'!$A$125,'DB ECG'!A6,IF(ID!$B$72='DB ECG'!$A$126,'DB ECG'!H6,IF(ID!$B$72='DB ECG'!$A$127,'DB ECG'!O6,IF(ID!$B$72='DB ECG'!$A$128,'DB ECG'!A28,IF(ID!$B$72='DB ECG'!$A$129,'DB ECG'!H28,IF(ID!$B$72='DB ECG'!$A$130,'DB ECG'!O28,IF(ID!$B$72='DB ECG'!$A$131,'DB ECG'!A50,IF(ID!$B$72='DB ECG'!$A$132,'DB ECG'!H50,IF(ID!$B$72='DB ECG'!$A$133,'DB ECG'!O50,IF(ID!$B$72='DB ECG'!$A$134,'DB ECG'!A72,IF(ID!$B$72='DB ECG'!$A$135,'DB ECG'!H72,'DB ECG'!O72)))))))))))</f>
         <v xml:space="preserve"> KOREKSI ECG SIMULATOR</v>
@@ -16485,7 +16485,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="958" t="str">
         <f>IF(ID!$B$72='DB ECG'!$A$125,'DB ECG'!A7,IF(ID!$B$72='DB ECG'!$A$126,'DB ECG'!H7,IF(ID!$B$72='DB ECG'!$A$127,'DB ECG'!O7,IF(ID!$B$72='DB ECG'!$A$128,'DB ECG'!A29,IF(ID!$B$72='DB ECG'!$A$129,'DB ECG'!H29,IF(ID!$B$72='DB ECG'!$A$130,'DB ECG'!O29,IF(ID!$B$72='DB ECG'!$A$131,'DB ECG'!A51,IF(ID!$B$72='DB ECG'!$A$132,'DB ECG'!H51,IF(ID!$B$72='DB ECG'!$A$133,'DB ECG'!O51,IF(ID!$B$72='DB ECG'!$A$134,'DB ECG'!A73,IF(ID!$B$72='DB ECG'!$A$135,'DB ECG'!H73,'DB ECG'!O73)))))))))))</f>
         <v>Setting Heart Rate</v>
@@ -16499,7 +16499,7 @@
       <c r="E97" s="1584"/>
       <c r="F97" s="1584"/>
     </row>
-    <row r="98" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="958" t="str">
         <f>IF(ID!$B$72='DB ECG'!$A$125,'DB ECG'!A8,IF(ID!$B$72='DB ECG'!$A$126,'DB ECG'!H8,IF(ID!$B$72='DB ECG'!$A$127,'DB ECG'!O8,IF(ID!$B$72='DB ECG'!$A$128,'DB ECG'!A30,IF(ID!$B$72='DB ECG'!$A$129,'DB ECG'!H30,IF(ID!$B$72='DB ECG'!$A$130,'DB ECG'!O30,IF(ID!$B$72='DB ECG'!$A$131,'DB ECG'!A52,IF(ID!$B$72='DB ECG'!$A$132,'DB ECG'!H52,IF(ID!$B$72='DB ECG'!$A$133,'DB ECG'!O52,IF(ID!$B$72='DB ECG'!$A$134,'DB ECG'!A74,IF(ID!$B$72='DB ECG'!$A$135,'DB ECG'!H74,'DB ECG'!O74)))))))))))</f>
         <v>( BPM )</v>
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="958" t="str">
         <f>IF(ID!$B$72='DB ECG'!$A$125,'DB ECG'!A13,IF(ID!$B$72='DB ECG'!$A$126,'DB ECG'!H13,IF(ID!$B$72='DB ECG'!$A$127,'DB ECG'!O13,IF(ID!$B$72='DB ECG'!$A$128,'DB ECG'!A35,IF(ID!$B$72='DB ECG'!$A$129,'DB ECG'!H35,IF(ID!$B$72='DB ECG'!$A$130,'DB ECG'!O35,IF(ID!$B$72='DB ECG'!$A$131,'DB ECG'!A57,IF(ID!$B$72='DB ECG'!$A$132,'DB ECG'!H57,IF(ID!$B$72='DB ECG'!$A$133,'DB ECG'!O57,IF(ID!$B$72='DB ECG'!$A$134,'DB ECG'!A79,IF(ID!$B$72='DB ECG'!$A$135,'DB ECG'!H79,'DB ECG'!O79)))))))))))</f>
         <v>Setting Amplitude</v>
@@ -16644,7 +16644,7 @@
       </c>
       <c r="I103" s="368"/>
     </row>
-    <row r="104" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="958" t="str">
         <f>IF(ID!$B$72='DB ECG'!$A$125,'DB ECG'!A14,IF(ID!$B$72='DB ECG'!$A$126,'DB ECG'!H14,IF(ID!$B$72='DB ECG'!$A$127,'DB ECG'!O14,IF(ID!$B$72='DB ECG'!$A$128,'DB ECG'!A36,IF(ID!$B$72='DB ECG'!$A$129,'DB ECG'!H36,IF(ID!$B$72='DB ECG'!$A$130,'DB ECG'!O36,IF(ID!$B$72='DB ECG'!$A$131,'DB ECG'!A58,IF(ID!$B$72='DB ECG'!$A$132,'DB ECG'!H58,IF(ID!$B$72='DB ECG'!$A$133,'DB ECG'!O58,IF(ID!$B$72='DB ECG'!$A$134,'DB ECG'!A80,IF(ID!$B$72='DB ECG'!$A$135,'DB ECG'!H80,'DB ECG'!O80)))))))))))</f>
         <v>( mV )</v>
@@ -16742,7 +16742,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="958" t="str">
         <f>IF(ID!$B$72='DB ECG'!$A$125,'DB ECG'!A18,IF(ID!$B$72='DB ECG'!$A$126,'DB ECG'!H18,IF(ID!$B$72='DB ECG'!$A$127,'DB ECG'!O18,IF(ID!$B$72='DB ECG'!$A$128,'DB ECG'!A40,IF(ID!$B$72='DB ECG'!$A$129,'DB ECG'!H40,IF(ID!$B$72='DB ECG'!$A$130,'DB ECG'!O40,IF(ID!$B$72='DB ECG'!$A$131,'DB ECG'!A62,IF(ID!$B$72='DB ECG'!$A$132,'DB ECG'!H62,IF(ID!$B$72='DB ECG'!$A$133,'DB ECG'!O62,IF(ID!$B$72='DB ECG'!$A$134,'DB ECG'!A84,IF(ID!$B$72='DB ECG'!$A$135,'DB ECG'!H84,'DB ECG'!O84)))))))))))</f>
         <v>Setting Square</v>
@@ -16762,7 +16762,7 @@
         <v>U95 STD</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="958" t="str">
         <f>IF(ID!$B$72='DB ECG'!$A$125,'DB ECG'!A19,IF(ID!$B$72='DB ECG'!$A$126,'DB ECG'!H19,IF(ID!$B$72='DB ECG'!$A$127,'DB ECG'!O19,IF(ID!$B$72='DB ECG'!$A$128,'DB ECG'!A41,IF(ID!$B$72='DB ECG'!$A$129,'DB ECG'!H41,IF(ID!$B$72='DB ECG'!$A$130,'DB ECG'!O41,IF(ID!$B$72='DB ECG'!$A$131,'DB ECG'!A63,IF(ID!$B$72='DB ECG'!$A$132,'DB ECG'!H63,IF(ID!$B$72='DB ECG'!$A$133,'DB ECG'!O63,IF(ID!$B$72='DB ECG'!$A$134,'DB ECG'!A85,IF(ID!$B$72='DB ECG'!$A$135,'DB ECG'!H85,'DB ECG'!O85)))))))))))</f>
         <v>( Hz )</v>
@@ -16834,7 +16834,7 @@
         <v>2.5999999999999998E-5</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="958" t="str">
         <f>IF(ID!$B$72='DB ECG'!$A$125,'DB ECG'!A22,IF(ID!$B$72='DB ECG'!$A$126,'DB ECG'!H22,IF(ID!$B$72='DB ECG'!$A$127,'DB ECG'!O22,IF(ID!$B$72='DB ECG'!$A$128,'DB ECG'!A44,IF(ID!$B$72='DB ECG'!$A$129,'DB ECG'!H44,IF(ID!$B$72='DB ECG'!$A$130,'DB ECG'!O44,IF(ID!$B$72='DB ECG'!$A$131,'DB ECG'!A66,IF(ID!$B$72='DB ECG'!$A$132,'DB ECG'!H66,IF(ID!$B$72='DB ECG'!$A$133,'DB ECG'!O66,IF(ID!$B$72='DB ECG'!$A$134,'DB ECG'!A88,IF(ID!$B$72='DB ECG'!$A$135,'DB ECG'!H88,'DB ECG'!O88)))))))))))</f>
         <v>Setting Sine</v>
@@ -16854,7 +16854,7 @@
         <v>U95 STD</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="958" t="str">
         <f>IF(ID!$B$72='DB ECG'!$A$125,'DB ECG'!A23,IF(ID!$B$72='DB ECG'!$A$126,'DB ECG'!H23,IF(ID!$B$72='DB ECG'!$A$127,'DB ECG'!O23,IF(ID!$B$72='DB ECG'!$A$128,'DB ECG'!A45,IF(ID!$B$72='DB ECG'!$A$129,'DB ECG'!H45,IF(ID!$B$72='DB ECG'!$A$130,'DB ECG'!O45,IF(ID!$B$72='DB ECG'!$A$131,'DB ECG'!A67,IF(ID!$B$72='DB ECG'!$A$132,'DB ECG'!H67,IF(ID!$B$72='DB ECG'!$A$133,'DB ECG'!O67,IF(ID!$B$72='DB ECG'!$A$134,'DB ECG'!A89,IF(ID!$B$72='DB ECG'!$A$135,'DB ECG'!H89,'DB ECG'!O89)))))))))))</f>
         <v>( Hz )</v>
@@ -17123,7 +17123,7 @@
       <c r="H148" s="1578"/>
       <c r="I148" s="1578"/>
     </row>
-    <row r="149" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D149" s="248"/>
       <c r="E149" s="248"/>
       <c r="F149" s="249"/>
@@ -17140,7 +17140,7 @@
         <v>2.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G150" s="219">
         <f>'DB ECG'!A100</f>
         <v>1</v>
@@ -17154,7 +17154,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G151" s="219">
         <f>'DB ECG'!A101</f>
         <v>2</v>
@@ -17168,7 +17168,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G152" s="219">
         <f>'DB ECG'!A102</f>
         <v>3</v>
@@ -17228,7 +17228,7 @@
       <c r="H156" s="1577"/>
       <c r="I156" s="1578"/>
     </row>
-    <row r="157" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="96">
         <f>'DB ECG'!A99*60+IF('DB ECG'!B99="-",0,'DB ECG'!B99)</f>
         <v>30</v>
@@ -17262,7 +17262,7 @@
         <v>0.1650000000000027</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="96">
         <f>'DB ECG'!A100*60+IF('DB ECG'!B100="-",0,'DB ECG'!B100)</f>
         <v>60</v>
@@ -17330,7 +17330,7 @@
         <v>0.6600000000000108</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="96">
         <f>'DB ECG'!A102*60+IF('DB ECG'!B102="-",0,'DB ECG'!B102)</f>
         <v>180</v>
@@ -17410,7 +17410,7 @@
       <c r="H164" s="1577"/>
       <c r="I164" s="1578"/>
     </row>
-    <row r="165" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="116">
         <f t="shared" ref="A165:B168" si="2">1500/A157</f>
         <v>50</v>
@@ -17444,7 +17444,7 @@
         <v>0.27349577324714858</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="116">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -17479,7 +17479,7 @@
         <v>0.13674788662357429</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="116">
         <f t="shared" si="2"/>
         <v>12.5</v>
@@ -17514,7 +17514,7 @@
         <v>6.8373943311787144E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="116">
         <f t="shared" si="2"/>
         <v>8.3333333333333339</v>
@@ -17805,75 +17805,75 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" customWidth="1"/>
-    <col min="6" max="6" width="6.6328125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="8.6328125" customWidth="1"/>
+    <col min="8" max="9" width="8.6640625" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" customWidth="1"/>
-    <col min="12" max="12" width="10.36328125" customWidth="1"/>
-    <col min="14" max="14" width="19.6328125" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="16" max="16" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.453125" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.453125" customWidth="1"/>
-    <col min="20" max="20" width="12.54296875" customWidth="1"/>
-    <col min="21" max="22" width="7.36328125" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.44140625" customWidth="1"/>
+    <col min="20" max="20" width="12.5546875" customWidth="1"/>
+    <col min="21" max="22" width="7.33203125" customWidth="1"/>
     <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.453125" customWidth="1"/>
-    <col min="25" max="25" width="12.36328125" customWidth="1"/>
-    <col min="26" max="26" width="13.6328125" customWidth="1"/>
-    <col min="27" max="27" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.6328125" customWidth="1"/>
-    <col min="29" max="29" width="11.36328125" customWidth="1"/>
-    <col min="30" max="30" width="10.54296875" customWidth="1"/>
-    <col min="31" max="31" width="11.36328125" customWidth="1"/>
-    <col min="32" max="32" width="10.36328125" customWidth="1"/>
-    <col min="33" max="33" width="6.6328125" customWidth="1"/>
+    <col min="24" max="24" width="15.44140625" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.6640625" customWidth="1"/>
+    <col min="29" max="29" width="11.33203125" customWidth="1"/>
+    <col min="30" max="30" width="10.5546875" customWidth="1"/>
+    <col min="31" max="31" width="11.33203125" customWidth="1"/>
+    <col min="32" max="32" width="10.33203125" customWidth="1"/>
+    <col min="33" max="33" width="6.6640625" customWidth="1"/>
     <col min="34" max="34" width="8" customWidth="1"/>
-    <col min="35" max="35" width="14.36328125" customWidth="1"/>
+    <col min="35" max="35" width="14.33203125" customWidth="1"/>
     <col min="36" max="36" width="10" customWidth="1"/>
     <col min="37" max="37" width="12" customWidth="1"/>
-    <col min="38" max="38" width="18.36328125" customWidth="1"/>
-    <col min="40" max="40" width="8.54296875" customWidth="1"/>
-    <col min="41" max="41" width="10.36328125" customWidth="1"/>
+    <col min="38" max="38" width="18.33203125" customWidth="1"/>
+    <col min="40" max="40" width="8.5546875" customWidth="1"/>
+    <col min="41" max="41" width="10.33203125" customWidth="1"/>
     <col min="42" max="42" width="11" customWidth="1"/>
-    <col min="43" max="43" width="7.453125" customWidth="1"/>
-    <col min="44" max="44" width="12.6328125" customWidth="1"/>
-    <col min="45" max="45" width="10.6328125" customWidth="1"/>
-    <col min="46" max="46" width="12.36328125" customWidth="1"/>
-    <col min="47" max="47" width="13.36328125" customWidth="1"/>
-    <col min="48" max="48" width="17.453125" customWidth="1"/>
-    <col min="49" max="49" width="15.453125" customWidth="1"/>
-    <col min="50" max="50" width="10.54296875" customWidth="1"/>
-    <col min="51" max="51" width="12.36328125" customWidth="1"/>
-    <col min="52" max="52" width="13.6328125" customWidth="1"/>
+    <col min="43" max="43" width="7.44140625" customWidth="1"/>
+    <col min="44" max="44" width="12.6640625" customWidth="1"/>
+    <col min="45" max="45" width="10.6640625" customWidth="1"/>
+    <col min="46" max="46" width="12.33203125" customWidth="1"/>
+    <col min="47" max="47" width="13.33203125" customWidth="1"/>
+    <col min="48" max="48" width="17.44140625" customWidth="1"/>
+    <col min="49" max="49" width="15.44140625" customWidth="1"/>
+    <col min="50" max="50" width="10.5546875" customWidth="1"/>
+    <col min="51" max="51" width="12.33203125" customWidth="1"/>
+    <col min="52" max="52" width="13.6640625" customWidth="1"/>
     <col min="57" max="57" width="19" customWidth="1"/>
-    <col min="58" max="58" width="14.6328125" customWidth="1"/>
-    <col min="59" max="59" width="12.54296875" customWidth="1"/>
-    <col min="60" max="60" width="13.54296875" customWidth="1"/>
-    <col min="61" max="61" width="13.6328125" customWidth="1"/>
-    <col min="62" max="62" width="13.54296875" customWidth="1"/>
-    <col min="63" max="63" width="15.6328125" customWidth="1"/>
+    <col min="58" max="58" width="14.6640625" customWidth="1"/>
+    <col min="59" max="59" width="12.5546875" customWidth="1"/>
+    <col min="60" max="60" width="13.5546875" customWidth="1"/>
+    <col min="61" max="61" width="13.6640625" customWidth="1"/>
+    <col min="62" max="62" width="13.5546875" customWidth="1"/>
+    <col min="63" max="63" width="15.6640625" customWidth="1"/>
     <col min="64" max="64" width="11" customWidth="1"/>
-    <col min="65" max="65" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="12" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.36328125" customWidth="1"/>
-    <col min="69" max="69" width="13.54296875" customWidth="1"/>
-    <col min="70" max="70" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="4.36328125" customWidth="1"/>
+    <col min="67" max="67" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.33203125" customWidth="1"/>
+    <col min="69" max="69" width="13.5546875" customWidth="1"/>
+    <col min="70" max="70" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="4.33203125" customWidth="1"/>
     <col min="83" max="83" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:71" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="X1" s="177"/>
       <c r="Y1" s="959" t="s">
         <v>553</v>
@@ -17912,7 +17912,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:71" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:71" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1608" t="s">
         <v>215</v>
       </c>
@@ -18010,7 +18010,7 @@
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
     </row>
-    <row r="5" spans="1:71" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:71" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>216</v>
       </c>
@@ -18066,7 +18066,7 @@
       <c r="BR5" s="246"/>
       <c r="BS5" s="247"/>
     </row>
-    <row r="6" spans="1:71" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:71" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
         <v>219</v>
       </c>
@@ -18163,7 +18163,7 @@
       <c r="BR6" s="246"/>
       <c r="BS6" s="247"/>
     </row>
-    <row r="7" spans="1:71" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:71" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>233</v>
       </c>
@@ -18262,7 +18262,7 @@
       <c r="BR7" s="246"/>
       <c r="BS7" s="247"/>
     </row>
-    <row r="8" spans="1:71" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:71" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>244</v>
       </c>
@@ -18357,7 +18357,7 @@
       <c r="BD8" s="252"/>
       <c r="BE8" s="252"/>
     </row>
-    <row r="9" spans="1:71" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:71" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>247</v>
       </c>
@@ -18452,7 +18452,7 @@
       <c r="BD9" s="252"/>
       <c r="BE9" s="252"/>
     </row>
-    <row r="10" spans="1:71" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:71" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>249</v>
       </c>
@@ -18545,7 +18545,7 @@
       <c r="BD10" s="252"/>
       <c r="BE10" s="252"/>
     </row>
-    <row r="11" spans="1:71" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:71" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -18580,7 +18580,7 @@
       <c r="BD11" s="252"/>
       <c r="BE11" s="252"/>
     </row>
-    <row r="12" spans="1:71" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:71" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="220"/>
       <c r="C12" s="8"/>
@@ -18615,7 +18615,7 @@
       <c r="BD12" s="252"/>
       <c r="BE12" s="252"/>
     </row>
-    <row r="13" spans="1:71" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:71" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
         <v>250</v>
       </c>
@@ -18658,7 +18658,7 @@
       <c r="BD13" s="252"/>
       <c r="BE13" s="252"/>
     </row>
-    <row r="14" spans="1:71" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:71" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>251</v>
       </c>
@@ -18708,7 +18708,7 @@
       <c r="BD14" s="252"/>
       <c r="BE14" s="252"/>
     </row>
-    <row r="15" spans="1:71" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:71" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="43" t="s">
         <v>253</v>
       </c>
@@ -18756,7 +18756,7 @@
       <c r="BD15" s="252"/>
       <c r="BE15" s="252"/>
     </row>
-    <row r="16" spans="1:71" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:71" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
         <v>263</v>
       </c>
@@ -18804,7 +18804,7 @@
       <c r="BD16" s="252"/>
       <c r="BE16" s="252"/>
     </row>
-    <row r="17" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:57" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
         <v>265</v>
       </c>
@@ -18859,7 +18859,7 @@
       <c r="BD17" s="252"/>
       <c r="BE17" s="252"/>
     </row>
-    <row r="18" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="53"/>
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
@@ -18907,7 +18907,7 @@
       <c r="BD18" s="252"/>
       <c r="BE18" s="252"/>
     </row>
-    <row r="19" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:57" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>269</v>
       </c>
@@ -18950,7 +18950,7 @@
       <c r="BD19" s="252"/>
       <c r="BE19" s="252"/>
     </row>
-    <row r="20" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:57" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="57" t="s">
         <v>219</v>
       </c>
@@ -19013,7 +19013,7 @@
       <c r="BD20" s="252"/>
       <c r="BE20" s="252"/>
     </row>
-    <row r="21" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:57" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
         <v>233</v>
       </c>
@@ -19104,7 +19104,7 @@
       <c r="BD21" s="252"/>
       <c r="BE21" s="252"/>
     </row>
-    <row r="22" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:57" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>244</v>
       </c>
@@ -19203,7 +19203,7 @@
       <c r="BD22" s="252"/>
       <c r="BE22" s="252"/>
     </row>
-    <row r="23" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:57" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>247</v>
       </c>
@@ -19303,7 +19303,7 @@
       <c r="BD23" s="252"/>
       <c r="BE23" s="252"/>
     </row>
-    <row r="24" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:57" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>249</v>
       </c>
@@ -19400,7 +19400,7 @@
       <c r="BD24" s="252"/>
       <c r="BE24" s="252"/>
     </row>
-    <row r="25" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:57" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -19467,7 +19467,7 @@
       <c r="BD25" s="252"/>
       <c r="BE25" s="252"/>
     </row>
-    <row r="26" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:57" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="B26" s="220"/>
       <c r="C26" s="8"/>
@@ -19505,7 +19505,7 @@
       <c r="BD26" s="252"/>
       <c r="BE26" s="252"/>
     </row>
-    <row r="27" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:57" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
         <v>250</v>
       </c>
@@ -19550,7 +19550,7 @@
       <c r="AK27" s="1"/>
       <c r="BA27" s="218"/>
     </row>
-    <row r="28" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:57" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="44" t="s">
         <v>251</v>
       </c>
@@ -19594,7 +19594,7 @@
       <c r="AI28" s="1"/>
       <c r="BA28" s="112"/>
     </row>
-    <row r="29" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:57" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="43" t="s">
         <v>253</v>
       </c>
@@ -19645,7 +19645,7 @@
       <c r="AH29" s="823"/>
       <c r="BA29" s="113"/>
     </row>
-    <row r="30" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:57" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="44" t="s">
         <v>263</v>
       </c>
@@ -19695,7 +19695,7 @@
       <c r="AH30" s="823"/>
       <c r="BA30" s="112"/>
     </row>
-    <row r="31" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:57" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="45" t="s">
         <v>265</v>
       </c>
@@ -19747,7 +19747,7 @@
       <c r="AH31" s="823"/>
       <c r="BA31" s="218"/>
     </row>
-    <row r="32" spans="1:57" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:57" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="81"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -19790,7 +19790,7 @@
       <c r="AH32" s="823"/>
       <c r="BA32" s="112"/>
     </row>
-    <row r="33" spans="1:68" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:68" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56" t="s">
         <v>289</v>
       </c>
@@ -19837,7 +19837,7 @@
       <c r="AE33" s="829"/>
       <c r="BA33" s="113"/>
     </row>
-    <row r="34" spans="1:68" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:68" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="57" t="s">
         <v>219</v>
       </c>
@@ -19894,7 +19894,7 @@
       <c r="AF34" s="1"/>
       <c r="BA34" s="112"/>
     </row>
-    <row r="35" spans="1:68" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:68" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
         <v>233</v>
       </c>
@@ -19959,7 +19959,7 @@
       <c r="AF35" s="1"/>
       <c r="BA35" s="218"/>
     </row>
-    <row r="36" spans="1:68" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:68" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
         <v>244</v>
       </c>
@@ -20027,7 +20027,7 @@
       <c r="AK36" s="1"/>
       <c r="BA36" s="112"/>
     </row>
-    <row r="37" spans="1:68" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:68" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>247</v>
       </c>
@@ -20098,7 +20098,7 @@
       <c r="AN37" s="1"/>
       <c r="BA37" s="113"/>
     </row>
-    <row r="38" spans="1:68" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:68" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>249</v>
       </c>
@@ -20179,7 +20179,7 @@
       <c r="AZ38" s="112"/>
       <c r="BA38" s="112"/>
     </row>
-    <row r="39" spans="1:68" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:68" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -20222,7 +20222,7 @@
       <c r="BA39" s="218"/>
       <c r="BP39" s="113"/>
     </row>
-    <row r="40" spans="1:68" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:68" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
       <c r="B40" s="220"/>
       <c r="C40" s="8"/>
@@ -20265,7 +20265,7 @@
       <c r="BA40" s="112"/>
       <c r="BP40" s="125"/>
     </row>
-    <row r="41" spans="1:68" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:68" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="43" t="s">
         <v>250</v>
       </c>
@@ -20319,7 +20319,7 @@
       <c r="BO41" s="112"/>
       <c r="BP41" s="125"/>
     </row>
-    <row r="42" spans="1:68" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:68" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="44" t="s">
         <v>251</v>
       </c>
@@ -20372,7 +20372,7 @@
       <c r="BO42" s="113"/>
       <c r="BP42" s="113"/>
     </row>
-    <row r="43" spans="1:68" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:68" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="43" t="s">
         <v>253</v>
       </c>
@@ -20422,7 +20422,7 @@
       <c r="BO43" s="112"/>
       <c r="BP43" s="125"/>
     </row>
-    <row r="44" spans="1:68" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:68" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="44" t="s">
         <v>263</v>
       </c>
@@ -20469,7 +20469,7 @@
       <c r="BB44" s="1"/>
       <c r="BI44" s="128"/>
     </row>
-    <row r="45" spans="1:68" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:68" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="45" t="s">
         <v>265</v>
       </c>
@@ -20518,7 +20518,7 @@
       <c r="BB45" s="1"/>
       <c r="BI45" s="128"/>
     </row>
-    <row r="46" spans="1:68" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:68" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53"/>
       <c r="B46" s="54"/>
       <c r="C46" s="54"/>
@@ -20554,7 +20554,7 @@
       <c r="BB46" s="1"/>
       <c r="BI46" s="128"/>
     </row>
-    <row r="47" spans="1:68" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:68" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53"/>
       <c r="B47" s="54"/>
       <c r="C47" s="54"/>
@@ -20591,7 +20591,7 @@
       <c r="BB47" s="1"/>
       <c r="BI47" s="128"/>
     </row>
-    <row r="48" spans="1:68" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:68" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="56" t="s">
         <v>582</v>
       </c>
@@ -20676,7 +20676,7 @@
       <c r="AS48" s="1"/>
       <c r="AT48" s="1"/>
     </row>
-    <row r="49" spans="1:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="57" t="s">
         <v>219</v>
       </c>
@@ -20754,7 +20754,7 @@
       <c r="AS49" s="218"/>
       <c r="AT49" s="218"/>
     </row>
-    <row r="50" spans="1:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
         <v>233</v>
       </c>
@@ -20844,7 +20844,7 @@
       <c r="AS50" s="218"/>
       <c r="AT50" s="218"/>
     </row>
-    <row r="51" spans="1:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="36" t="s">
         <v>244</v>
       </c>
@@ -20934,7 +20934,7 @@
       <c r="AS51" s="218"/>
       <c r="AT51" s="218"/>
     </row>
-    <row r="52" spans="1:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
         <v>247</v>
       </c>
@@ -21033,7 +21033,7 @@
       <c r="AS52" s="218"/>
       <c r="AT52" s="218"/>
     </row>
-    <row r="53" spans="1:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -21075,7 +21075,7 @@
       <c r="AS53" s="218"/>
       <c r="AT53" s="218"/>
     </row>
-    <row r="54" spans="1:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="40" t="s">
         <v>249</v>
       </c>
@@ -21171,7 +21171,7 @@
       <c r="AS54" s="218"/>
       <c r="AT54" s="218"/>
     </row>
-    <row r="55" spans="1:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -21213,7 +21213,7 @@
       <c r="AS55" s="218"/>
       <c r="AT55" s="218"/>
     </row>
-    <row r="56" spans="1:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -21255,7 +21255,7 @@
       <c r="AS56" s="218"/>
       <c r="AT56" s="218"/>
     </row>
-    <row r="57" spans="1:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="43" t="s">
         <v>250</v>
       </c>
@@ -21324,7 +21324,7 @@
       <c r="BD57" s="218"/>
       <c r="BE57" s="218"/>
     </row>
-    <row r="58" spans="1:60" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="44" t="s">
         <v>251</v>
       </c>
@@ -21391,7 +21391,7 @@
       <c r="BD58" s="218"/>
       <c r="BE58" s="218"/>
     </row>
-    <row r="59" spans="1:60" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="43" t="s">
         <v>253</v>
       </c>
@@ -21458,7 +21458,7 @@
       <c r="BD59" s="218"/>
       <c r="BE59" s="218"/>
     </row>
-    <row r="60" spans="1:60" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="44" t="s">
         <v>263</v>
       </c>
@@ -21525,7 +21525,7 @@
       <c r="BD60" s="218"/>
       <c r="BE60" s="218"/>
     </row>
-    <row r="61" spans="1:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="45" t="s">
         <v>265</v>
       </c>
@@ -21596,7 +21596,7 @@
       <c r="BD61" s="218"/>
       <c r="BE61" s="218"/>
     </row>
-    <row r="62" spans="1:60" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:60" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="83"/>
       <c r="B62" s="84"/>
       <c r="C62" s="84"/>
@@ -21649,7 +21649,7 @@
       <c r="BD62" s="218"/>
       <c r="BE62" s="218"/>
     </row>
-    <row r="63" spans="1:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="53"/>
       <c r="B63" s="54"/>
       <c r="C63" s="54"/>
@@ -21705,7 +21705,7 @@
       <c r="BG63" s="112"/>
       <c r="BH63" s="112"/>
     </row>
-    <row r="64" spans="1:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y64" s="231"/>
       <c r="Z64" s="54"/>
       <c r="AA64" s="54"/>
@@ -21737,7 +21737,7 @@
       <c r="BG64" s="113"/>
       <c r="BH64" s="113"/>
     </row>
-    <row r="65" spans="9:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="9:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
       <c r="AA65" s="54"/>
@@ -21769,7 +21769,7 @@
       <c r="BG65" s="112"/>
       <c r="BH65" s="112"/>
     </row>
-    <row r="66" spans="9:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="9:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="V66" s="78"/>
       <c r="AA66" s="85"/>
       <c r="AB66" s="1"/>
@@ -21797,7 +21797,7 @@
       <c r="BD66" s="218"/>
       <c r="BE66" s="218"/>
     </row>
-    <row r="67" spans="9:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="9:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA67" s="86"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="839"/>
@@ -21824,7 +21824,7 @@
       <c r="BD67" s="218"/>
       <c r="BE67" s="218"/>
     </row>
-    <row r="68" spans="9:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="9:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA68" s="86"/>
       <c r="AB68" s="1"/>
       <c r="AC68" s="838"/>
@@ -21852,7 +21852,7 @@
       <c r="BD68" s="218"/>
       <c r="BE68" s="218"/>
     </row>
-    <row r="69" spans="9:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA69" s="86"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="838"/>
@@ -21880,7 +21880,7 @@
       <c r="BD69" s="218"/>
       <c r="BE69" s="218"/>
     </row>
-    <row r="70" spans="9:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="9:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA70" s="86"/>
       <c r="AB70" s="1"/>
       <c r="AC70" s="839"/>
@@ -21908,7 +21908,7 @@
       <c r="BD70" s="218"/>
       <c r="BE70" s="218"/>
     </row>
-    <row r="71" spans="9:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="9:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA71" s="86"/>
       <c r="AB71" s="1"/>
       <c r="AC71" s="838"/>
@@ -21936,7 +21936,7 @@
       <c r="BD71" s="218"/>
       <c r="BE71" s="218"/>
     </row>
-    <row r="72" spans="9:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="9:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA72" s="86"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="838"/>
@@ -21964,7 +21964,7 @@
       <c r="BD72" s="218"/>
       <c r="BE72" s="218"/>
     </row>
-    <row r="73" spans="9:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="9:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA73" s="77"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="839"/>
@@ -21996,7 +21996,7 @@
       <c r="BD73" s="218"/>
       <c r="BE73" s="218"/>
     </row>
-    <row r="74" spans="9:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="9:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA74" s="77"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="838"/>
@@ -22028,7 +22028,7 @@
       <c r="BD74" s="218"/>
       <c r="BE74" s="218"/>
     </row>
-    <row r="75" spans="9:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA75" s="77"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="838"/>
@@ -22060,7 +22060,7 @@
       <c r="BD75" s="218"/>
       <c r="BE75" s="218"/>
     </row>
-    <row r="76" spans="9:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA76" s="87"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="839"/>
@@ -22092,7 +22092,7 @@
       <c r="BD76" s="218"/>
       <c r="BE76" s="218"/>
     </row>
-    <row r="77" spans="9:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA77" s="49"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="838"/>
@@ -22124,7 +22124,7 @@
       <c r="BD77" s="218"/>
       <c r="BE77" s="218"/>
     </row>
-    <row r="78" spans="9:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="218"/>
@@ -22156,7 +22156,7 @@
       <c r="BD78" s="218"/>
       <c r="BE78" s="218"/>
     </row>
-    <row r="79" spans="9:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="9:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA79" s="54"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
@@ -22184,7 +22184,7 @@
       <c r="BD79" s="218"/>
       <c r="BE79" s="218"/>
     </row>
-    <row r="80" spans="9:60" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="9:60" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I80" s="78"/>
       <c r="K80" s="78"/>
       <c r="AA80" s="85"/>
@@ -22211,7 +22211,7 @@
       <c r="BC80" s="1606"/>
       <c r="BD80" s="1"/>
     </row>
-    <row r="81" spans="1:56" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:56" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I81" s="122"/>
       <c r="K81" s="122"/>
       <c r="AA81" s="86"/>
@@ -22238,7 +22238,7 @@
       <c r="BC81" s="112"/>
       <c r="BD81" s="1"/>
     </row>
-    <row r="82" spans="1:56" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:56" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I82" s="127"/>
       <c r="K82" s="122"/>
       <c r="AA82" s="86"/>
@@ -22264,7 +22264,7 @@
       <c r="BC82" s="113"/>
       <c r="BD82" s="1"/>
     </row>
-    <row r="83" spans="1:56" ht="13.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:56" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA83" s="86"/>
       <c r="AB83" s="1"/>
       <c r="AC83" s="840"/>
@@ -22312,7 +22312,7 @@
       <c r="BC84" s="1606"/>
       <c r="BD84" s="1"/>
     </row>
-    <row r="85" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA85" s="86"/>
       <c r="AB85" s="1"/>
       <c r="AC85" s="840"/>
@@ -22336,7 +22336,7 @@
       <c r="BC85" s="112"/>
       <c r="BD85" s="1"/>
     </row>
-    <row r="86" spans="1:56" ht="14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:56" ht="13.8" x14ac:dyDescent="0.25">
       <c r="AA86" s="77"/>
       <c r="AB86" s="1"/>
       <c r="AC86" s="840"/>
@@ -22360,7 +22360,7 @@
       <c r="BC86" s="113"/>
       <c r="BD86" s="1"/>
     </row>
-    <row r="87" spans="1:56" ht="14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:56" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>308</v>
       </c>
@@ -22387,7 +22387,7 @@
       <c r="BC87" s="112"/>
       <c r="BD87" s="1"/>
     </row>
-    <row r="88" spans="1:56" ht="14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:56" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>309</v>
       </c>
@@ -22415,7 +22415,7 @@
       <c r="BC88" s="1605"/>
       <c r="BD88" s="1"/>
     </row>
-    <row r="89" spans="1:56" ht="14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:56" ht="13.8" x14ac:dyDescent="0.25">
       <c r="E89" s="78" t="s">
         <v>311</v>
       </c>
@@ -22442,7 +22442,7 @@
       <c r="BC89" s="112"/>
       <c r="BD89" s="1"/>
     </row>
-    <row r="90" spans="1:56" ht="13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:56" x14ac:dyDescent="0.25">
       <c r="E90" s="78" t="s">
         <v>312</v>
       </c>
@@ -22496,7 +22496,7 @@
       <c r="BC91" s="112"/>
       <c r="BD91" s="1"/>
     </row>
-    <row r="92" spans="1:56" ht="13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:56" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
         <v>314</v>
       </c>
@@ -22595,7 +22595,7 @@
       <c r="BC95" s="112"/>
       <c r="BD95" s="1"/>
     </row>
-    <row r="96" spans="1:56" ht="13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>321</v>
       </c>
@@ -22838,7 +22838,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.25" header="0.48" footer="0.2"/>
-  <pageSetup paperSize="9" scale="52" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -22856,23 +22856,23 @@
       <selection activeCell="AF67" sqref="AF67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" customWidth="1"/>
-    <col min="7" max="7" width="5.36328125" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" customWidth="1"/>
-    <col min="9" max="11" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6328125" customWidth="1"/>
-    <col min="15" max="15" width="15.54296875" customWidth="1"/>
-    <col min="16" max="19" width="10.6328125" customWidth="1"/>
-    <col min="20" max="20" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="11.6328125" customWidth="1"/>
-    <col min="26" max="29" width="11.54296875" customWidth="1"/>
-    <col min="31" max="34" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" customWidth="1"/>
+    <col min="16" max="19" width="10.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="11.6640625" customWidth="1"/>
+    <col min="26" max="29" width="11.5546875" customWidth="1"/>
+    <col min="31" max="34" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22928,14 +22928,14 @@
       <c r="E3" s="817"/>
       <c r="F3" s="817"/>
     </row>
-    <row r="4" spans="1:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="137"/>
       <c r="B4" s="137"/>
       <c r="D4" s="137"/>
       <c r="E4" s="137"/>
       <c r="F4" s="137"/>
     </row>
-    <row r="5" spans="1:20" ht="35.5" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:20" ht="35.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="290" t="s">
         <v>455</v>
       </c>
@@ -22984,7 +22984,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="134" t="s">
         <v>236</v>
       </c>
@@ -23013,7 +23013,7 @@
       <c r="S7" s="196"/>
       <c r="T7" s="199"/>
     </row>
-    <row r="8" spans="1:20" ht="14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="194" t="s">
         <v>456</v>
       </c>
@@ -23423,7 +23423,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1133">
         <v>150</v>
       </c>
@@ -23484,7 +23484,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="35.5" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:20" ht="35.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="1135" t="s">
         <v>459</v>
       </c>
@@ -23552,7 +23552,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1142" t="s">
         <v>236</v>
       </c>
@@ -23586,7 +23586,7 @@
       <c r="S18" s="1146"/>
       <c r="T18" s="1147"/>
     </row>
-    <row r="19" spans="1:20" ht="14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="1149" t="s">
         <v>456</v>
       </c>
@@ -23998,7 +23998,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1133">
         <v>150</v>
       </c>
@@ -24059,7 +24059,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="35.5" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:20" ht="35.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="1135" t="s">
         <v>462</v>
       </c>
@@ -24127,7 +24127,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1148" t="s">
         <v>236</v>
       </c>
@@ -24161,7 +24161,7 @@
       <c r="S29" s="1146"/>
       <c r="T29" s="1147"/>
     </row>
-    <row r="30" spans="1:20" ht="14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="1149" t="s">
         <v>456</v>
       </c>
@@ -24573,7 +24573,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1133">
         <v>150</v>
       </c>
@@ -24663,7 +24663,7 @@
         <v>U95 STD</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="1009" t="str">
         <f>IF(ID!$B$74='DB CALIPER'!$A$78,'DB CALIPER'!A7,IF(ID!$B$74='DB CALIPER'!$A$79,'DB CALIPER'!H7,IF(ID!$B$74='DB CALIPER'!$A$80,'DB CALIPER'!O7,IF(ID!$B$74='DB CALIPER'!$A$81,'DB CALIPER'!A18,IF(ID!$B$74='DB CALIPER'!$A$82,'DB CALIPER'!H18,IF(ID!$B$74='DB CALIPER'!$A$83,'DB CALIPER'!O18,IF(ID!$B$74='DB CALIPER'!$A$84,'DB CALIPER'!A29,IF(ID!$B$74='DB CALIPER'!$A$85,'DB CALIPER'!H29,'DB CALIPER'!O29))))))))</f>
         <v>Setting Panjang</v>
@@ -24677,7 +24677,7 @@
       <c r="E52" s="1009"/>
       <c r="F52" s="1009"/>
     </row>
-    <row r="53" spans="1:31" ht="13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="1009" t="str">
         <f>IF(ID!$B$74='DB CALIPER'!$A$78,'DB CALIPER'!A8,IF(ID!$B$74='DB CALIPER'!$A$79,'DB CALIPER'!H8,IF(ID!$B$74='DB CALIPER'!$A$80,'DB CALIPER'!O8,IF(ID!$B$74='DB CALIPER'!$A$81,'DB CALIPER'!A19,IF(ID!$B$74='DB CALIPER'!$A$82,'DB CALIPER'!H19,IF(ID!$B$74='DB CALIPER'!$A$83,'DB CALIPER'!O19,IF(ID!$B$74='DB CALIPER'!$A$84,'DB CALIPER'!A30,IF(ID!$B$74='DB CALIPER'!$A$85,'DB CALIPER'!H30,IF(ID!$B$74='DB CALIPER'!$A$86,'DB CALIPER'!O30)))))))))</f>
         <v>( mm )</v>
@@ -24697,7 +24697,7 @@
       <c r="E53" s="1009"/>
       <c r="F53" s="1009"/>
     </row>
-    <row r="54" spans="1:31" ht="13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="1128">
         <f>IF(ID!$B$74='DB CALIPER'!$A$78,'DB CALIPER'!A9,IF(ID!$B$74='DB CALIPER'!$A$79,'DB CALIPER'!H9,IF(ID!$B$74='DB CALIPER'!$A$80,'DB CALIPER'!O9,IF(ID!$B$74='DB CALIPER'!$A$81,'DB CALIPER'!A20,IF(ID!$B$74='DB CALIPER'!$A$82,'DB CALIPER'!H20,IF(ID!$B$74='DB CALIPER'!$A$83,'DB CALIPER'!O20,IF(ID!$B$74='DB CALIPER'!$A$84,'DB CALIPER'!A31,IF(ID!$B$74='DB CALIPER'!$A$85,'DB CALIPER'!H31,'DB CALIPER'!O31))))))))</f>
         <v>9.9999999999999995E-7</v>
@@ -24723,7 +24723,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="1009">
         <f>IF(ID!$B$74='DB CALIPER'!$A$78,'DB CALIPER'!A10,IF(ID!$B$74='DB CALIPER'!$A$79,'DB CALIPER'!H10,IF(ID!$B$74='DB CALIPER'!$A$80,'DB CALIPER'!O10,IF(ID!$B$74='DB CALIPER'!$A$81,'DB CALIPER'!A21,IF(ID!$B$74='DB CALIPER'!$A$82,'DB CALIPER'!H21,IF(ID!$B$74='DB CALIPER'!$A$83,'DB CALIPER'!O21,IF(ID!$B$74='DB CALIPER'!$A$84,'DB CALIPER'!A32,IF(ID!$B$74='DB CALIPER'!$A$85,'DB CALIPER'!H32,'DB CALIPER'!O32))))))))</f>
         <v>20</v>
@@ -24749,7 +24749,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="1009">
         <f>IF(ID!$B$74='DB CALIPER'!$A$78,'DB CALIPER'!A11,IF(ID!$B$74='DB CALIPER'!$A$79,'DB CALIPER'!H11,IF(ID!$B$74='DB CALIPER'!$A$80,'DB CALIPER'!O11,IF(ID!$B$74='DB CALIPER'!$A$81,'DB CALIPER'!A22,IF(ID!$B$74='DB CALIPER'!$A$82,'DB CALIPER'!H22,IF(ID!$B$74='DB CALIPER'!$A$83,'DB CALIPER'!O22,IF(ID!$B$74='DB CALIPER'!$A$84,'DB CALIPER'!A33,IF(ID!$B$74='DB CALIPER'!$A$85,'DB CALIPER'!H33,'DB CALIPER'!O33))))))))</f>
         <v>50</v>
@@ -24775,7 +24775,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="1009">
         <f>IF(ID!$B$74='DB CALIPER'!$A$78,'DB CALIPER'!A12,IF(ID!$B$74='DB CALIPER'!$A$79,'DB CALIPER'!H12,IF(ID!$B$74='DB CALIPER'!$A$80,'DB CALIPER'!O12,IF(ID!$B$74='DB CALIPER'!$A$81,'DB CALIPER'!A23,IF(ID!$B$74='DB CALIPER'!$A$82,'DB CALIPER'!H23,IF(ID!$B$74='DB CALIPER'!$A$83,'DB CALIPER'!O23,IF(ID!$B$74='DB CALIPER'!$A$84,'DB CALIPER'!A34,IF(ID!$B$74='DB CALIPER'!$A$85,'DB CALIPER'!H34,'DB CALIPER'!O34))))))))</f>
         <v>70</v>
@@ -24801,7 +24801,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="1009">
         <f>IF(ID!$B$74='DB CALIPER'!$A$78,'DB CALIPER'!A13,IF(ID!$B$74='DB CALIPER'!$A$79,'DB CALIPER'!H13,IF(ID!$B$74='DB CALIPER'!$A$80,'DB CALIPER'!O13,IF(ID!$B$74='DB CALIPER'!$A$81,'DB CALIPER'!A24,IF(ID!$B$74='DB CALIPER'!$A$82,'DB CALIPER'!H24,IF(ID!$B$74='DB CALIPER'!$A$83,'DB CALIPER'!O24,IF(ID!$B$74='DB CALIPER'!$A$84,'DB CALIPER'!A35,IF(ID!$B$74='DB CALIPER'!$A$85,'DB CALIPER'!H35,'DB CALIPER'!O35))))))))</f>
         <v>100</v>
@@ -24827,7 +24827,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="1009">
         <f>IF(ID!$B$74='DB CALIPER'!$A$78,'DB CALIPER'!A14,IF(ID!$B$74='DB CALIPER'!$A$79,'DB CALIPER'!H14,IF(ID!$B$74='DB CALIPER'!$A$80,'DB CALIPER'!O14,IF(ID!$B$74='DB CALIPER'!$A$81,'DB CALIPER'!A25,IF(ID!$B$74='DB CALIPER'!$A$82,'DB CALIPER'!H25,IF(ID!$B$74='DB CALIPER'!$A$83,'DB CALIPER'!O25,IF(ID!$B$74='DB CALIPER'!$A$84,'DB CALIPER'!A36,IF(ID!$B$74='DB CALIPER'!$A$85,'DB CALIPER'!H36,'DB CALIPER'!O36))))))))</f>
         <v>120</v>
@@ -24853,7 +24853,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="1009">
         <f>IF(ID!$B$74='DB CALIPER'!$A$78,'DB CALIPER'!A15,IF(ID!$B$74='DB CALIPER'!$A$79,'DB CALIPER'!H15,IF(ID!$B$74='DB CALIPER'!$A$80,'DB CALIPER'!O15,IF(ID!$B$74='DB CALIPER'!$A$81,'DB CALIPER'!A26,IF(ID!$B$74='DB CALIPER'!$A$82,'DB CALIPER'!H26,IF(ID!$B$74='DB CALIPER'!$A$83,'DB CALIPER'!O26,IF(ID!$B$74='DB CALIPER'!$A$84,'DB CALIPER'!A37,IF(ID!$B$74='DB CALIPER'!$A$85,'DB CALIPER'!H37,'DB CALIPER'!O37))))))))</f>
         <v>150</v>
@@ -24885,8 +24885,8 @@
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AE62" s="78"/>
     </row>
-    <row r="65" spans="1:34" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:34" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="1619" t="s">
         <v>291</v>
       </c>
@@ -25077,7 +25077,7 @@
       </c>
       <c r="AH68" s="34"/>
     </row>
-    <row r="69" spans="1:34" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="33"/>
       <c r="B69" s="1158">
         <f>IF($A$68&lt;=$A$54,0,IF($A$68&lt;=$A$55,$A$55,IF($A$68&lt;=$A$56,$A$56,IF($A$68&lt;=$A$57,$A$57,IF($A$68&lt;=$A$58,$A$58,IF($A$68&lt;=$A$59,$A$59,IF($A$68&lt;=$A$60,$A$60)))))))</f>
@@ -25150,7 +25150,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="70" spans="1:34" ht="13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="33"/>
       <c r="B70" s="1160">
         <f>IF($A$71&lt;=$A$54,0,IF($A$71&lt;=$A$55,$A$54,IF($A$71&lt;=$A$56,$A$55,IF($A$71&lt;=$A$57,$A$56,IF($A$71&lt;=$A$58,$A$57,IF($A$71&lt;=$A$59,$A$58,IF($A$71&lt;=$A$60,$A$59,$A$60)))))))</f>
@@ -25365,7 +25365,7 @@
       </c>
       <c r="AH72" s="34"/>
     </row>
-    <row r="73" spans="1:34" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="33"/>
       <c r="B73" s="1160">
         <f>IF($A$74&lt;=$A$54,0,IF($A$74&lt;=$A$55,$A$54,IF($A$74&lt;=$A$56,$A$55,IF($A$74&lt;=$A$57,$A$56,IF($A$74&lt;=$A$58,$A$57,IF($A$74&lt;=$A$59,$A$58,IF($A$74&lt;=$A$60,$A$59,$A$60)))))))</f>
@@ -25438,7 +25438,7 @@
         <v>6.6666666666666662E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" ht="13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="34">
         <f>ID!L42</f>
         <v>20.286000000000001</v>
@@ -25774,27 +25774,27 @@
       <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.54296875" style="104" customWidth="1"/>
-    <col min="2" max="2" width="3.36328125" style="149" customWidth="1"/>
-    <col min="3" max="3" width="3.54296875" style="149" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="149" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" style="149" customWidth="1"/>
+    <col min="1" max="1" width="0.5546875" style="104" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="149" customWidth="1"/>
+    <col min="3" max="3" width="3.5546875" style="149" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="149" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="149" customWidth="1"/>
     <col min="6" max="6" width="15" style="149" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="149" customWidth="1"/>
-    <col min="8" max="10" width="10.54296875" style="149" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" style="149" customWidth="1"/>
-    <col min="12" max="12" width="10.453125" style="149" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" style="149" customWidth="1"/>
-    <col min="14" max="14" width="9.36328125" style="149" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="149" customWidth="1"/>
+    <col min="8" max="10" width="10.5546875" style="149" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="149" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" style="149" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="149" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="149" customWidth="1"/>
     <col min="15" max="15" width="6" style="149" customWidth="1"/>
-    <col min="16" max="16" width="8.54296875" style="149" customWidth="1"/>
-    <col min="17" max="17" width="0.36328125" style="104" customWidth="1"/>
-    <col min="18" max="16384" width="9.36328125" style="104"/>
+    <col min="16" max="16" width="8.5546875" style="149" customWidth="1"/>
+    <col min="17" max="17" width="0.33203125" style="104" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="104"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="1171" t="s">
         <v>0</v>
       </c>
@@ -25813,7 +25813,7 @@
       <c r="O1" s="1171"/>
       <c r="P1" s="279"/>
     </row>
-    <row r="2" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1172" t="s">
         <v>1</v>
       </c>
@@ -25832,7 +25832,7 @@
       <c r="O2" s="1172"/>
       <c r="P2" s="280"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="138" t="s">
         <v>2</v>
       </c>
@@ -25846,7 +25846,7 @@
       </c>
       <c r="G4" s="138"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="138" t="s">
         <v>5</v>
       </c>
@@ -25860,7 +25860,7 @@
       </c>
       <c r="G5" s="138"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="138" t="s">
         <v>6</v>
       </c>
@@ -25874,7 +25874,7 @@
       </c>
       <c r="G6" s="138"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="138" t="s">
         <v>489</v>
       </c>
@@ -25888,7 +25888,7 @@
       </c>
       <c r="G7" s="138"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="138" t="s">
         <v>7</v>
       </c>
@@ -25902,7 +25902,7 @@
       </c>
       <c r="G8" s="138"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="138" t="s">
         <v>8</v>
       </c>
@@ -25916,7 +25916,7 @@
       </c>
       <c r="G9" s="138"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="138" t="s">
         <v>9</v>
       </c>
@@ -25930,7 +25930,7 @@
       </c>
       <c r="G10" s="138"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="141" t="s">
         <v>10</v>
       </c>
@@ -25953,7 +25953,7 @@
       <c r="O12" s="138"/>
       <c r="P12" s="138"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="138"/>
       <c r="C13" s="138" t="s">
         <v>14</v>
@@ -25973,7 +25973,7 @@
       <c r="O13" s="138"/>
       <c r="P13" s="138"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="138"/>
       <c r="C14" s="138" t="s">
         <v>16</v>
@@ -25993,7 +25993,7 @@
       <c r="O14" s="138"/>
       <c r="P14" s="138"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="138"/>
       <c r="C15" s="143" t="s">
         <v>18</v>
@@ -26013,7 +26013,7 @@
       <c r="O15" s="138"/>
       <c r="P15" s="138"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="138"/>
       <c r="C16" s="138"/>
       <c r="D16" s="138"/>
@@ -26030,7 +26030,7 @@
       <c r="O16" s="138"/>
       <c r="P16" s="138"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="141" t="s">
         <v>20</v>
       </c>
@@ -26051,7 +26051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="138"/>
       <c r="C18" s="146" t="s">
         <v>23</v>
@@ -26074,7 +26074,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="138"/>
       <c r="C19" s="146" t="s">
         <v>26</v>
@@ -26098,7 +26098,7 @@
       <c r="C20" s="150"/>
       <c r="P20" s="104"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="141" t="s">
         <v>27</v>
       </c>
@@ -26161,7 +26161,7 @@
       <c r="O23" s="1185"/>
       <c r="P23" s="1205"/>
     </row>
-    <row r="24" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="394">
         <v>1</v>
       </c>
@@ -26190,7 +26190,7 @@
       </c>
       <c r="R24" s="1178"/>
     </row>
-    <row r="25" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="394">
         <v>2</v>
       </c>
@@ -26219,7 +26219,7 @@
       </c>
       <c r="R25" s="1178"/>
     </row>
-    <row r="26" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="394">
         <v>3</v>
       </c>
@@ -26245,7 +26245,7 @@
       </c>
       <c r="P26" s="1206"/>
     </row>
-    <row r="27" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="394">
         <v>4</v>
       </c>
@@ -26273,7 +26273,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="394">
         <v>5</v>
       </c>
@@ -26299,7 +26299,7 @@
       </c>
       <c r="P28" s="1208"/>
     </row>
-    <row r="29" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="394">
         <v>6</v>
       </c>
@@ -26327,7 +26327,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C30" s="147"/>
       <c r="D30" s="145"/>
       <c r="E30" s="145"/>
@@ -26346,7 +26346,7 @@
       </c>
       <c r="P30" s="104"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="150" t="s">
         <v>51</v>
       </c>
@@ -27030,7 +27030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="2:17" ht="28" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="C77" s="382">
         <v>1</v>
       </c>
@@ -27242,7 +27242,7 @@
       <c r="M88" s="166"/>
       <c r="N88" s="166"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="407" t="s">
         <v>106</v>
       </c>
@@ -27261,7 +27261,7 @@
       <c r="M89" s="166"/>
       <c r="N89" s="166"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="407" t="s">
         <v>106</v>
       </c>
@@ -27280,7 +27280,7 @@
       <c r="M90" s="166"/>
       <c r="N90" s="166"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="407" t="s">
         <v>106</v>
       </c>
@@ -27299,7 +27299,7 @@
       <c r="M91" s="166"/>
       <c r="N91" s="166"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="407" t="s">
         <v>106</v>
       </c>
@@ -27318,7 +27318,7 @@
       <c r="M92" s="166"/>
       <c r="N92" s="166"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="407" t="s">
         <v>106</v>
       </c>
@@ -27337,7 +27337,7 @@
       <c r="M93" s="166"/>
       <c r="N93" s="166"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="407" t="s">
         <v>106</v>
       </c>
@@ -27356,7 +27356,7 @@
       <c r="M94" s="166"/>
       <c r="N94" s="166"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="407" t="s">
         <v>106</v>
       </c>
@@ -27375,7 +27375,7 @@
       <c r="M95" s="166"/>
       <c r="N95" s="166"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="407" t="s">
         <v>106</v>
       </c>
@@ -27394,7 +27394,7 @@
       <c r="M96" s="166"/>
       <c r="N96" s="166"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="407" t="s">
         <v>106</v>
       </c>
@@ -27413,7 +27413,7 @@
       <c r="M97" s="166"/>
       <c r="N97" s="166"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="407" t="s">
         <v>106</v>
       </c>
@@ -27432,7 +27432,7 @@
       <c r="M98" s="166"/>
       <c r="N98" s="166"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="407" t="s">
         <v>106</v>
       </c>
@@ -27451,7 +27451,7 @@
       <c r="M99" s="166"/>
       <c r="N99" s="166"/>
     </row>
-    <row r="100" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="407" t="s">
         <v>106</v>
       </c>
@@ -27470,7 +27470,7 @@
       <c r="M100" s="166"/>
       <c r="N100" s="166"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="407" t="s">
         <v>106</v>
       </c>
@@ -27489,7 +27489,7 @@
       <c r="M101" s="166"/>
       <c r="N101" s="166"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="407" t="s">
         <v>106</v>
       </c>
@@ -27657,10 +27657,10 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -28652,30 +28652,30 @@
   </sheetPr>
   <dimension ref="A1:AF180"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74:L74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.36328125" style="163" customWidth="1"/>
-    <col min="2" max="2" width="5.54296875" style="163" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" style="163" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="163" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" style="163" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="163" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" style="163" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="163" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="163" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="163" customWidth="1"/>
     <col min="6" max="6" width="11" style="163" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="163" customWidth="1"/>
-    <col min="8" max="9" width="11.6328125" style="163" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="163" customWidth="1"/>
+    <col min="8" max="9" width="11.6640625" style="163" customWidth="1"/>
     <col min="10" max="11" width="13" style="163" customWidth="1"/>
-    <col min="12" max="12" width="10.453125" style="163" customWidth="1"/>
-    <col min="13" max="13" width="13.36328125" style="644" customWidth="1"/>
-    <col min="14" max="14" width="13.6328125" style="644" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" style="644" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" style="163" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="644" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="644" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" style="644" customWidth="1"/>
     <col min="16" max="17" width="3" style="633" customWidth="1"/>
-    <col min="18" max="20" width="9.36328125" style="633"/>
-    <col min="21" max="21" width="11.6328125" style="633" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" style="633" customWidth="1"/>
-    <col min="23" max="16384" width="9.36328125" style="633"/>
+    <col min="18" max="20" width="9.33203125" style="633"/>
+    <col min="21" max="21" width="11.6640625" style="633" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" style="633" customWidth="1"/>
+    <col min="23" max="16384" width="9.33203125" style="633"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28697,7 +28697,7 @@
       <c r="N1" s="1286"/>
       <c r="O1" s="1286"/>
     </row>
-    <row r="2" spans="1:32" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B2" s="755"/>
       <c r="C2" s="755"/>
       <c r="D2" s="756"/>
@@ -28740,7 +28740,7 @@
       <c r="N4" s="636"/>
       <c r="O4" s="636"/>
     </row>
-    <row r="5" spans="1:32" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="253" t="s">
         <v>5</v>
       </c>
@@ -28763,7 +28763,7 @@
       <c r="N5" s="636"/>
       <c r="O5" s="636"/>
     </row>
-    <row r="6" spans="1:32" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="253" t="s">
         <v>6</v>
       </c>
@@ -28786,7 +28786,7 @@
       <c r="N6" s="636"/>
       <c r="O6" s="636"/>
     </row>
-    <row r="7" spans="1:32" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="253" t="str">
         <f>LK!B7</f>
         <v>Tanggal Penerimaan Alat</v>
@@ -28810,7 +28810,7 @@
       <c r="N7" s="636"/>
       <c r="O7" s="636"/>
     </row>
-    <row r="8" spans="1:32" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="253" t="s">
         <v>7</v>
       </c>
@@ -28833,7 +28833,7 @@
       <c r="N8" s="636"/>
       <c r="O8" s="636"/>
     </row>
-    <row r="9" spans="1:32" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="253" t="s">
         <v>8</v>
       </c>
@@ -28856,7 +28856,7 @@
       <c r="N9" s="633"/>
       <c r="O9" s="636"/>
     </row>
-    <row r="10" spans="1:32" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="253" t="s">
         <v>9</v>
       </c>
@@ -28894,7 +28894,7 @@
       <c r="AD10" s="678"/>
       <c r="AE10" s="678"/>
     </row>
-    <row r="11" spans="1:32" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="253" t="s">
         <v>127</v>
       </c>
@@ -28958,7 +28958,7 @@
       <c r="AD12" s="678"/>
       <c r="AE12" s="678"/>
     </row>
-    <row r="13" spans="1:32" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="256" t="s">
         <v>579</v>
       </c>
@@ -28998,7 +28998,7 @@
       <c r="AD13" s="678"/>
       <c r="AE13" s="678"/>
     </row>
-    <row r="14" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="253"/>
       <c r="B14" s="253" t="s">
         <v>14</v>
@@ -29039,7 +29039,7 @@
       <c r="AE14" s="892"/>
       <c r="AF14" s="762"/>
     </row>
-    <row r="15" spans="1:32" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="253"/>
       <c r="B15" s="253" t="s">
         <v>16</v>
@@ -29084,7 +29084,7 @@
       <c r="AE15" s="892"/>
       <c r="AF15" s="762"/>
     </row>
-    <row r="16" spans="1:32" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="253"/>
       <c r="B16" s="166" t="s">
         <v>18</v>
@@ -29124,7 +29124,7 @@
       <c r="AE16" s="892"/>
       <c r="AF16" s="762"/>
     </row>
-    <row r="17" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="253"/>
       <c r="B17" s="253"/>
       <c r="C17" s="253"/>
@@ -29157,7 +29157,7 @@
       <c r="AE17" s="892"/>
       <c r="AF17" s="762"/>
     </row>
-    <row r="18" spans="1:32" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="256" t="s">
         <v>580</v>
       </c>
@@ -29195,7 +29195,7 @@
       <c r="AE18" s="892"/>
       <c r="AF18" s="762"/>
     </row>
-    <row r="19" spans="1:32" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="253"/>
       <c r="B19" s="253" t="s">
         <v>23</v>
@@ -29234,7 +29234,7 @@
       <c r="AE19" s="892"/>
       <c r="AF19" s="762"/>
     </row>
-    <row r="20" spans="1:32" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="253"/>
       <c r="B20" s="253" t="s">
         <v>26</v>
@@ -29273,7 +29273,7 @@
       <c r="AE20" s="892"/>
       <c r="AF20" s="762"/>
     </row>
-    <row r="21" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="256"/>
       <c r="B21" s="256"/>
       <c r="C21" s="253"/>
@@ -29306,7 +29306,7 @@
       <c r="AE21" s="892"/>
       <c r="AF21" s="762"/>
     </row>
-    <row r="22" spans="1:32" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="256" t="s">
         <v>27</v>
       </c>
@@ -29344,7 +29344,7 @@
       <c r="AE22" s="892"/>
       <c r="AF22" s="762"/>
     </row>
-    <row r="23" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1221" t="s">
         <v>133</v>
       </c>
@@ -29385,7 +29385,7 @@
       <c r="AE23" s="892"/>
       <c r="AF23" s="762"/>
     </row>
-    <row r="24" spans="1:32" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B24" s="1222"/>
       <c r="C24" s="1225"/>
       <c r="D24" s="1233"/>
@@ -29420,7 +29420,7 @@
       <c r="AE24" s="892"/>
       <c r="AF24" s="762"/>
     </row>
-    <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="263">
         <v>1</v>
       </c>
@@ -29469,7 +29469,7 @@
       <c r="AE25" s="892"/>
       <c r="AF25" s="762"/>
     </row>
-    <row r="26" spans="1:32" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B26" s="263">
         <v>2</v>
       </c>
@@ -29510,7 +29510,7 @@
       <c r="AE26" s="892"/>
       <c r="AF26" s="762"/>
     </row>
-    <row r="27" spans="1:32" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B27" s="263">
         <v>3</v>
       </c>
@@ -29559,7 +29559,7 @@
       <c r="AE27" s="892"/>
       <c r="AF27" s="762"/>
     </row>
-    <row r="28" spans="1:32" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B28" s="263">
         <v>4</v>
       </c>
@@ -29595,7 +29595,7 @@
       <c r="AE28" s="892"/>
       <c r="AF28" s="762"/>
     </row>
-    <row r="29" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="253"/>
       <c r="B29" s="270"/>
       <c r="C29" s="270"/>
@@ -29623,7 +29623,7 @@
       <c r="AE29" s="892"/>
       <c r="AF29" s="762"/>
     </row>
-    <row r="30" spans="1:32" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="256" t="s">
         <v>51</v>
       </c>
@@ -29646,7 +29646,7 @@
       <c r="AE30" s="892"/>
       <c r="AF30" s="762"/>
     </row>
-    <row r="31" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="256"/>
       <c r="B31" s="770" t="str">
         <f>LK!C32</f>
@@ -29780,7 +29780,7 @@
       <c r="N34" s="633"/>
       <c r="O34" s="636"/>
     </row>
-    <row r="35" spans="1:31" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="633"/>
       <c r="B35" s="1288"/>
       <c r="C35" s="1246"/>
@@ -29814,7 +29814,7 @@
       <c r="N36" s="636"/>
       <c r="O36" s="636"/>
     </row>
-    <row r="37" spans="1:31" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="256"/>
       <c r="B37" s="256" t="str">
         <f>LK!C52</f>
@@ -29903,7 +29903,7 @@
       </c>
       <c r="W39" s="777"/>
     </row>
-    <row r="40" spans="1:31" ht="14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="633"/>
       <c r="B40" s="1268">
         <v>1</v>
@@ -29957,7 +29957,7 @@
       </c>
       <c r="W40" s="779"/>
     </row>
-    <row r="41" spans="1:31" ht="14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="633"/>
       <c r="B41" s="1269"/>
       <c r="C41" s="1272"/>
@@ -30006,7 +30006,7 @@
       </c>
       <c r="W41" s="779"/>
     </row>
-    <row r="42" spans="1:31" ht="14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="633"/>
       <c r="B42" s="1270"/>
       <c r="C42" s="1273"/>
@@ -30072,7 +30072,7 @@
       <c r="N43" s="636"/>
       <c r="O43" s="636"/>
     </row>
-    <row r="44" spans="1:31" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="256"/>
       <c r="B44" s="256" t="str">
         <f>LK!C59</f>
@@ -30092,7 +30092,7 @@
       <c r="N44" s="636"/>
       <c r="O44" s="636"/>
     </row>
-    <row r="45" spans="1:31" ht="14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="633"/>
       <c r="B45" s="1231" t="s">
         <v>29</v>
@@ -30127,7 +30127,7 @@
       <c r="N45" s="633"/>
       <c r="O45" s="633"/>
     </row>
-    <row r="46" spans="1:31" ht="14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="633"/>
       <c r="B46" s="1231"/>
       <c r="C46" s="1274"/>
@@ -30265,7 +30265,7 @@
       <c r="N49" s="633"/>
       <c r="O49" s="633"/>
     </row>
-    <row r="50" spans="1:23" ht="14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="633"/>
       <c r="B50" s="1244"/>
       <c r="C50" s="1244"/>
@@ -30371,7 +30371,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="256"/>
       <c r="B53" s="256" t="str">
         <f>LK!C69</f>
@@ -30426,7 +30426,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="633"/>
       <c r="B55" s="1231"/>
       <c r="C55" s="1274"/>
@@ -30456,7 +30456,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A56" s="633"/>
       <c r="B56" s="782">
         <v>1</v>
@@ -30523,7 +30523,7 @@
       <c r="N57" s="636"/>
       <c r="O57" s="633"/>
     </row>
-    <row r="58" spans="1:23" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="256"/>
       <c r="B58" s="256" t="str">
         <f>LK!C74</f>
@@ -30578,7 +30578,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="633"/>
       <c r="B60" s="1231"/>
       <c r="C60" s="1274"/>
@@ -30608,7 +30608,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="633"/>
       <c r="B61" s="782">
         <v>1</v>
@@ -30673,7 +30673,7 @@
       <c r="L62" s="658"/>
       <c r="M62" s="785"/>
     </row>
-    <row r="63" spans="1:23" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="687" t="s">
         <v>154</v>
       </c>
@@ -30752,7 +30752,7 @@
       <c r="O66" s="111"/>
       <c r="T66" s="107"/>
     </row>
-    <row r="67" spans="1:21" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="179"/>
       <c r="B67" s="183" t="s">
         <v>158</v>
@@ -30772,7 +30772,7 @@
       <c r="O67" s="111"/>
       <c r="T67" s="107"/>
     </row>
-    <row r="68" spans="1:21" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="179"/>
       <c r="B68" s="183" t="str">
         <f>PENYELIA!Y20</f>
@@ -30793,7 +30793,7 @@
       <c r="O68" s="111"/>
       <c r="T68" s="107"/>
     </row>
-    <row r="69" spans="1:21" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="179"/>
       <c r="B69" s="692"/>
       <c r="C69" s="442"/>
@@ -30835,7 +30835,7 @@
       <c r="S70" s="786"/>
       <c r="U70" s="786"/>
     </row>
-    <row r="71" spans="1:21" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="179" t="s">
         <v>159</v>
       </c>
@@ -30860,7 +30860,7 @@
       <c r="S71" s="786"/>
       <c r="U71" s="786"/>
     </row>
-    <row r="72" spans="1:21" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="185"/>
       <c r="B72" s="1249" t="s">
         <v>207</v>
@@ -30883,7 +30883,7 @@
       <c r="S72" s="786"/>
       <c r="U72" s="786"/>
     </row>
-    <row r="73" spans="1:21" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="185"/>
       <c r="B73" s="1249" t="s">
         <v>429</v>
@@ -30902,7 +30902,7 @@
       <c r="N73" s="111"/>
       <c r="O73" s="111"/>
     </row>
-    <row r="74" spans="1:21" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A74" s="185"/>
       <c r="B74" s="1249" t="s">
         <v>213</v>
@@ -30921,7 +30921,7 @@
       <c r="N74" s="111"/>
       <c r="O74" s="111"/>
     </row>
-    <row r="75" spans="1:21" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="185"/>
       <c r="B75" s="1249" t="s">
         <v>468</v>
@@ -30957,7 +30957,7 @@
       <c r="N76" s="111"/>
       <c r="O76" s="111"/>
     </row>
-    <row r="77" spans="1:21" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A77" s="189" t="s">
         <v>164</v>
       </c>
@@ -30978,7 +30978,7 @@
       <c r="N77" s="111"/>
       <c r="O77" s="111"/>
     </row>
-    <row r="78" spans="1:21" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A78" s="185"/>
       <c r="B78" s="1247" t="str">
         <f>LOOKUP(H2,'bank kata'!B4:B5,'bank kata'!C4:C5)</f>
@@ -31032,7 +31032,7 @@
       <c r="N80" s="111"/>
       <c r="O80" s="111"/>
     </row>
-    <row r="81" spans="1:15" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81" s="179" t="s">
         <v>99</v>
       </c>
@@ -31053,7 +31053,7 @@
       <c r="N81" s="111"/>
       <c r="O81" s="111"/>
     </row>
-    <row r="82" spans="1:15" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A82" s="185"/>
       <c r="B82" s="1248" t="s">
         <v>166</v>
@@ -31089,7 +31089,7 @@
       <c r="N83" s="111"/>
       <c r="O83" s="111"/>
     </row>
-    <row r="84" spans="1:15" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A84" s="189" t="s">
         <v>104</v>
       </c>
@@ -31110,7 +31110,7 @@
       <c r="N84" s="111"/>
       <c r="O84" s="111"/>
     </row>
-    <row r="85" spans="1:15" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A85" s="185"/>
       <c r="B85" s="414" t="s">
         <v>168</v>
@@ -31132,60 +31132,60 @@
     <row r="101" spans="15:19" x14ac:dyDescent="0.25">
       <c r="S101" s="766"/>
     </row>
-    <row r="102" spans="15:19" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="15:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S102" s="787"/>
     </row>
-    <row r="103" spans="15:19" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="15:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S103" s="787"/>
     </row>
-    <row r="104" spans="15:19" ht="14" x14ac:dyDescent="0.25">
+    <row r="104" spans="15:19" x14ac:dyDescent="0.25">
       <c r="S104" s="788"/>
     </row>
-    <row r="105" spans="15:19" ht="14" x14ac:dyDescent="0.25">
+    <row r="105" spans="15:19" x14ac:dyDescent="0.25">
       <c r="S105" s="788"/>
     </row>
-    <row r="107" spans="15:19" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="15:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="O107" s="789"/>
     </row>
-    <row r="108" spans="15:19" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="15:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="P108" s="769"/>
     </row>
-    <row r="109" spans="15:19" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="15:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="O109" s="678"/>
       <c r="P109" s="769"/>
     </row>
-    <row r="110" spans="15:19" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="15:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="O110" s="678"/>
       <c r="P110" s="769"/>
     </row>
-    <row r="111" spans="15:19" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="15:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="O111" s="678"/>
       <c r="P111" s="769"/>
     </row>
-    <row r="112" spans="15:19" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="15:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="P112" s="769"/>
     </row>
-    <row r="113" spans="2:28" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="P113" s="790"/>
     </row>
-    <row r="114" spans="2:28" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="P114" s="790"/>
     </row>
-    <row r="115" spans="2:28" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="P115" s="790"/>
     </row>
-    <row r="116" spans="2:28" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B116" s="255"/>
       <c r="P116" s="790"/>
     </row>
-    <row r="117" spans="2:28" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B117" s="255"/>
       <c r="P117" s="790"/>
     </row>
-    <row r="118" spans="2:28" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="P118" s="790"/>
     </row>
-    <row r="119" spans="2:28" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="P119" s="790"/>
       <c r="Q119" s="791"/>
       <c r="R119" s="791"/>
@@ -31200,7 +31200,7 @@
       <c r="AA119" s="791"/>
       <c r="AB119" s="791"/>
     </row>
-    <row r="120" spans="2:28" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="P120" s="790"/>
       <c r="Q120" s="791"/>
       <c r="R120" s="791"/>
@@ -31215,89 +31215,89 @@
       <c r="AA120" s="791"/>
       <c r="AB120" s="791"/>
     </row>
-    <row r="121" spans="2:28" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="P121" s="790"/>
     </row>
-    <row r="122" spans="2:28" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="P122" s="790"/>
     </row>
-    <row r="123" spans="2:28" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="P123" s="636"/>
     </row>
-    <row r="124" spans="2:28" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="P124" s="636"/>
     </row>
-    <row r="125" spans="2:28" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="P125" s="636"/>
     </row>
-    <row r="126" spans="2:28" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="P126" s="636"/>
     </row>
-    <row r="127" spans="2:28" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="P127" s="636"/>
     </row>
-    <row r="128" spans="2:28" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="P128" s="636"/>
     </row>
-    <row r="129" spans="2:16" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="P129" s="636"/>
     </row>
-    <row r="130" spans="2:16" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="P130" s="636"/>
     </row>
-    <row r="131" spans="2:16" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B131" s="273"/>
       <c r="P131" s="636"/>
     </row>
-    <row r="132" spans="2:16" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B132" s="255"/>
       <c r="P132" s="636"/>
     </row>
-    <row r="133" spans="2:16" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B133" s="255"/>
       <c r="P133" s="636"/>
     </row>
-    <row r="134" spans="2:16" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B134" s="255"/>
       <c r="P134" s="636"/>
     </row>
-    <row r="135" spans="2:16" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B135" s="255"/>
       <c r="P135" s="105"/>
     </row>
-    <row r="136" spans="2:16" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B136" s="255"/>
       <c r="P136" s="105"/>
     </row>
-    <row r="137" spans="2:16" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B137" s="255"/>
       <c r="P137" s="105"/>
     </row>
-    <row r="138" spans="2:16" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B138" s="255"/>
       <c r="P138" s="105"/>
     </row>
-    <row r="139" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B139" s="792"/>
       <c r="P139" s="105"/>
     </row>
-    <row r="140" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B140" s="792"/>
       <c r="P140" s="105"/>
     </row>
-    <row r="141" spans="2:16" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B141" s="255"/>
       <c r="P141" s="105"/>
     </row>
-    <row r="142" spans="2:16" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B142" s="255"/>
       <c r="P142" s="105"/>
     </row>
-    <row r="143" spans="2:16" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B143" s="255"/>
       <c r="P143" s="105"/>
     </row>
-    <row r="144" spans="2:16" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B144" s="255"/>
       <c r="P144" s="105"/>
     </row>
@@ -31328,13 +31328,13 @@
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="633"/>
     </row>
-    <row r="154" spans="2:2" ht="14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" s="255"/>
     </row>
-    <row r="155" spans="2:2" ht="14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="255"/>
     </row>
-    <row r="156" spans="2:2" ht="14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" s="255"/>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
@@ -31479,7 +31479,7 @@
     <mergeCell ref="E34:E35"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B76:L76" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$B$157:$B$163</formula1>
     </dataValidation>
@@ -31502,7 +31502,7 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="10">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000F000000}">
           <x14:formula1>
             <xm:f>'DB Thermohygro'!$A$364:$A$382</xm:f>
@@ -31580,14 +31580,14 @@
       <selection activeCell="O167" sqref="O167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9.6328125" style="448" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" style="1010" customWidth="1"/>
-    <col min="9" max="14" width="9.6328125" style="448" customWidth="1"/>
+    <col min="1" max="7" width="9.6640625" style="448" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1010" customWidth="1"/>
+    <col min="9" max="14" width="9.6640625" style="448" customWidth="1"/>
     <col min="15" max="15" width="14" style="448" customWidth="1"/>
-    <col min="16" max="16" width="9.6328125" style="1010" customWidth="1"/>
-    <col min="17" max="23" width="9.6328125" style="448" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" style="1010" customWidth="1"/>
+    <col min="17" max="23" width="9.6640625" style="448" customWidth="1"/>
     <col min="24" max="24" width="9" style="1010"/>
     <col min="25" max="16384" width="9" style="448"/>
   </cols>
@@ -35339,7 +35339,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:24" s="296" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" s="296" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="1047"/>
       <c r="B63" s="1048"/>
       <c r="C63" s="1049"/>
@@ -37209,7 +37209,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:24" s="296" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" s="296" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="1047"/>
       <c r="B94" s="1048"/>
       <c r="C94" s="1049"/>
@@ -38976,7 +38976,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="125" spans="1:24" s="296" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:24" s="296" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1047"/>
       <c r="B125" s="1048"/>
       <c r="C125" s="1049"/>
@@ -38999,7 +38999,7 @@
       <c r="W125" s="1038"/>
       <c r="X125" s="1039"/>
     </row>
-    <row r="126" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="872"/>
       <c r="B126" s="873"/>
       <c r="C126" s="873"/>
@@ -39031,7 +39031,7 @@
     </row>
     <row r="128" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="129" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S131" s="300"/>
     </row>
     <row r="132" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -39264,7 +39264,7 @@
         <v>OL</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="1348"/>
       <c r="B139" s="1063">
         <f t="shared" si="82"/>
@@ -39314,7 +39314,7 @@
         <v>OL</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="1348"/>
       <c r="B140" s="1063">
         <f t="shared" si="82"/>
@@ -39410,7 +39410,7 @@
         <v>24.558641571526138</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1348"/>
       <c r="B142" s="1319" t="str">
         <f t="shared" si="82"/>
@@ -39494,7 +39494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1348"/>
       <c r="B144" s="1090">
         <f t="shared" si="82"/>
@@ -39536,7 +39536,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="1348"/>
       <c r="B145" s="1063">
         <f t="shared" si="82"/>
@@ -39579,7 +39579,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1348"/>
       <c r="B146" s="1063">
         <f t="shared" si="82"/>
@@ -39613,7 +39613,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1348"/>
       <c r="B147" s="1063">
         <f t="shared" si="82"/>
@@ -39727,7 +39727,7 @@
       <c r="N149" s="296"/>
       <c r="O149" s="296"/>
     </row>
-    <row r="150" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1348"/>
       <c r="B150" s="1319" t="str">
         <f t="shared" si="83"/>
@@ -39914,7 +39914,7 @@
       <c r="N155" s="296"/>
       <c r="O155" s="296"/>
     </row>
-    <row r="156" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="1348"/>
       <c r="B156" s="1319" t="str">
         <f t="shared" si="83"/>
@@ -39935,7 +39935,7 @@
       <c r="M156" s="1345"/>
       <c r="O156" s="296"/>
     </row>
-    <row r="157" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="1348"/>
       <c r="B157" s="1063" t="str">
         <f t="shared" si="83"/>
@@ -40073,7 +40073,7 @@
       <c r="P160" s="1039"/>
       <c r="Q160" s="296"/>
     </row>
-    <row r="161" spans="1:38" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:38" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1349"/>
       <c r="B161" s="1106">
         <f t="shared" si="83"/>
@@ -40131,7 +40131,7 @@
       <c r="P163" s="1039"/>
       <c r="Q163" s="296"/>
     </row>
-    <row r="164" spans="1:38" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:38" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I164" s="296"/>
       <c r="J164" s="457"/>
       <c r="K164" s="457"/>
@@ -40174,7 +40174,7 @@
       <c r="X165" s="1335"/>
       <c r="Y165" s="1336"/>
     </row>
-    <row r="166" spans="1:38" ht="14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="1110" t="s">
         <v>570</v>
       </c>
@@ -40217,7 +40217,7 @@
       <c r="X166" s="1119"/>
       <c r="Y166" s="1121"/>
     </row>
-    <row r="167" spans="1:38" ht="14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" s="1110" t="s">
         <v>571</v>
       </c>
@@ -40261,7 +40261,7 @@
       <c r="Y167" s="1121"/>
       <c r="AL167" s="459"/>
     </row>
-    <row r="168" spans="1:38" ht="14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" s="1110" t="s">
         <v>425</v>
       </c>
@@ -40305,7 +40305,7 @@
       <c r="Y168" s="1121"/>
       <c r="AL168" s="459"/>
     </row>
-    <row r="169" spans="1:38" ht="14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" s="1110" t="s">
         <v>572</v>
       </c>
@@ -40349,7 +40349,7 @@
       <c r="Y169" s="1121"/>
       <c r="AL169" s="459"/>
     </row>
-    <row r="170" spans="1:38" ht="14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" s="1110" t="s">
         <v>573</v>
       </c>
@@ -40393,7 +40393,7 @@
       <c r="Y170" s="1121"/>
       <c r="AL170" s="459"/>
     </row>
-    <row r="171" spans="1:38" ht="14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" s="1110" t="s">
         <v>426</v>
       </c>
@@ -40437,7 +40437,7 @@
       <c r="Y171" s="1121"/>
       <c r="AL171" s="459"/>
     </row>
-    <row r="172" spans="1:38" ht="14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" s="1110" t="s">
         <v>427</v>
       </c>
@@ -40481,7 +40481,7 @@
       <c r="Y172" s="1121"/>
       <c r="AL172" s="459"/>
     </row>
-    <row r="173" spans="1:38" ht="14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" s="1110" t="s">
         <v>428</v>
       </c>
@@ -40525,7 +40525,7 @@
       <c r="Y173" s="1121"/>
       <c r="AL173" s="459"/>
     </row>
-    <row r="174" spans="1:38" ht="14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" s="1110" t="s">
         <v>429</v>
       </c>
@@ -40569,7 +40569,7 @@
       <c r="Y174" s="1121"/>
       <c r="AL174" s="459"/>
     </row>
-    <row r="175" spans="1:38" ht="14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="1110" t="s">
         <v>473</v>
       </c>
@@ -40614,7 +40614,7 @@
       <c r="Y175" s="1121"/>
       <c r="AL175" s="459"/>
     </row>
-    <row r="176" spans="1:38" ht="14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" s="1110" t="s">
         <v>474</v>
       </c>
@@ -40658,7 +40658,7 @@
       <c r="Y176" s="1121"/>
       <c r="AL176" s="459"/>
     </row>
-    <row r="177" spans="1:50" ht="14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" s="1110" t="s">
         <v>475</v>
       </c>
@@ -40737,7 +40737,7 @@
     <row r="179" spans="1:50" x14ac:dyDescent="0.25">
       <c r="AL179" s="459"/>
     </row>
-    <row r="180" spans="1:50" ht="14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:50" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A180" s="1126"/>
       <c r="AL180" s="459"/>
     </row>
@@ -40802,7 +40802,7 @@
       <c r="AD218" s="296"/>
       <c r="AE218" s="296"/>
     </row>
-    <row r="219" spans="27:31" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="27:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA219" s="303"/>
       <c r="AB219" s="304"/>
       <c r="AC219" s="304"/>
@@ -40933,40 +40933,40 @@
   </sheetPr>
   <dimension ref="A1:AO87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A58" zoomScale="93" zoomScaleNormal="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A58" zoomScale="93" zoomScaleNormal="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="4.36328125" style="163" customWidth="1"/>
+    <col min="1" max="2" width="4.33203125" style="163" customWidth="1"/>
     <col min="3" max="3" width="17" style="163" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="163" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="163" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="163" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="163" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="163" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="163" customWidth="1"/>
     <col min="7" max="8" width="11" style="163" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" style="163" customWidth="1"/>
-    <col min="10" max="10" width="6.453125" style="163" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" style="163" customWidth="1"/>
-    <col min="12" max="12" width="10.36328125" style="710" customWidth="1"/>
-    <col min="13" max="13" width="4.6328125" style="710" customWidth="1"/>
-    <col min="14" max="14" width="13.36328125" style="644" customWidth="1"/>
-    <col min="15" max="15" width="5.36328125" style="644" customWidth="1"/>
-    <col min="16" max="16" width="6.54296875" style="711" customWidth="1"/>
-    <col min="17" max="17" width="6.36328125" style="633" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" style="633"/>
-    <col min="19" max="19" width="13.453125" style="633" customWidth="1"/>
-    <col min="20" max="22" width="9.36328125" style="633"/>
-    <col min="23" max="23" width="10.6328125" style="633" customWidth="1"/>
-    <col min="24" max="28" width="9.36328125" style="633"/>
+    <col min="9" max="9" width="9.44140625" style="163" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" style="163" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="163" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="710" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" style="710" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="644" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" style="644" customWidth="1"/>
+    <col min="16" max="16" width="6.5546875" style="711" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" style="633" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" style="633"/>
+    <col min="19" max="19" width="13.44140625" style="633" customWidth="1"/>
+    <col min="20" max="22" width="9.33203125" style="633"/>
+    <col min="23" max="23" width="10.6640625" style="633" customWidth="1"/>
+    <col min="24" max="28" width="9.33203125" style="633"/>
     <col min="29" max="29" width="11" style="633" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="9.36328125" style="633"/>
+    <col min="30" max="32" width="9.33203125" style="633"/>
     <col min="33" max="33" width="13" style="633" customWidth="1"/>
     <col min="34" max="34" width="12" style="633" customWidth="1"/>
-    <col min="35" max="16384" width="9.36328125" style="633"/>
+    <col min="35" max="16384" width="9.33203125" style="633"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1286" t="s">
         <v>329</v>
       </c>
@@ -40986,7 +40986,7 @@
       <c r="O1" s="632"/>
       <c r="P1" s="632"/>
     </row>
-    <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="1356" t="str">
         <f>ID!H2&amp;PENYELIA!N2&amp;ID!I2</f>
         <v>Nomor Sertifikat : 19 / 10 / III - 21 / E - 003.30 DL</v>
@@ -41051,7 +41051,7 @@
       <c r="P4" s="700"/>
       <c r="Q4" s="637"/>
     </row>
-    <row r="5" spans="1:17" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="253" t="s">
         <v>5</v>
       </c>
@@ -41121,7 +41121,7 @@
       <c r="P7" s="700"/>
       <c r="Q7" s="637"/>
     </row>
-    <row r="8" spans="1:17" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="253" t="str">
         <f>ID!A8</f>
         <v>Tanggal Kalibrasi</v>
@@ -41145,7 +41145,7 @@
       <c r="P8" s="700"/>
       <c r="Q8" s="637"/>
     </row>
-    <row r="9" spans="1:17" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="253" t="str">
         <f>ID!A9</f>
         <v>Tempat Kalibrasi</v>
@@ -41169,7 +41169,7 @@
       <c r="P9" s="700"/>
       <c r="Q9" s="637"/>
     </row>
-    <row r="10" spans="1:17" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="253" t="s">
         <v>9</v>
       </c>
@@ -41192,7 +41192,7 @@
       <c r="P10" s="700"/>
       <c r="Q10" s="637"/>
     </row>
-    <row r="11" spans="1:17" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="253" t="s">
         <v>127</v>
       </c>
@@ -41236,7 +41236,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="256" t="s">
         <v>579</v>
       </c>
@@ -41282,7 +41282,7 @@
       <c r="P14" s="700"/>
       <c r="Q14" s="110"/>
     </row>
-    <row r="15" spans="1:17" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="253"/>
       <c r="B15" s="253" t="s">
         <v>331</v>
@@ -41305,7 +41305,7 @@
       <c r="P15" s="700"/>
       <c r="Q15" s="106"/>
     </row>
-    <row r="16" spans="1:17" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="253"/>
       <c r="B16" s="166" t="s">
         <v>18</v>
@@ -41348,7 +41348,7 @@
       <c r="P17" s="700"/>
       <c r="Q17" s="106"/>
     </row>
-    <row r="18" spans="1:41" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="256" t="s">
         <v>580</v>
       </c>
@@ -41376,7 +41376,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="253"/>
       <c r="B19" s="253" t="s">
         <v>23</v>
@@ -41401,7 +41401,7 @@
       </c>
       <c r="Q19" s="637"/>
     </row>
-    <row r="20" spans="1:41" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="253"/>
       <c r="B20" s="253" t="s">
         <v>26</v>
@@ -41490,7 +41490,7 @@
       <c r="AF21" s="1431"/>
       <c r="AG21" s="1431"/>
     </row>
-    <row r="22" spans="1:41" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="256" t="s">
         <v>27</v>
       </c>
@@ -41585,7 +41585,7 @@
       <c r="AF23" s="948"/>
       <c r="AG23" s="949"/>
     </row>
-    <row r="24" spans="1:41" s="639" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" s="639" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="640"/>
       <c r="B24" s="1412"/>
       <c r="C24" s="1387"/>
@@ -41625,7 +41625,7 @@
       <c r="AJ24" s="651"/>
       <c r="AK24" s="651"/>
     </row>
-    <row r="25" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="263">
         <v>1</v>
       </c>
@@ -41756,7 +41756,7 @@
       <c r="AN26" s="706"/>
       <c r="AO26" s="707"/>
     </row>
-    <row r="27" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="263">
         <v>3</v>
       </c>
@@ -41831,7 +41831,7 @@
       <c r="AN27" s="708"/>
       <c r="AO27" s="709"/>
     </row>
-    <row r="28" spans="1:41" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="263">
         <v>4</v>
       </c>
@@ -41885,7 +41885,7 @@
       <c r="AK28" s="951"/>
       <c r="AN28" s="702"/>
     </row>
-    <row r="29" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="253"/>
       <c r="B29" s="270"/>
       <c r="C29" s="270"/>
@@ -41928,7 +41928,7 @@
       <c r="AJ29" s="952"/>
       <c r="AK29" s="952"/>
     </row>
-    <row r="30" spans="1:41" ht="14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="256" t="s">
         <v>51</v>
       </c>
@@ -41937,7 +41937,7 @@
         <v>Pengujian Kinerja</v>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="256"/>
       <c r="B31" s="256" t="str">
         <f>ID!B31</f>
@@ -41984,7 +41984,7 @@
       <c r="O32" s="712"/>
       <c r="P32" s="650"/>
     </row>
-    <row r="33" spans="1:38" s="639" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" s="639" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="640"/>
       <c r="B33" s="1374"/>
       <c r="C33" s="1417"/>
@@ -42040,7 +42040,7 @@
       <c r="R34" s="717"/>
       <c r="AC34" s="847"/>
     </row>
-    <row r="35" spans="1:38" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B35" s="1244"/>
       <c r="C35" s="1359"/>
       <c r="D35" s="1360"/>
@@ -42081,7 +42081,7 @@
       <c r="AC36" s="636"/>
       <c r="AD36" s="637"/>
     </row>
-    <row r="37" spans="1:38" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="256"/>
       <c r="B37" s="256" t="str">
         <f>ID!B37</f>
@@ -43087,7 +43087,7 @@
       <c r="AI59" s="678"/>
       <c r="AJ59" s="678"/>
     </row>
-    <row r="60" spans="1:38" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="687" t="s">
         <v>154</v>
       </c>
@@ -43172,7 +43172,7 @@
       <c r="AI62" s="678"/>
       <c r="AJ62" s="678"/>
     </row>
-    <row r="63" spans="1:38" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="179"/>
       <c r="B63" s="180" t="str">
         <f>ID!B66</f>
@@ -43284,7 +43284,7 @@
       <c r="AI67" s="678"/>
       <c r="AJ67" s="678"/>
     </row>
-    <row r="68" spans="1:36" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="179" t="s">
         <v>159</v>
       </c>
@@ -43313,7 +43313,7 @@
       <c r="AI68" s="678"/>
       <c r="AJ68" s="678"/>
     </row>
-    <row r="69" spans="1:36" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="185"/>
       <c r="B69" s="190" t="str">
         <f>ID!B72</f>
@@ -43341,7 +43341,7 @@
       <c r="AI69" s="678"/>
       <c r="AJ69" s="678"/>
     </row>
-    <row r="70" spans="1:36" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="185"/>
       <c r="B70" s="190" t="str">
         <f>ID!B73</f>
@@ -43363,7 +43363,7 @@
       <c r="P70" s="700"/>
       <c r="Q70" s="637"/>
     </row>
-    <row r="71" spans="1:36" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="185"/>
       <c r="B71" s="190" t="str">
         <f>ID!B74</f>
@@ -43404,7 +43404,7 @@
       <c r="P72" s="700"/>
       <c r="Q72" s="637"/>
     </row>
-    <row r="73" spans="1:36" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="189" t="s">
         <v>164</v>
       </c>
@@ -43487,7 +43487,7 @@
       <c r="P76" s="700"/>
       <c r="Q76" s="637"/>
     </row>
-    <row r="77" spans="1:36" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A77" s="274" t="s">
         <v>99</v>
       </c>
@@ -43511,7 +43511,7 @@
       <c r="P77" s="700"/>
       <c r="Q77" s="637"/>
     </row>
-    <row r="78" spans="1:36" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A78" s="253"/>
       <c r="B78" s="681" t="str">
         <f>ID!B82</f>
@@ -43626,7 +43626,7 @@
       <c r="P82" s="700"/>
       <c r="Q82" s="637"/>
     </row>
-    <row r="83" spans="1:17" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A83" s="253"/>
       <c r="B83" s="682"/>
       <c r="C83" s="682"/>
@@ -43642,7 +43642,7 @@
       <c r="P83" s="700"/>
       <c r="Q83" s="637"/>
     </row>
-    <row r="84" spans="1:17" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A84" s="253"/>
       <c r="B84" s="684"/>
       <c r="C84" s="684"/>
@@ -43658,7 +43658,7 @@
       <c r="P84" s="700"/>
       <c r="Q84" s="637"/>
     </row>
-    <row r="85" spans="1:17" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A85" s="253"/>
       <c r="B85" s="253"/>
       <c r="C85" s="253"/>
@@ -43674,7 +43674,7 @@
       <c r="P85" s="700"/>
       <c r="Q85" s="637"/>
     </row>
-    <row r="86" spans="1:17" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A86" s="253"/>
       <c r="B86" s="253"/>
       <c r="C86" s="253"/>
@@ -43693,7 +43693,7 @@
       <c r="P86" s="700"/>
       <c r="Q86" s="637"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="1410"/>
       <c r="B87" s="1410"/>
       <c r="C87" s="1410"/>
@@ -43803,7 +43803,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0.17" top="0.4" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"-,Regular"&amp;8KL. 020-18</oddHeader>
     <oddFooter>&amp;R&amp;K00-049ECG 17.2.2022</oddFooter>
@@ -43848,27 +43848,27 @@
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" style="633" customWidth="1"/>
-    <col min="2" max="2" width="4.36328125" style="163" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="633" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="163" customWidth="1"/>
     <col min="3" max="3" width="17" style="163" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" style="163" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="163" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="163" customWidth="1"/>
-    <col min="7" max="10" width="12.54296875" style="163" customWidth="1"/>
-    <col min="11" max="11" width="7.36328125" style="163" customWidth="1"/>
-    <col min="12" max="12" width="8.54296875" style="163" customWidth="1"/>
-    <col min="13" max="13" width="9.36328125" style="163" customWidth="1"/>
-    <col min="14" max="14" width="7.453125" style="163" customWidth="1"/>
-    <col min="15" max="15" width="13.36328125" style="644" customWidth="1"/>
-    <col min="16" max="16" width="5.36328125" style="644" customWidth="1"/>
-    <col min="17" max="17" width="11.36328125" style="644" customWidth="1"/>
-    <col min="18" max="18" width="10.6328125" style="633" customWidth="1"/>
-    <col min="19" max="16384" width="9.36328125" style="633"/>
+    <col min="4" max="4" width="11.5546875" style="163" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="163" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="163" customWidth="1"/>
+    <col min="7" max="10" width="12.5546875" style="163" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="163" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" style="163" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="163" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" style="163" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" style="644" customWidth="1"/>
+    <col min="16" max="16" width="5.33203125" style="644" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" style="644" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" style="633" customWidth="1"/>
+    <col min="19" max="16384" width="9.33203125" style="633"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1286" t="str">
         <f>PENYELIA!A1</f>
         <v>HASIL KALIBRASI ELECTROCARDIOGRAPH</v>
@@ -43890,7 +43890,7 @@
       <c r="P1" s="632"/>
       <c r="Q1" s="632"/>
     </row>
-    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="1356" t="str">
         <f>PENYELIA!A2</f>
         <v>Nomor Sertifikat : 19 / 10 / III - 21 / E - 003.30 DL</v>
@@ -43954,7 +43954,7 @@
       <c r="Q4" s="636"/>
       <c r="R4" s="637"/>
     </row>
-    <row r="5" spans="1:18" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="253" t="s">
         <v>5</v>
       </c>
@@ -44024,7 +44024,7 @@
       <c r="Q7" s="636"/>
       <c r="R7" s="637"/>
     </row>
-    <row r="8" spans="1:18" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="253" t="str">
         <f>PENYELIA!A8</f>
         <v>Tanggal Kalibrasi</v>
@@ -44048,7 +44048,7 @@
       <c r="Q8" s="636"/>
       <c r="R8" s="637"/>
     </row>
-    <row r="9" spans="1:18" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="253" t="str">
         <f>PENYELIA!A9</f>
         <v>Tempat Kalibrasi</v>
@@ -44072,7 +44072,7 @@
       <c r="Q9" s="636"/>
       <c r="R9" s="637"/>
     </row>
-    <row r="10" spans="1:18" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="253" t="s">
         <v>9</v>
       </c>
@@ -44095,7 +44095,7 @@
       <c r="Q10" s="636"/>
       <c r="R10" s="637"/>
     </row>
-    <row r="11" spans="1:18" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="253" t="s">
         <v>127</v>
       </c>
@@ -44137,7 +44137,7 @@
       <c r="Q12" s="636"/>
       <c r="R12" s="638"/>
     </row>
-    <row r="13" spans="1:18" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="256" t="s">
         <v>579</v>
       </c>
@@ -44191,7 +44191,7 @@
       <c r="Q14" s="636"/>
       <c r="R14" s="110"/>
     </row>
-    <row r="15" spans="1:18" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="253"/>
       <c r="B15" s="253" t="s">
         <v>331</v>
@@ -44222,7 +44222,7 @@
       <c r="Q15" s="636"/>
       <c r="R15" s="106"/>
     </row>
-    <row r="16" spans="1:18" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="253"/>
       <c r="B16" s="166" t="s">
         <v>18</v>
@@ -44277,7 +44277,7 @@
       <c r="Q17" s="636"/>
       <c r="R17" s="106"/>
     </row>
-    <row r="18" spans="1:18" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="256" t="s">
         <v>580</v>
       </c>
@@ -44301,7 +44301,7 @@
       <c r="Q18" s="636"/>
       <c r="R18" s="106"/>
     </row>
-    <row r="19" spans="1:18" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="253"/>
       <c r="B19" s="253" t="s">
         <v>23</v>
@@ -44324,7 +44324,7 @@
       <c r="Q19" s="636"/>
       <c r="R19" s="637"/>
     </row>
-    <row r="20" spans="1:18" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="253"/>
       <c r="B20" s="253" t="s">
         <v>26</v>
@@ -44366,7 +44366,7 @@
       <c r="Q21" s="636"/>
       <c r="R21" s="637"/>
     </row>
-    <row r="22" spans="1:18" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="256" t="s">
         <v>27</v>
       </c>
@@ -44436,7 +44436,7 @@
       <c r="Q24" s="641"/>
       <c r="R24" s="642"/>
     </row>
-    <row r="25" spans="1:18" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B25" s="263">
         <v>1</v>
       </c>
@@ -44469,7 +44469,7 @@
       <c r="Q25" s="636"/>
       <c r="R25" s="643"/>
     </row>
-    <row r="26" spans="1:18" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B26" s="263">
         <v>2</v>
       </c>
@@ -44502,7 +44502,7 @@
       <c r="Q26" s="636"/>
       <c r="R26" s="643"/>
     </row>
-    <row r="27" spans="1:18" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B27" s="263">
         <v>3</v>
       </c>
@@ -44535,7 +44535,7 @@
       <c r="Q27" s="636"/>
       <c r="R27" s="643"/>
     </row>
-    <row r="28" spans="1:18" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B28" s="263">
         <v>4</v>
       </c>
@@ -44587,7 +44587,7 @@
       <c r="Q29" s="636"/>
       <c r="R29" s="637"/>
     </row>
-    <row r="30" spans="1:18" ht="14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="256" t="s">
         <v>51</v>
       </c>
@@ -44597,7 +44597,7 @@
       </c>
       <c r="C30" s="633"/>
     </row>
-    <row r="31" spans="1:18" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B31" s="256" t="str">
         <f>ID!B31</f>
         <v>a. Pengamatan Visual 12 Lead</v>
@@ -44621,7 +44621,7 @@
       <c r="Q31" s="636"/>
       <c r="R31" s="637"/>
     </row>
-    <row r="32" spans="1:18" s="639" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="639" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B32" s="1440" t="s">
         <v>29</v>
       </c>
@@ -44648,7 +44648,7 @@
       <c r="Q32" s="641"/>
       <c r="R32" s="642"/>
     </row>
-    <row r="33" spans="2:18" s="639" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" s="639" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B33" s="1440"/>
       <c r="C33" s="1440"/>
       <c r="D33" s="1440"/>
@@ -44667,7 +44667,7 @@
       <c r="Q33" s="641"/>
       <c r="R33" s="642"/>
     </row>
-    <row r="34" spans="2:18" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B34" s="1231">
         <v>1</v>
       </c>
@@ -44695,7 +44695,7 @@
       <c r="Q34" s="636"/>
       <c r="R34" s="637"/>
     </row>
-    <row r="35" spans="2:18" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B35" s="1231"/>
       <c r="C35" s="1230"/>
       <c r="D35" s="1230"/>
@@ -44733,7 +44733,7 @@
       <c r="Q36" s="636"/>
       <c r="R36" s="637"/>
     </row>
-    <row r="37" spans="2:18" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B37" s="256" t="str">
         <f>PENYELIA!B37</f>
         <v xml:space="preserve">b. Kalibrasi Level Tegangan / Amplitudo </v>
@@ -44811,7 +44811,7 @@
       <c r="P39" s="650"/>
       <c r="Q39" s="650"/>
     </row>
-    <row r="40" spans="2:18" ht="14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="1427">
         <v>1</v>
       </c>
@@ -44856,7 +44856,7 @@
         <v>0.45079087827599607</v>
       </c>
     </row>
-    <row r="41" spans="2:18" ht="14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="1245"/>
       <c r="C41" s="1430"/>
       <c r="D41" s="1447"/>
@@ -44890,7 +44890,7 @@
         <v>0.22539543913799803</v>
       </c>
     </row>
-    <row r="42" spans="2:18" ht="14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="1222"/>
       <c r="C42" s="1383"/>
       <c r="D42" s="1439"/>
@@ -44942,7 +44942,7 @@
       <c r="P43" s="637"/>
       <c r="Q43" s="633"/>
     </row>
-    <row r="44" spans="2:18" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B44" s="256" t="str">
         <f>PENYELIA!B44</f>
         <v>c. Kalibrasi Laju Rekaman</v>
@@ -45116,7 +45116,7 @@
       <c r="P49" s="637"/>
       <c r="Q49" s="633"/>
     </row>
-    <row r="50" spans="2:17" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B50" s="256" t="str">
         <f>ID!B53</f>
         <v>d. Kalibrasi Sinyal Sinusoida</v>
@@ -45255,7 +45255,7 @@
       <c r="P54" s="637"/>
       <c r="Q54" s="633"/>
     </row>
-    <row r="55" spans="2:17" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B55" s="256" t="str">
         <f>ID!B58</f>
         <v>e. Kalibrasi Sinyal ECG Normal</v>
@@ -45378,7 +45378,7 @@
         <v>0.11056664068167607</v>
       </c>
     </row>
-    <row r="59" spans="2:17" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B59" s="669"/>
       <c r="C59" s="670"/>
       <c r="D59" s="671"/>
@@ -45396,7 +45396,7 @@
       <c r="P59" s="633"/>
       <c r="Q59" s="633"/>
     </row>
-    <row r="60" spans="2:17" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B60" s="669"/>
       <c r="C60" s="670"/>
       <c r="D60" s="671"/>
@@ -45414,7 +45414,7 @@
       <c r="P60" s="633"/>
       <c r="Q60" s="633"/>
     </row>
-    <row r="61" spans="2:17" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B61" s="669"/>
       <c r="C61" s="670"/>
       <c r="D61" s="671"/>
@@ -45468,7 +45468,7 @@
       <c r="P63" s="633"/>
       <c r="Q63" s="633"/>
     </row>
-    <row r="64" spans="2:17" ht="14.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="669"/>
       <c r="C64" s="670"/>
       <c r="D64" s="671"/>
@@ -45486,7 +45486,7 @@
       <c r="P64" s="633"/>
       <c r="Q64" s="633"/>
     </row>
-    <row r="65" spans="1:23" ht="14.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="669"/>
       <c r="C65" s="670"/>
       <c r="D65" s="671"/>
@@ -45589,7 +45589,7 @@
       <c r="V69" s="678"/>
       <c r="W69" s="678"/>
     </row>
-    <row r="70" spans="1:23" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="687" t="s">
         <v>154</v>
       </c>
@@ -45671,7 +45671,7 @@
       <c r="V72" s="678"/>
       <c r="W72" s="678"/>
     </row>
-    <row r="73" spans="1:23" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="179"/>
       <c r="B73" s="180" t="str">
         <f>PENYELIA!B63</f>
@@ -45802,7 +45802,7 @@
       <c r="V77" s="678"/>
       <c r="W77" s="678"/>
     </row>
-    <row r="78" spans="1:23" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A78" s="179" t="s">
         <v>159</v>
       </c>
@@ -45830,7 +45830,7 @@
       <c r="V78" s="678"/>
       <c r="W78" s="678"/>
     </row>
-    <row r="79" spans="1:23" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A79" s="185"/>
       <c r="B79" s="190" t="str">
         <f>PENYELIA!B69</f>
@@ -45857,7 +45857,7 @@
       <c r="V79" s="678"/>
       <c r="W79" s="678"/>
     </row>
-    <row r="80" spans="1:23" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A80" s="185"/>
       <c r="B80" s="190" t="str">
         <f>PENYELIA!B70</f>
@@ -45879,7 +45879,7 @@
       <c r="Q80" s="636"/>
       <c r="R80" s="637"/>
     </row>
-    <row r="81" spans="1:19" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81" s="185"/>
       <c r="B81" s="190" t="str">
         <f>PENYELIA!B71</f>
@@ -45920,7 +45920,7 @@
       <c r="Q82" s="636"/>
       <c r="R82" s="637"/>
     </row>
-    <row r="83" spans="1:19" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A83" s="189" t="s">
         <v>164</v>
       </c>
@@ -46004,7 +46004,7 @@
       <c r="Q86" s="636"/>
       <c r="R86" s="637"/>
     </row>
-    <row r="87" spans="1:19" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A87" s="179" t="s">
         <v>99</v>
       </c>
@@ -46028,7 +46028,7 @@
       <c r="Q87" s="636"/>
       <c r="R87" s="637"/>
     </row>
-    <row r="88" spans="1:19" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A88" s="185"/>
       <c r="B88" s="188" t="str">
         <f>PENYELIA!B78</f>
@@ -46128,7 +46128,7 @@
       <c r="Q92" s="636"/>
       <c r="R92" s="637"/>
     </row>
-    <row r="93" spans="1:19" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A93" s="185"/>
       <c r="B93" s="275"/>
       <c r="C93" s="275"/>
@@ -46149,7 +46149,7 @@
       <c r="Q93" s="683"/>
       <c r="R93" s="637"/>
     </row>
-    <row r="94" spans="1:19" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A94" s="185"/>
       <c r="B94" s="277"/>
       <c r="C94" s="277"/>
@@ -46170,7 +46170,7 @@
       <c r="Q94" s="636"/>
       <c r="R94" s="637"/>
     </row>
-    <row r="95" spans="1:19" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A95" s="185"/>
       <c r="B95" s="185"/>
       <c r="C95" s="185"/>
@@ -46189,7 +46189,7 @@
       <c r="Q95" s="636"/>
       <c r="R95" s="637"/>
     </row>
-    <row r="96" spans="1:19" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A96" s="185"/>
       <c r="B96" s="185"/>
       <c r="C96" s="185"/>
@@ -46208,7 +46208,7 @@
       <c r="Q96" s="636"/>
       <c r="R96" s="637"/>
     </row>
-    <row r="97" spans="1:17" ht="14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="699"/>
       <c r="B97" s="699"/>
       <c r="C97" s="699"/>
@@ -46226,7 +46226,7 @@
       <c r="P97" s="686"/>
       <c r="Q97" s="686"/>
     </row>
-    <row r="98" spans="1:17" ht="14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="276"/>
       <c r="B98" s="276"/>
       <c r="C98" s="276"/>
@@ -46240,7 +46240,7 @@
       <c r="K98" s="276"/>
       <c r="L98" s="276"/>
     </row>
-    <row r="99" spans="1:17" ht="14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="276"/>
       <c r="B99" s="276"/>
       <c r="C99" s="276"/>
@@ -46256,7 +46256,7 @@
       <c r="K99" s="276"/>
       <c r="L99" s="276"/>
     </row>
-    <row r="100" spans="1:17" ht="14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="276"/>
       <c r="B100" s="276"/>
       <c r="C100" s="276"/>
@@ -47126,18 +47126,18 @@
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.36328125" style="960" customWidth="1"/>
-    <col min="2" max="2" width="26.36328125" style="960" customWidth="1"/>
-    <col min="3" max="3" width="3.36328125" style="960" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" style="960" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="960" customWidth="1"/>
-    <col min="6" max="6" width="22.54296875" style="960" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" style="960"/>
-    <col min="8" max="8" width="18.6328125" style="960" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" style="960" customWidth="1"/>
-    <col min="10" max="16384" width="9.36328125" style="960"/>
+    <col min="1" max="1" width="18.33203125" style="960" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="960" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="960" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="960" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="960" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" style="960" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="960"/>
+    <col min="8" max="8" width="18.6640625" style="960" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="960" customWidth="1"/>
+    <col min="10" max="16384" width="9.33203125" style="960"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -47159,7 +47159,7 @@
       <c r="I2" s="1473"/>
       <c r="J2" s="1474"/>
     </row>
-    <row r="3" spans="1:15" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1475" t="str">
         <f>"Nomor : 18 /"&amp;" "&amp;[1]ID!I2</f>
         <v>Nomor : 18 / 1 / IV - 21 / E - 00.000 DL</v>
@@ -47170,7 +47170,7 @@
       <c r="E3" s="1475"/>
       <c r="F3" s="1475"/>
     </row>
-    <row r="4" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C4" s="960" t="s">
         <v>591</v>
       </c>
@@ -47184,12 +47184,12 @@
       <c r="I4" s="964"/>
       <c r="J4" s="964"/>
     </row>
-    <row r="5" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H5" s="1477"/>
       <c r="I5" s="1477"/>
       <c r="J5" s="1477"/>
     </row>
-    <row r="6" spans="1:15" ht="14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="965" t="s">
         <v>592</v>
       </c>
@@ -47206,12 +47206,12 @@
         <v>E - 00.000 DL</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="969"/>
       <c r="B7" s="969"/>
       <c r="C7" s="969"/>
     </row>
-    <row r="8" spans="1:15" ht="14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1454" t="s">
         <v>2</v>
       </c>
@@ -47228,7 +47228,7 @@
       <c r="I8" s="1469"/>
       <c r="J8" s="1469"/>
     </row>
-    <row r="9" spans="1:15" ht="14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1454" t="s">
         <v>594</v>
       </c>
@@ -47245,7 +47245,7 @@
       <c r="I9" s="1469"/>
       <c r="J9" s="1469"/>
     </row>
-    <row r="10" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1454" t="s">
         <v>595</v>
       </c>
@@ -47263,7 +47263,7 @@
       <c r="J10" s="1461"/>
       <c r="O10" s="971"/>
     </row>
-    <row r="11" spans="1:15" s="962" customFormat="1" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" s="962" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1471" t="s">
         <v>596</v>
       </c>
@@ -47284,7 +47284,7 @@
       <c r="J11" s="976"/>
       <c r="O11" s="976"/>
     </row>
-    <row r="12" spans="1:15" s="962" customFormat="1" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" s="962" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1471" t="s">
         <v>597</v>
       </c>
@@ -47302,7 +47302,7 @@
       <c r="J12" s="976"/>
       <c r="O12" s="976"/>
     </row>
-    <row r="13" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="979"/>
       <c r="B13" s="979"/>
       <c r="C13" s="969"/>
@@ -47310,7 +47310,7 @@
       <c r="J13" s="1468"/>
       <c r="O13" s="971"/>
     </row>
-    <row r="14" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="980" t="s">
         <v>598</v>
       </c>
@@ -47325,7 +47325,7 @@
       <c r="J14" s="1461"/>
       <c r="O14" s="971"/>
     </row>
-    <row r="15" spans="1:15" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="983"/>
       <c r="B15" s="969"/>
       <c r="C15" s="969"/>
@@ -47351,7 +47351,7 @@
       <c r="I16" s="1465"/>
       <c r="J16" s="1466"/>
     </row>
-    <row r="17" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1454" t="str">
         <f>"Nama Ruang "</f>
         <v xml:space="preserve">Nama Ruang </v>
@@ -47370,7 +47370,7 @@
       <c r="I17" s="1467"/>
       <c r="J17" s="1467"/>
     </row>
-    <row r="18" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1454" t="s">
         <v>489</v>
       </c>
@@ -47404,7 +47404,7 @@
       <c r="E19" s="1458"/>
       <c r="F19" s="1458"/>
     </row>
-    <row r="20" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="1454" t="str">
         <f>"Penanggungjawab "&amp;B50</f>
         <v>Penanggungjawab Kalibrasi</v>
@@ -47420,7 +47420,7 @@
       <c r="E20" s="1454"/>
       <c r="F20" s="1454"/>
     </row>
-    <row r="21" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1454" t="str">
         <f>"Lokasi "&amp;B50</f>
         <v>Lokasi Kalibrasi</v>
@@ -47452,7 +47452,7 @@
       <c r="E22" s="1457"/>
       <c r="F22" s="1457"/>
     </row>
-    <row r="23" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="1454" t="s">
         <v>127</v>
       </c>
@@ -47473,51 +47473,51 @@
       </c>
       <c r="E26" s="1455">
         <f ca="1">TODAY()</f>
-        <v>44664</v>
+        <v>44712</v>
       </c>
       <c r="F26" s="1455"/>
     </row>
-    <row r="27" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D27" s="1454" t="s">
         <v>603</v>
       </c>
       <c r="E27" s="1454"/>
       <c r="F27" s="1454"/>
     </row>
-    <row r="28" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D28" s="1454" t="s">
         <v>604</v>
       </c>
       <c r="E28" s="1454"/>
       <c r="F28" s="1454"/>
     </row>
-    <row r="29" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D29" s="990"/>
       <c r="E29" s="990"/>
     </row>
-    <row r="30" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D30" s="990"/>
       <c r="E30" s="990"/>
     </row>
-    <row r="31" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D31" s="990"/>
       <c r="E31" s="990"/>
     </row>
-    <row r="32" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D32" s="1454" t="s">
         <v>605</v>
       </c>
       <c r="E32" s="1454"/>
       <c r="F32" s="1454"/>
     </row>
-    <row r="33" spans="1:6" ht="14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D33" s="1453" t="s">
         <v>606</v>
       </c>
       <c r="E33" s="1453"/>
       <c r="F33" s="1453"/>
     </row>
-    <row r="36" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="991"/>
       <c r="B36" s="991"/>
       <c r="C36" s="991"/>
@@ -47525,7 +47525,7 @@
       <c r="E36" s="991"/>
       <c r="F36" s="991"/>
     </row>
-    <row r="42" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="992" t="s">
         <v>610</v>
@@ -47588,7 +47588,7 @@
       <c r="A51" s="994"/>
       <c r="B51" s="995"/>
     </row>
-    <row r="52" spans="1:2" s="1000" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" s="1000" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="996" t="s">
         <v>616</v>
       </c>
@@ -47600,7 +47600,7 @@
       <c r="A53" s="994"/>
       <c r="B53" s="995"/>
     </row>
-    <row r="54" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1001" t="s">
         <v>617</v>
       </c>
@@ -47622,7 +47622,7 @@
       <c r="A56" s="994"/>
       <c r="B56" s="995"/>
     </row>
-    <row r="57" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1001" t="s">
         <v>619</v>
       </c>
@@ -47631,7 +47631,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="994" t="s">
         <v>620</v>
       </c>
@@ -47640,14 +47640,14 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="994"/>
       <c r="B59" s="1005" t="e">
         <f>CONCATENATE(B61,B55)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1006" t="s">
         <v>613</v>
       </c>
@@ -47655,7 +47655,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1007"/>
       <c r="B61" s="1008" t="s">
         <v>622</v>
@@ -47740,14 +47740,14 @@
       <selection activeCell="S346" sqref="S346"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="8.6328125" style="461"/>
-    <col min="6" max="6" width="11.54296875" style="461" customWidth="1"/>
-    <col min="7" max="16384" width="8.6328125" style="461"/>
+    <col min="1" max="5" width="8.6640625" style="461"/>
+    <col min="6" max="6" width="11.5546875" style="461" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="461"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1478" t="s">
         <v>365</v>
       </c>
@@ -47784,7 +47784,7 @@
       <c r="AD1" s="1479"/>
       <c r="AE1" s="1481"/>
     </row>
-    <row r="2" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1493">
         <v>1</v>
       </c>
@@ -47835,7 +47835,7 @@
       </c>
       <c r="AE2" s="1502"/>
     </row>
-    <row r="3" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1494"/>
       <c r="B3" s="1575" t="s">
         <v>368</v>
@@ -47898,7 +47898,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1494"/>
       <c r="B4" s="1572" t="s">
         <v>370</v>
@@ -47965,7 +47965,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1494"/>
       <c r="B5" s="466"/>
       <c r="C5" s="467">
@@ -48031,7 +48031,7 @@
       <c r="AD5"/>
       <c r="AE5" s="76"/>
     </row>
-    <row r="6" spans="1:31" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1494"/>
       <c r="B6" s="466"/>
       <c r="C6" s="467">
@@ -48097,7 +48097,7 @@
       <c r="AD6"/>
       <c r="AE6" s="76"/>
     </row>
-    <row r="7" spans="1:31" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1494"/>
       <c r="B7" s="466"/>
       <c r="C7" s="467">
@@ -48163,7 +48163,7 @@
       <c r="AD7"/>
       <c r="AE7" s="76"/>
     </row>
-    <row r="8" spans="1:31" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1494"/>
       <c r="B8" s="466"/>
       <c r="C8" s="470">
@@ -48229,7 +48229,7 @@
       <c r="AD8"/>
       <c r="AE8" s="76"/>
     </row>
-    <row r="9" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1494"/>
       <c r="B9" s="466"/>
       <c r="C9" s="470">
@@ -48295,7 +48295,7 @@
       <c r="AD9"/>
       <c r="AE9" s="76"/>
     </row>
-    <row r="10" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1494"/>
       <c r="B10" s="466"/>
       <c r="C10" s="470">
@@ -48361,7 +48361,7 @@
       <c r="AD10"/>
       <c r="AE10" s="76"/>
     </row>
-    <row r="11" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1495"/>
       <c r="B11" s="466"/>
       <c r="C11" s="470">
@@ -48430,13 +48430,13 @@
       <c r="AD11" s="445"/>
       <c r="AE11" s="446"/>
     </row>
-    <row r="12" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="474"/>
       <c r="B12" s="474"/>
       <c r="O12" s="469"/>
       <c r="P12" s="460"/>
     </row>
-    <row r="13" spans="1:31" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1493">
         <v>2</v>
       </c>
@@ -48463,7 +48463,7 @@
       <c r="O13" s="1502"/>
       <c r="P13" s="460"/>
     </row>
-    <row r="14" spans="1:31" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1494"/>
       <c r="B14" s="1575" t="s">
         <v>368</v>
@@ -48495,7 +48495,7 @@
       </c>
       <c r="P14" s="460"/>
     </row>
-    <row r="15" spans="1:31" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="1494"/>
       <c r="B15" s="1572" t="s">
         <v>370</v>
@@ -48529,7 +48529,7 @@
       </c>
       <c r="P15" s="460"/>
     </row>
-    <row r="16" spans="1:31" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1494"/>
       <c r="B16" s="466"/>
       <c r="C16" s="467">
@@ -48562,7 +48562,7 @@
       <c r="O16" s="469"/>
       <c r="P16" s="460"/>
     </row>
-    <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1494"/>
       <c r="B17" s="466"/>
       <c r="C17" s="467">
@@ -48595,7 +48595,7 @@
       <c r="O17" s="469"/>
       <c r="P17" s="460"/>
     </row>
-    <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1494"/>
       <c r="B18" s="466"/>
       <c r="C18" s="467">
@@ -48628,7 +48628,7 @@
       <c r="O18" s="469"/>
       <c r="P18" s="460"/>
     </row>
-    <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1494"/>
       <c r="B19" s="466"/>
       <c r="C19" s="470">
@@ -48661,7 +48661,7 @@
       <c r="O19" s="469"/>
       <c r="P19" s="460"/>
     </row>
-    <row r="20" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1494"/>
       <c r="B20" s="466"/>
       <c r="C20" s="470">
@@ -48694,7 +48694,7 @@
       <c r="O20" s="469"/>
       <c r="P20" s="460"/>
     </row>
-    <row r="21" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1494"/>
       <c r="B21" s="466"/>
       <c r="C21" s="470">
@@ -48727,7 +48727,7 @@
       <c r="O21" s="469"/>
       <c r="P21" s="460"/>
     </row>
-    <row r="22" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1495"/>
       <c r="B22" s="466"/>
       <c r="C22" s="470">
@@ -48763,13 +48763,13 @@
       <c r="O22" s="473"/>
       <c r="P22" s="460"/>
     </row>
-    <row r="23" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="474"/>
       <c r="B23" s="474"/>
       <c r="O23" s="469"/>
       <c r="P23" s="460"/>
     </row>
-    <row r="24" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1493">
         <v>3</v>
       </c>
@@ -48796,7 +48796,7 @@
       <c r="O24" s="1502"/>
       <c r="P24" s="460"/>
     </row>
-    <row r="25" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1494"/>
       <c r="B25" s="1575" t="s">
         <v>368</v>
@@ -48828,7 +48828,7 @@
       </c>
       <c r="P25" s="460"/>
     </row>
-    <row r="26" spans="1:16" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="1494"/>
       <c r="B26" s="1572" t="s">
         <v>370</v>
@@ -48862,7 +48862,7 @@
       </c>
       <c r="P26" s="460"/>
     </row>
-    <row r="27" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1494"/>
       <c r="B27" s="466"/>
       <c r="C27" s="467">
@@ -48895,7 +48895,7 @@
       <c r="O27" s="469"/>
       <c r="P27" s="460"/>
     </row>
-    <row r="28" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1494"/>
       <c r="B28" s="466"/>
       <c r="C28" s="467">
@@ -48928,7 +48928,7 @@
       <c r="O28" s="469"/>
       <c r="P28" s="460"/>
     </row>
-    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1494"/>
       <c r="B29" s="466"/>
       <c r="C29" s="467">
@@ -48961,7 +48961,7 @@
       <c r="O29" s="469"/>
       <c r="P29" s="460"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1494"/>
       <c r="B30" s="466"/>
       <c r="C30" s="470">
@@ -48994,7 +48994,7 @@
       <c r="O30" s="469"/>
       <c r="P30" s="460"/>
     </row>
-    <row r="31" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1494"/>
       <c r="B31" s="466"/>
       <c r="C31" s="470">
@@ -49027,7 +49027,7 @@
       <c r="O31" s="469"/>
       <c r="P31" s="460"/>
     </row>
-    <row r="32" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1494"/>
       <c r="B32" s="466"/>
       <c r="C32" s="470">
@@ -49060,7 +49060,7 @@
       <c r="O32" s="469"/>
       <c r="P32" s="460"/>
     </row>
-    <row r="33" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1495"/>
       <c r="B33" s="466"/>
       <c r="C33" s="470">
@@ -49096,14 +49096,14 @@
       <c r="O33" s="473"/>
       <c r="P33" s="460"/>
     </row>
-    <row r="34" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="474"/>
       <c r="B34" s="474"/>
       <c r="H34" s="477"/>
       <c r="O34" s="469"/>
       <c r="P34" s="460"/>
     </row>
-    <row r="35" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1551">
         <v>4</v>
       </c>
@@ -49130,7 +49130,7 @@
       <c r="O35" s="1568"/>
       <c r="P35" s="460"/>
     </row>
-    <row r="36" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1552"/>
       <c r="B36" s="1557" t="s">
         <v>368</v>
@@ -49162,7 +49162,7 @@
       </c>
       <c r="P36" s="460"/>
     </row>
-    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1552"/>
       <c r="B37" s="1563" t="s">
         <v>370</v>
@@ -49196,7 +49196,7 @@
       </c>
       <c r="P37" s="460"/>
     </row>
-    <row r="38" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1552"/>
       <c r="C38" s="484">
         <v>15</v>
@@ -49228,7 +49228,7 @@
       <c r="O38" s="469"/>
       <c r="P38" s="460"/>
     </row>
-    <row r="39" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1552"/>
       <c r="C39" s="487">
         <v>20</v>
@@ -49260,7 +49260,7 @@
       <c r="O39" s="469"/>
       <c r="P39" s="460"/>
     </row>
-    <row r="40" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1552"/>
       <c r="C40" s="487">
         <v>25</v>
@@ -49292,7 +49292,7 @@
       <c r="O40" s="469"/>
       <c r="P40" s="460"/>
     </row>
-    <row r="41" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1552"/>
       <c r="C41" s="489">
         <v>30</v>
@@ -49324,7 +49324,7 @@
       <c r="O41" s="469"/>
       <c r="P41" s="460"/>
     </row>
-    <row r="42" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1552"/>
       <c r="C42" s="489">
         <v>35</v>
@@ -49356,7 +49356,7 @@
       <c r="O42" s="469"/>
       <c r="P42" s="460"/>
     </row>
-    <row r="43" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1552"/>
       <c r="C43" s="489">
         <v>37</v>
@@ -49388,7 +49388,7 @@
       <c r="O43" s="469"/>
       <c r="P43" s="460"/>
     </row>
-    <row r="44" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1553"/>
       <c r="B44" s="472"/>
       <c r="C44" s="490">
@@ -49424,13 +49424,13 @@
       <c r="O44" s="473"/>
       <c r="P44" s="460"/>
     </row>
-    <row r="45" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="474"/>
       <c r="B45" s="474"/>
       <c r="O45" s="469"/>
       <c r="P45" s="460"/>
     </row>
-    <row r="46" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1551">
         <v>5</v>
       </c>
@@ -49457,7 +49457,7 @@
       <c r="O46" s="1568"/>
       <c r="P46" s="460"/>
     </row>
-    <row r="47" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1552"/>
       <c r="B47" s="1557" t="s">
         <v>368</v>
@@ -49489,7 +49489,7 @@
       </c>
       <c r="P47" s="460"/>
     </row>
-    <row r="48" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1552"/>
       <c r="B48" s="1563" t="s">
         <v>370</v>
@@ -49523,7 +49523,7 @@
       </c>
       <c r="P48" s="460"/>
     </row>
-    <row r="49" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1552"/>
       <c r="C49" s="484">
         <v>15</v>
@@ -49555,7 +49555,7 @@
       <c r="O49" s="469"/>
       <c r="P49" s="460"/>
     </row>
-    <row r="50" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1552"/>
       <c r="C50" s="487">
         <v>20</v>
@@ -49587,7 +49587,7 @@
       <c r="O50" s="469"/>
       <c r="P50" s="460"/>
     </row>
-    <row r="51" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1552"/>
       <c r="C51" s="487">
         <v>25</v>
@@ -49619,7 +49619,7 @@
       <c r="O51" s="469"/>
       <c r="P51" s="460"/>
     </row>
-    <row r="52" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1552"/>
       <c r="C52" s="489">
         <v>30</v>
@@ -49651,7 +49651,7 @@
       <c r="O52" s="469"/>
       <c r="P52" s="460"/>
     </row>
-    <row r="53" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1552"/>
       <c r="C53" s="489">
         <v>35</v>
@@ -49683,7 +49683,7 @@
       <c r="O53" s="469"/>
       <c r="P53" s="460"/>
     </row>
-    <row r="54" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1552"/>
       <c r="C54" s="489">
         <v>37</v>
@@ -49715,7 +49715,7 @@
       <c r="O54" s="469"/>
       <c r="P54" s="460"/>
     </row>
-    <row r="55" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1553"/>
       <c r="B55" s="472"/>
       <c r="C55" s="490">
@@ -49751,7 +49751,7 @@
       <c r="O55" s="473"/>
       <c r="P55" s="460"/>
     </row>
-    <row r="56" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="495"/>
       <c r="B56" s="496"/>
       <c r="C56" s="496"/>
@@ -49767,7 +49767,7 @@
       <c r="O56" s="469"/>
       <c r="P56" s="460"/>
     </row>
-    <row r="57" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1551">
         <v>6</v>
       </c>
@@ -49794,7 +49794,7 @@
       <c r="O57" s="1568"/>
       <c r="P57" s="460"/>
     </row>
-    <row r="58" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1552"/>
       <c r="B58" s="1557" t="s">
         <v>368</v>
@@ -49826,7 +49826,7 @@
       </c>
       <c r="P58" s="460"/>
     </row>
-    <row r="59" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1552"/>
       <c r="B59" s="1563" t="s">
         <v>370</v>
@@ -49860,7 +49860,7 @@
       </c>
       <c r="P59" s="460"/>
     </row>
-    <row r="60" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1552"/>
       <c r="C60" s="484">
         <v>15</v>
@@ -49892,7 +49892,7 @@
       <c r="O60" s="469"/>
       <c r="P60" s="460"/>
     </row>
-    <row r="61" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1552"/>
       <c r="C61" s="487">
         <v>20</v>
@@ -49924,7 +49924,7 @@
       <c r="O61" s="469"/>
       <c r="P61" s="460"/>
     </row>
-    <row r="62" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1552"/>
       <c r="C62" s="487">
         <v>25</v>
@@ -49956,7 +49956,7 @@
       <c r="O62" s="469"/>
       <c r="P62" s="460"/>
     </row>
-    <row r="63" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1552"/>
       <c r="C63" s="489">
         <v>30</v>
@@ -49988,7 +49988,7 @@
       <c r="O63" s="469"/>
       <c r="P63" s="460"/>
     </row>
-    <row r="64" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1552"/>
       <c r="C64" s="489">
         <v>35</v>
@@ -50020,7 +50020,7 @@
       <c r="O64" s="469"/>
       <c r="P64" s="460"/>
     </row>
-    <row r="65" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1552"/>
       <c r="C65" s="489">
         <v>37</v>
@@ -50052,7 +50052,7 @@
       <c r="O65" s="469"/>
       <c r="P65" s="460"/>
     </row>
-    <row r="66" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1553"/>
       <c r="B66" s="472"/>
       <c r="C66" s="490">
@@ -50088,7 +50088,7 @@
       <c r="O66" s="473"/>
       <c r="P66" s="460"/>
     </row>
-    <row r="67" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="495"/>
       <c r="B67" s="496"/>
       <c r="C67" s="496"/>
@@ -50104,7 +50104,7 @@
       <c r="O67" s="469"/>
       <c r="P67" s="460"/>
     </row>
-    <row r="68" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1551">
         <v>7</v>
       </c>
@@ -50131,7 +50131,7 @@
       <c r="O68" s="1568"/>
       <c r="P68" s="460"/>
     </row>
-    <row r="69" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1552"/>
       <c r="B69" s="1557" t="s">
         <v>368</v>
@@ -50163,7 +50163,7 @@
       </c>
       <c r="P69" s="460"/>
     </row>
-    <row r="70" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1552"/>
       <c r="B70" s="1563" t="s">
         <v>370</v>
@@ -50197,7 +50197,7 @@
       </c>
       <c r="P70" s="460"/>
     </row>
-    <row r="71" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1552"/>
       <c r="C71" s="484">
         <v>15</v>
@@ -50229,7 +50229,7 @@
       <c r="O71" s="469"/>
       <c r="P71" s="460"/>
     </row>
-    <row r="72" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1552"/>
       <c r="C72" s="487">
         <v>20</v>
@@ -50261,7 +50261,7 @@
       <c r="O72" s="469"/>
       <c r="P72" s="460"/>
     </row>
-    <row r="73" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1552"/>
       <c r="C73" s="487">
         <v>25</v>
@@ -50293,7 +50293,7 @@
       <c r="O73" s="469"/>
       <c r="P73" s="460"/>
     </row>
-    <row r="74" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1552"/>
       <c r="C74" s="489">
         <v>30</v>
@@ -50325,7 +50325,7 @@
       <c r="O74" s="469"/>
       <c r="P74" s="460"/>
     </row>
-    <row r="75" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1552"/>
       <c r="C75" s="489">
         <v>35</v>
@@ -50357,7 +50357,7 @@
       <c r="O75" s="469"/>
       <c r="P75" s="460"/>
     </row>
-    <row r="76" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1552"/>
       <c r="C76" s="489">
         <v>37</v>
@@ -50389,7 +50389,7 @@
       <c r="O76" s="469"/>
       <c r="P76" s="460"/>
     </row>
-    <row r="77" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1553"/>
       <c r="B77" s="472"/>
       <c r="C77" s="490">
@@ -50425,7 +50425,7 @@
       <c r="O77" s="473"/>
       <c r="P77" s="460"/>
     </row>
-    <row r="78" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="495"/>
       <c r="B78" s="496"/>
       <c r="C78" s="496"/>
@@ -50441,7 +50441,7 @@
       <c r="O78" s="469"/>
       <c r="P78" s="460"/>
     </row>
-    <row r="79" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1551">
         <v>8</v>
       </c>
@@ -50468,7 +50468,7 @@
       <c r="O79" s="1568"/>
       <c r="P79" s="460"/>
     </row>
-    <row r="80" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1552"/>
       <c r="B80" s="1557" t="s">
         <v>368</v>
@@ -50500,7 +50500,7 @@
       </c>
       <c r="P80" s="460"/>
     </row>
-    <row r="81" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1552"/>
       <c r="B81" s="1563" t="s">
         <v>370</v>
@@ -50534,7 +50534,7 @@
       </c>
       <c r="P81" s="460"/>
     </row>
-    <row r="82" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="1552"/>
       <c r="C82" s="501">
         <v>15</v>
@@ -50566,7 +50566,7 @@
       <c r="O82" s="469"/>
       <c r="P82" s="460"/>
     </row>
-    <row r="83" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1552"/>
       <c r="C83" s="502">
         <v>20</v>
@@ -50598,7 +50598,7 @@
       <c r="O83" s="469"/>
       <c r="P83" s="460"/>
     </row>
-    <row r="84" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1552"/>
       <c r="C84" s="502">
         <v>25</v>
@@ -50630,7 +50630,7 @@
       <c r="O84" s="469"/>
       <c r="P84" s="460"/>
     </row>
-    <row r="85" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1552"/>
       <c r="C85" s="503">
         <v>30</v>
@@ -50662,7 +50662,7 @@
       <c r="O85" s="469"/>
       <c r="P85" s="460"/>
     </row>
-    <row r="86" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1552"/>
       <c r="C86" s="503">
         <v>35</v>
@@ -50694,7 +50694,7 @@
       <c r="O86" s="469"/>
       <c r="P86" s="460"/>
     </row>
-    <row r="87" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1552"/>
       <c r="C87" s="503">
         <v>37</v>
@@ -50726,7 +50726,7 @@
       <c r="O87" s="469"/>
       <c r="P87" s="460"/>
     </row>
-    <row r="88" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1553"/>
       <c r="B88" s="472"/>
       <c r="C88" s="504">
@@ -50762,7 +50762,7 @@
       <c r="O88" s="473"/>
       <c r="P88" s="460"/>
     </row>
-    <row r="89" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="495"/>
       <c r="B89" s="496"/>
       <c r="C89" s="496"/>
@@ -50778,7 +50778,7 @@
       <c r="O89" s="469"/>
       <c r="P89" s="460"/>
     </row>
-    <row r="90" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1551">
         <v>9</v>
       </c>
@@ -50805,7 +50805,7 @@
       <c r="O90" s="1568"/>
       <c r="P90" s="460"/>
     </row>
-    <row r="91" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1552"/>
       <c r="B91" s="1557" t="s">
         <v>368</v>
@@ -50837,7 +50837,7 @@
       </c>
       <c r="P91" s="460"/>
     </row>
-    <row r="92" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1552"/>
       <c r="B92" s="1563" t="s">
         <v>370</v>
@@ -50871,7 +50871,7 @@
       </c>
       <c r="P92" s="460"/>
     </row>
-    <row r="93" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="1552"/>
       <c r="B93" s="474"/>
       <c r="C93" s="501">
@@ -50904,7 +50904,7 @@
       <c r="O93" s="469"/>
       <c r="P93" s="460"/>
     </row>
-    <row r="94" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="1552"/>
       <c r="B94" s="474"/>
       <c r="C94" s="502">
@@ -50937,7 +50937,7 @@
       <c r="O94" s="469"/>
       <c r="P94" s="460"/>
     </row>
-    <row r="95" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="1552"/>
       <c r="B95" s="474"/>
       <c r="C95" s="502">
@@ -50970,7 +50970,7 @@
       <c r="O95" s="469"/>
       <c r="P95" s="460"/>
     </row>
-    <row r="96" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="1552"/>
       <c r="B96" s="474"/>
       <c r="C96" s="503">
@@ -51003,7 +51003,7 @@
       <c r="O96" s="469"/>
       <c r="P96" s="460"/>
     </row>
-    <row r="97" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="1552"/>
       <c r="B97" s="474"/>
       <c r="C97" s="503">
@@ -51036,7 +51036,7 @@
       <c r="O97" s="469"/>
       <c r="P97" s="460"/>
     </row>
-    <row r="98" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="1552"/>
       <c r="B98" s="474"/>
       <c r="C98" s="503">
@@ -51069,7 +51069,7 @@
       <c r="O98" s="469"/>
       <c r="P98" s="460"/>
     </row>
-    <row r="99" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1553"/>
       <c r="B99" s="493"/>
       <c r="C99" s="504">
@@ -51105,7 +51105,7 @@
       <c r="O99" s="473"/>
       <c r="P99" s="460"/>
     </row>
-    <row r="100" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="495"/>
       <c r="B100" s="496"/>
       <c r="C100" s="496"/>
@@ -51122,7 +51122,7 @@
       <c r="O100" s="469"/>
       <c r="P100" s="460"/>
     </row>
-    <row r="101" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1551">
         <v>10</v>
       </c>
@@ -51149,7 +51149,7 @@
       <c r="O101" s="1568"/>
       <c r="P101" s="460"/>
     </row>
-    <row r="102" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1552"/>
       <c r="B102" s="1557" t="s">
         <v>368</v>
@@ -51181,7 +51181,7 @@
       </c>
       <c r="P102" s="460"/>
     </row>
-    <row r="103" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1552"/>
       <c r="B103" s="1563" t="s">
         <v>370</v>
@@ -51215,7 +51215,7 @@
       </c>
       <c r="P103" s="460"/>
     </row>
-    <row r="104" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="1552"/>
       <c r="C104" s="501">
         <v>15</v>
@@ -51247,7 +51247,7 @@
       <c r="O104" s="469"/>
       <c r="P104" s="460"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="1552"/>
       <c r="C105" s="502">
         <v>20</v>
@@ -51279,7 +51279,7 @@
       <c r="O105" s="469"/>
       <c r="P105" s="460"/>
     </row>
-    <row r="106" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="1552"/>
       <c r="C106" s="502">
         <v>25</v>
@@ -51311,7 +51311,7 @@
       <c r="O106" s="469"/>
       <c r="P106" s="460"/>
     </row>
-    <row r="107" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="1552"/>
       <c r="C107" s="503">
         <v>30</v>
@@ -51343,7 +51343,7 @@
       <c r="O107" s="469"/>
       <c r="P107" s="460"/>
     </row>
-    <row r="108" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="1552"/>
       <c r="C108" s="503">
         <v>35</v>
@@ -51375,7 +51375,7 @@
       <c r="O108" s="469"/>
       <c r="P108" s="460"/>
     </row>
-    <row r="109" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="1552"/>
       <c r="C109" s="503">
         <v>37</v>
@@ -51407,7 +51407,7 @@
       <c r="O109" s="469"/>
       <c r="P109" s="460"/>
     </row>
-    <row r="110" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1553"/>
       <c r="B110" s="472"/>
       <c r="C110" s="504">
@@ -51443,7 +51443,7 @@
       <c r="O110" s="473"/>
       <c r="P110" s="460"/>
     </row>
-    <row r="111" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="495"/>
       <c r="B111" s="496"/>
       <c r="C111" s="496"/>
@@ -51460,7 +51460,7 @@
       <c r="O111" s="469"/>
       <c r="P111" s="460"/>
     </row>
-    <row r="112" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1551">
         <v>11</v>
       </c>
@@ -51487,7 +51487,7 @@
       <c r="O112" s="1568"/>
       <c r="P112" s="460"/>
     </row>
-    <row r="113" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1552"/>
       <c r="B113" s="1557" t="s">
         <v>368</v>
@@ -51519,7 +51519,7 @@
       </c>
       <c r="P113" s="460"/>
     </row>
-    <row r="114" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1552"/>
       <c r="B114" s="1563" t="s">
         <v>370</v>
@@ -51553,7 +51553,7 @@
       </c>
       <c r="P114" s="460"/>
     </row>
-    <row r="115" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="1552"/>
       <c r="C115" s="484">
         <v>15</v>
@@ -51585,7 +51585,7 @@
       <c r="O115" s="469"/>
       <c r="P115" s="460"/>
     </row>
-    <row r="116" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="1552"/>
       <c r="C116" s="487">
         <v>20</v>
@@ -51617,7 +51617,7 @@
       <c r="O116" s="469"/>
       <c r="P116" s="460"/>
     </row>
-    <row r="117" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="1552"/>
       <c r="C117" s="487">
         <v>25</v>
@@ -51649,7 +51649,7 @@
       <c r="O117" s="469"/>
       <c r="P117" s="460"/>
     </row>
-    <row r="118" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="1552"/>
       <c r="C118" s="489">
         <v>30</v>
@@ -51681,7 +51681,7 @@
       <c r="O118" s="469"/>
       <c r="P118" s="460"/>
     </row>
-    <row r="119" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="1552"/>
       <c r="C119" s="489">
         <v>35</v>
@@ -51713,7 +51713,7 @@
       <c r="O119" s="469"/>
       <c r="P119" s="460"/>
     </row>
-    <row r="120" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="1552"/>
       <c r="C120" s="489">
         <v>37</v>
@@ -51745,7 +51745,7 @@
       <c r="O120" s="469"/>
       <c r="P120" s="460"/>
     </row>
-    <row r="121" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1553"/>
       <c r="B121" s="472"/>
       <c r="C121" s="490">
@@ -51781,7 +51781,7 @@
       <c r="O121" s="473"/>
       <c r="P121" s="460"/>
     </row>
-    <row r="122" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="495"/>
       <c r="B122" s="496"/>
       <c r="C122" s="496"/>
@@ -51797,7 +51797,7 @@
       <c r="O122" s="469"/>
       <c r="P122" s="460"/>
     </row>
-    <row r="123" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1551">
         <v>12</v>
       </c>
@@ -51824,7 +51824,7 @@
       <c r="O123" s="1568"/>
       <c r="P123" s="460"/>
     </row>
-    <row r="124" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1552"/>
       <c r="B124" s="1557" t="s">
         <v>368</v>
@@ -51856,7 +51856,7 @@
       </c>
       <c r="P124" s="460"/>
     </row>
-    <row r="125" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1552"/>
       <c r="B125" s="1563" t="s">
         <v>370</v>
@@ -51890,7 +51890,7 @@
       </c>
       <c r="P125" s="460"/>
     </row>
-    <row r="126" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="1552"/>
       <c r="C126" s="484">
         <v>15</v>
@@ -51922,7 +51922,7 @@
       <c r="O126" s="469"/>
       <c r="P126" s="460"/>
     </row>
-    <row r="127" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="1552"/>
       <c r="C127" s="487">
         <v>20</v>
@@ -51954,7 +51954,7 @@
       <c r="O127" s="469"/>
       <c r="P127" s="460"/>
     </row>
-    <row r="128" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="1552"/>
       <c r="C128" s="487">
         <v>25</v>
@@ -51986,7 +51986,7 @@
       <c r="O128" s="469"/>
       <c r="P128" s="460"/>
     </row>
-    <row r="129" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="1552"/>
       <c r="C129" s="489">
         <v>30</v>
@@ -52018,7 +52018,7 @@
       <c r="O129" s="469"/>
       <c r="P129" s="460"/>
     </row>
-    <row r="130" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="1552"/>
       <c r="C130" s="489">
         <v>35</v>
@@ -52050,7 +52050,7 @@
       <c r="O130" s="469"/>
       <c r="P130" s="460"/>
     </row>
-    <row r="131" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="1552"/>
       <c r="C131" s="489">
         <v>37</v>
@@ -52082,7 +52082,7 @@
       <c r="O131" s="469"/>
       <c r="P131" s="460"/>
     </row>
-    <row r="132" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1553"/>
       <c r="B132" s="472"/>
       <c r="C132" s="490">
@@ -52118,7 +52118,7 @@
       <c r="O132" s="473"/>
       <c r="P132" s="460"/>
     </row>
-    <row r="133" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="495"/>
       <c r="B133" s="496"/>
       <c r="C133" s="496"/>
@@ -52134,7 +52134,7 @@
       <c r="O133" s="469"/>
       <c r="P133" s="460"/>
     </row>
-    <row r="134" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1551">
         <v>13</v>
       </c>
@@ -52161,7 +52161,7 @@
       <c r="O134" s="1568"/>
       <c r="P134" s="460"/>
     </row>
-    <row r="135" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1552"/>
       <c r="B135" s="1557" t="s">
         <v>368</v>
@@ -52193,7 +52193,7 @@
       </c>
       <c r="P135" s="460"/>
     </row>
-    <row r="136" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1552"/>
       <c r="B136" s="1563" t="s">
         <v>370</v>
@@ -52227,7 +52227,7 @@
       </c>
       <c r="P136" s="460"/>
     </row>
-    <row r="137" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="1552"/>
       <c r="C137" s="484">
         <v>15</v>
@@ -52259,7 +52259,7 @@
       <c r="O137" s="469"/>
       <c r="P137" s="460"/>
     </row>
-    <row r="138" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="1552"/>
       <c r="C138" s="487">
         <v>20</v>
@@ -52291,7 +52291,7 @@
       <c r="O138" s="469"/>
       <c r="P138" s="460"/>
     </row>
-    <row r="139" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="1552"/>
       <c r="C139" s="487">
         <v>25</v>
@@ -52323,7 +52323,7 @@
       <c r="O139" s="469"/>
       <c r="P139" s="460"/>
     </row>
-    <row r="140" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="1552"/>
       <c r="C140" s="489">
         <v>30</v>
@@ -52355,7 +52355,7 @@
       <c r="O140" s="469"/>
       <c r="P140" s="460"/>
     </row>
-    <row r="141" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="1552"/>
       <c r="C141" s="489">
         <v>35</v>
@@ -52387,7 +52387,7 @@
       <c r="O141" s="469"/>
       <c r="P141" s="460"/>
     </row>
-    <row r="142" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="1552"/>
       <c r="C142" s="489">
         <v>37</v>
@@ -52419,7 +52419,7 @@
       <c r="O142" s="469"/>
       <c r="P142" s="460"/>
     </row>
-    <row r="143" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1553"/>
       <c r="B143" s="472"/>
       <c r="C143" s="490">
@@ -52455,7 +52455,7 @@
       <c r="O143" s="473"/>
       <c r="P143" s="460"/>
     </row>
-    <row r="144" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="495"/>
       <c r="B144" s="496"/>
       <c r="C144" s="496"/>
@@ -52471,7 +52471,7 @@
       <c r="O144" s="469"/>
       <c r="P144" s="460"/>
     </row>
-    <row r="145" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1551">
         <v>14</v>
       </c>
@@ -52498,7 +52498,7 @@
       <c r="O145" s="1568"/>
       <c r="P145" s="460"/>
     </row>
-    <row r="146" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1552"/>
       <c r="B146" s="1557" t="s">
         <v>368</v>
@@ -52530,7 +52530,7 @@
       </c>
       <c r="P146" s="460"/>
     </row>
-    <row r="147" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1552"/>
       <c r="B147" s="1563" t="s">
         <v>370</v>
@@ -52564,7 +52564,7 @@
       </c>
       <c r="P147" s="460"/>
     </row>
-    <row r="148" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="1552"/>
       <c r="C148" s="484">
         <v>15</v>
@@ -52596,7 +52596,7 @@
       <c r="O148" s="469"/>
       <c r="P148" s="460"/>
     </row>
-    <row r="149" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="1552"/>
       <c r="C149" s="487">
         <v>20</v>
@@ -52628,7 +52628,7 @@
       <c r="O149" s="469"/>
       <c r="P149" s="460"/>
     </row>
-    <row r="150" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="1552"/>
       <c r="C150" s="487">
         <v>25</v>
@@ -52660,7 +52660,7 @@
       <c r="O150" s="469"/>
       <c r="P150" s="460"/>
     </row>
-    <row r="151" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="1552"/>
       <c r="C151" s="489">
         <v>30</v>
@@ -52692,7 +52692,7 @@
       <c r="O151" s="469"/>
       <c r="P151" s="460"/>
     </row>
-    <row r="152" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="1552"/>
       <c r="C152" s="489">
         <v>35</v>
@@ -52724,7 +52724,7 @@
       <c r="O152" s="469"/>
       <c r="P152" s="460"/>
     </row>
-    <row r="153" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="1552"/>
       <c r="C153" s="489">
         <v>37</v>
@@ -52756,7 +52756,7 @@
       <c r="O153" s="469"/>
       <c r="P153" s="460"/>
     </row>
-    <row r="154" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1553"/>
       <c r="B154" s="472"/>
       <c r="C154" s="490">
@@ -52792,7 +52792,7 @@
       <c r="O154" s="473"/>
       <c r="P154" s="460"/>
     </row>
-    <row r="155" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="495"/>
       <c r="B155" s="496"/>
       <c r="C155" s="496"/>
@@ -52808,7 +52808,7 @@
       <c r="O155" s="469"/>
       <c r="P155" s="460"/>
     </row>
-    <row r="156" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1551">
         <v>15</v>
       </c>
@@ -52835,7 +52835,7 @@
       <c r="O156" s="1568"/>
       <c r="P156" s="460"/>
     </row>
-    <row r="157" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1552"/>
       <c r="B157" s="1557" t="s">
         <v>368</v>
@@ -52867,7 +52867,7 @@
       </c>
       <c r="P157" s="460"/>
     </row>
-    <row r="158" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1552"/>
       <c r="B158" s="1563" t="s">
         <v>370</v>
@@ -52901,7 +52901,7 @@
       </c>
       <c r="P158" s="460"/>
     </row>
-    <row r="159" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="1552"/>
       <c r="C159" s="484">
         <v>15</v>
@@ -52933,7 +52933,7 @@
       <c r="O159" s="469"/>
       <c r="P159" s="460"/>
     </row>
-    <row r="160" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="1552"/>
       <c r="C160" s="487">
         <v>20</v>
@@ -52965,7 +52965,7 @@
       <c r="O160" s="469"/>
       <c r="P160" s="460"/>
     </row>
-    <row r="161" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="1552"/>
       <c r="C161" s="487">
         <v>25</v>
@@ -52997,7 +52997,7 @@
       <c r="O161" s="469"/>
       <c r="P161" s="460"/>
     </row>
-    <row r="162" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="1552"/>
       <c r="C162" s="489">
         <v>30</v>
@@ -53029,7 +53029,7 @@
       <c r="O162" s="469"/>
       <c r="P162" s="460"/>
     </row>
-    <row r="163" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="1552"/>
       <c r="C163" s="489">
         <v>35</v>
@@ -53061,7 +53061,7 @@
       <c r="O163" s="469"/>
       <c r="P163" s="460"/>
     </row>
-    <row r="164" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="1552"/>
       <c r="C164" s="489">
         <v>37</v>
@@ -53093,7 +53093,7 @@
       <c r="O164" s="469"/>
       <c r="P164" s="460"/>
     </row>
-    <row r="165" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1553"/>
       <c r="B165" s="472"/>
       <c r="C165" s="490">
@@ -53129,7 +53129,7 @@
       <c r="O165" s="473"/>
       <c r="P165" s="460"/>
     </row>
-    <row r="166" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="495"/>
       <c r="B166" s="496"/>
       <c r="C166" s="496"/>
@@ -53145,7 +53145,7 @@
       <c r="O166" s="469"/>
       <c r="P166" s="460"/>
     </row>
-    <row r="167" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1551">
         <v>16</v>
       </c>
@@ -53172,7 +53172,7 @@
       <c r="O167" s="1568"/>
       <c r="P167" s="460"/>
     </row>
-    <row r="168" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1552"/>
       <c r="B168" s="1557" t="s">
         <v>368</v>
@@ -53204,7 +53204,7 @@
       </c>
       <c r="P168" s="460"/>
     </row>
-    <row r="169" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1552"/>
       <c r="B169" s="1563" t="s">
         <v>370</v>
@@ -53238,7 +53238,7 @@
       </c>
       <c r="P169" s="460"/>
     </row>
-    <row r="170" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="1552"/>
       <c r="C170" s="484">
         <v>15</v>
@@ -53270,7 +53270,7 @@
       <c r="O170" s="469"/>
       <c r="P170" s="460"/>
     </row>
-    <row r="171" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="1552"/>
       <c r="C171" s="487">
         <v>20</v>
@@ -53302,7 +53302,7 @@
       <c r="O171" s="469"/>
       <c r="P171" s="460"/>
     </row>
-    <row r="172" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="1552"/>
       <c r="C172" s="487">
         <v>25</v>
@@ -53334,7 +53334,7 @@
       <c r="O172" s="469"/>
       <c r="P172" s="460"/>
     </row>
-    <row r="173" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="1552"/>
       <c r="C173" s="489">
         <v>30</v>
@@ -53366,7 +53366,7 @@
       <c r="O173" s="469"/>
       <c r="P173" s="460"/>
     </row>
-    <row r="174" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="1552"/>
       <c r="C174" s="489">
         <v>35</v>
@@ -53398,7 +53398,7 @@
       <c r="O174" s="469"/>
       <c r="P174" s="460"/>
     </row>
-    <row r="175" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="1552"/>
       <c r="C175" s="489">
         <v>37</v>
@@ -53430,7 +53430,7 @@
       <c r="O175" s="469"/>
       <c r="P175" s="460"/>
     </row>
-    <row r="176" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1553"/>
       <c r="B176" s="472"/>
       <c r="C176" s="490">
@@ -53466,7 +53466,7 @@
       <c r="O176" s="473"/>
       <c r="P176" s="460"/>
     </row>
-    <row r="177" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="495"/>
       <c r="B177" s="496"/>
       <c r="C177" s="496"/>
@@ -53482,7 +53482,7 @@
       <c r="O177" s="469"/>
       <c r="P177" s="460"/>
     </row>
-    <row r="178" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1551">
         <v>17</v>
       </c>
@@ -53509,7 +53509,7 @@
       <c r="O178" s="1568"/>
       <c r="P178" s="460"/>
     </row>
-    <row r="179" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1552"/>
       <c r="B179" s="1557" t="s">
         <v>368</v>
@@ -53541,7 +53541,7 @@
       </c>
       <c r="P179" s="460"/>
     </row>
-    <row r="180" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1552"/>
       <c r="B180" s="1563" t="s">
         <v>370</v>
@@ -53575,7 +53575,7 @@
       </c>
       <c r="P180" s="460"/>
     </row>
-    <row r="181" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="1552"/>
       <c r="C181" s="484">
         <v>15</v>
@@ -53607,7 +53607,7 @@
       <c r="O181" s="469"/>
       <c r="P181" s="460"/>
     </row>
-    <row r="182" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="1552"/>
       <c r="C182" s="487">
         <v>20</v>
@@ -53639,7 +53639,7 @@
       <c r="O182" s="469"/>
       <c r="P182" s="460"/>
     </row>
-    <row r="183" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="1552"/>
       <c r="C183" s="487">
         <v>25</v>
@@ -53671,7 +53671,7 @@
       <c r="O183" s="469"/>
       <c r="P183" s="460"/>
     </row>
-    <row r="184" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="1552"/>
       <c r="C184" s="489">
         <v>30</v>
@@ -53703,7 +53703,7 @@
       <c r="O184" s="469"/>
       <c r="P184" s="460"/>
     </row>
-    <row r="185" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="1552"/>
       <c r="C185" s="489">
         <v>35</v>
@@ -53735,7 +53735,7 @@
       <c r="O185" s="469"/>
       <c r="P185" s="460"/>
     </row>
-    <row r="186" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="1552"/>
       <c r="C186" s="489">
         <v>37</v>
@@ -53767,7 +53767,7 @@
       <c r="O186" s="469"/>
       <c r="P186" s="460"/>
     </row>
-    <row r="187" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1553"/>
       <c r="B187" s="472"/>
       <c r="C187" s="490">
@@ -53803,7 +53803,7 @@
       <c r="O187" s="473"/>
       <c r="P187" s="460"/>
     </row>
-    <row r="188" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="495"/>
       <c r="B188" s="496"/>
       <c r="C188" s="496"/>
@@ -53819,7 +53819,7 @@
       <c r="O188" s="469"/>
       <c r="P188" s="460"/>
     </row>
-    <row r="189" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1551">
         <v>18</v>
       </c>
@@ -53846,7 +53846,7 @@
       <c r="O189" s="1568"/>
       <c r="P189" s="460"/>
     </row>
-    <row r="190" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1552"/>
       <c r="B190" s="1557" t="s">
         <v>368</v>
@@ -53878,7 +53878,7 @@
       </c>
       <c r="P190" s="460"/>
     </row>
-    <row r="191" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1552"/>
       <c r="B191" s="1563" t="s">
         <v>370</v>
@@ -53912,7 +53912,7 @@
       </c>
       <c r="P191" s="460"/>
     </row>
-    <row r="192" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="1552"/>
       <c r="C192" s="484">
         <v>15</v>
@@ -53944,7 +53944,7 @@
       <c r="O192" s="469"/>
       <c r="P192" s="460"/>
     </row>
-    <row r="193" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="1552"/>
       <c r="C193" s="487">
         <v>20</v>
@@ -53976,7 +53976,7 @@
       <c r="O193" s="469"/>
       <c r="P193" s="460"/>
     </row>
-    <row r="194" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="1552"/>
       <c r="C194" s="487">
         <v>25</v>
@@ -54008,7 +54008,7 @@
       <c r="O194" s="469"/>
       <c r="P194" s="460"/>
     </row>
-    <row r="195" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="1552"/>
       <c r="C195" s="489">
         <v>30</v>
@@ -54040,7 +54040,7 @@
       <c r="O195" s="469"/>
       <c r="P195" s="460"/>
     </row>
-    <row r="196" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="1552"/>
       <c r="C196" s="489">
         <v>35</v>
@@ -54072,7 +54072,7 @@
       <c r="O196" s="469"/>
       <c r="P196" s="460"/>
     </row>
-    <row r="197" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="1552"/>
       <c r="C197" s="489">
         <v>37</v>
@@ -54104,7 +54104,7 @@
       <c r="O197" s="469"/>
       <c r="P197" s="460"/>
     </row>
-    <row r="198" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1553"/>
       <c r="B198" s="472"/>
       <c r="C198" s="490">
@@ -54140,7 +54140,7 @@
       <c r="O198" s="473"/>
       <c r="P198" s="460"/>
     </row>
-    <row r="199" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="511"/>
       <c r="B199" s="512"/>
       <c r="C199" s="512"/>
@@ -54158,7 +54158,7 @@
       <c r="O199" s="513"/>
       <c r="P199" s="460"/>
     </row>
-    <row r="200" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="460"/>
       <c r="B200" s="460"/>
       <c r="C200" s="460"/>
@@ -54208,7 +54208,7 @@
       </c>
       <c r="P201" s="1543"/>
     </row>
-    <row r="202" spans="1:17" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A202" s="1546"/>
       <c r="B202" s="1548"/>
       <c r="C202" s="571" t="s">
@@ -54240,7 +54240,7 @@
       </c>
       <c r="P202" s="1540"/>
     </row>
-    <row r="203" spans="1:17" ht="14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A203" s="1546"/>
       <c r="B203" s="1548"/>
       <c r="C203" s="569" t="s">
@@ -54271,7 +54271,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="1484" t="s">
         <v>390</v>
       </c>
@@ -54330,7 +54330,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="205" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="1485"/>
       <c r="B205" s="570">
         <v>2</v>
@@ -54385,7 +54385,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="1485"/>
       <c r="B206" s="570">
         <v>3</v>
@@ -54440,7 +54440,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="1485"/>
       <c r="B207" s="570">
         <v>4</v>
@@ -54495,7 +54495,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="1485"/>
       <c r="B208" s="570">
         <v>5</v>
@@ -54550,7 +54550,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="1485"/>
       <c r="B209" s="570">
         <v>6</v>
@@ -54605,7 +54605,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="1485"/>
       <c r="B210" s="570">
         <v>7</v>
@@ -54660,7 +54660,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="1485"/>
       <c r="B211" s="570">
         <v>8</v>
@@ -54715,7 +54715,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="212" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="1485"/>
       <c r="B212" s="570">
         <v>9</v>
@@ -54770,7 +54770,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="213" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="1485"/>
       <c r="B213" s="570">
         <v>10</v>
@@ -54825,7 +54825,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="214" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="1485"/>
       <c r="B214" s="570">
         <v>11</v>
@@ -54880,7 +54880,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="215" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="1485"/>
       <c r="B215" s="570">
         <v>12</v>
@@ -54935,7 +54935,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="1485"/>
       <c r="B216" s="570">
         <v>13</v>
@@ -54990,7 +54990,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="217" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="1485"/>
       <c r="B217" s="570">
         <v>14</v>
@@ -55045,7 +55045,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="1485"/>
       <c r="B218" s="570">
         <v>15</v>
@@ -55100,7 +55100,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="1485"/>
       <c r="B219" s="570">
         <v>16</v>
@@ -55155,7 +55155,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="1485"/>
       <c r="B220" s="570">
         <v>17</v>
@@ -55210,7 +55210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="1485"/>
       <c r="B221" s="570">
         <v>18</v>
@@ -55265,7 +55265,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="1485"/>
       <c r="B222" s="599">
         <v>19</v>
@@ -55311,7 +55311,7 @@
       <c r="O222" s="601"/>
       <c r="P222" s="602"/>
     </row>
-    <row r="223" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="310"/>
       <c r="B223" s="311"/>
       <c r="C223" s="312"/>
@@ -55329,7 +55329,7 @@
       <c r="O223" s="305"/>
       <c r="P223" s="305"/>
     </row>
-    <row r="224" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="1484" t="s">
         <v>391</v>
       </c>
@@ -55381,7 +55381,7 @@
       </c>
       <c r="P224" s="1538"/>
     </row>
-    <row r="225" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="1485"/>
       <c r="B225" s="570">
         <v>2</v>
@@ -55429,7 +55429,7 @@
       </c>
       <c r="P225" s="1540"/>
     </row>
-    <row r="226" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="1485"/>
       <c r="B226" s="570">
         <v>3</v>
@@ -55476,7 +55476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="1485"/>
       <c r="B227" s="570">
         <v>4</v>
@@ -55523,7 +55523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="1485"/>
       <c r="B228" s="570">
         <v>5</v>
@@ -55570,7 +55570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="1485"/>
       <c r="B229" s="570">
         <v>6</v>
@@ -55617,7 +55617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="1485"/>
       <c r="B230" s="570">
         <v>7</v>
@@ -55664,7 +55664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="1485"/>
       <c r="B231" s="570">
         <v>8</v>
@@ -55711,7 +55711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" s="1485"/>
       <c r="B232" s="570">
         <v>9</v>
@@ -55758,7 +55758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="1485"/>
       <c r="B233" s="570">
         <v>10</v>
@@ -55805,7 +55805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="1485"/>
       <c r="B234" s="570">
         <v>11</v>
@@ -55852,7 +55852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="1485"/>
       <c r="B235" s="570">
         <v>12</v>
@@ -55899,7 +55899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="1485"/>
       <c r="B236" s="570">
         <v>13</v>
@@ -55946,7 +55946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="1485"/>
       <c r="B237" s="570">
         <v>14</v>
@@ -55993,7 +55993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="1485"/>
       <c r="B238" s="570">
         <v>15</v>
@@ -56040,7 +56040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="1485"/>
       <c r="B239" s="570">
         <v>16</v>
@@ -56087,7 +56087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="1485"/>
       <c r="B240" s="570">
         <v>17</v>
@@ -56134,7 +56134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" s="1485"/>
       <c r="B241" s="570">
         <v>18</v>
@@ -56181,7 +56181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="1485"/>
       <c r="B242" s="599">
         <v>19</v>
@@ -56226,7 +56226,7 @@
       <c r="N242" s="460"/>
       <c r="O242" s="601"/>
     </row>
-    <row r="243" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="310"/>
       <c r="B243" s="311"/>
       <c r="C243" s="314"/>
@@ -56245,7 +56245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="1484" t="s">
         <v>392</v>
       </c>
@@ -56296,7 +56296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" s="1485"/>
       <c r="B245" s="570">
         <v>2</v>
@@ -56343,7 +56343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" s="1485"/>
       <c r="B246" s="570">
         <v>3</v>
@@ -56389,7 +56389,7 @@
       <c r="O246" s="460"/>
       <c r="P246" s="460"/>
     </row>
-    <row r="247" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" s="1485"/>
       <c r="B247" s="570">
         <v>4</v>
@@ -56435,7 +56435,7 @@
       <c r="O247" s="460"/>
       <c r="P247" s="460"/>
     </row>
-    <row r="248" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" s="1485"/>
       <c r="B248" s="570">
         <v>5</v>
@@ -56481,7 +56481,7 @@
       <c r="O248" s="460"/>
       <c r="P248" s="460"/>
     </row>
-    <row r="249" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="1485"/>
       <c r="B249" s="570">
         <v>6</v>
@@ -56527,7 +56527,7 @@
       <c r="O249" s="460"/>
       <c r="P249" s="460"/>
     </row>
-    <row r="250" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" s="1485"/>
       <c r="B250" s="570">
         <v>7</v>
@@ -56573,7 +56573,7 @@
       <c r="O250" s="460"/>
       <c r="P250" s="460"/>
     </row>
-    <row r="251" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" s="1485"/>
       <c r="B251" s="570">
         <v>8</v>
@@ -56619,7 +56619,7 @@
       <c r="O251" s="460"/>
       <c r="P251" s="460"/>
     </row>
-    <row r="252" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" s="1485"/>
       <c r="B252" s="570">
         <v>9</v>
@@ -56665,7 +56665,7 @@
       <c r="O252" s="460"/>
       <c r="P252" s="460"/>
     </row>
-    <row r="253" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" s="1485"/>
       <c r="B253" s="570">
         <v>10</v>
@@ -56711,7 +56711,7 @@
       <c r="O253" s="460"/>
       <c r="P253" s="460"/>
     </row>
-    <row r="254" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" s="1485"/>
       <c r="B254" s="570">
         <v>11</v>
@@ -56757,7 +56757,7 @@
       <c r="O254" s="460"/>
       <c r="P254" s="460"/>
     </row>
-    <row r="255" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" s="1485"/>
       <c r="B255" s="570">
         <v>12</v>
@@ -56803,7 +56803,7 @@
       <c r="O255" s="460"/>
       <c r="P255" s="460"/>
     </row>
-    <row r="256" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" s="1485"/>
       <c r="B256" s="570">
         <v>13</v>
@@ -56849,7 +56849,7 @@
       <c r="O256" s="460"/>
       <c r="P256" s="460"/>
     </row>
-    <row r="257" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" s="1485"/>
       <c r="B257" s="570">
         <v>14</v>
@@ -56895,7 +56895,7 @@
       <c r="O257" s="460"/>
       <c r="P257" s="460"/>
     </row>
-    <row r="258" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" s="1485"/>
       <c r="B258" s="570">
         <v>15</v>
@@ -56941,7 +56941,7 @@
       <c r="O258" s="460"/>
       <c r="P258" s="460"/>
     </row>
-    <row r="259" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" s="1485"/>
       <c r="B259" s="570">
         <v>16</v>
@@ -56987,7 +56987,7 @@
       <c r="O259" s="460"/>
       <c r="P259" s="460"/>
     </row>
-    <row r="260" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" s="1485"/>
       <c r="B260" s="570">
         <v>17</v>
@@ -57033,7 +57033,7 @@
       <c r="O260" s="460"/>
       <c r="P260" s="460"/>
     </row>
-    <row r="261" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" s="1485"/>
       <c r="B261" s="570">
         <v>18</v>
@@ -57079,7 +57079,7 @@
       <c r="O261" s="460"/>
       <c r="P261" s="460"/>
     </row>
-    <row r="262" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" s="1485"/>
       <c r="B262" s="599">
         <v>19</v>
@@ -57125,7 +57125,7 @@
       <c r="O262" s="460"/>
       <c r="P262" s="460"/>
     </row>
-    <row r="263" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" s="310"/>
       <c r="B263" s="311"/>
       <c r="C263" s="314"/>
@@ -57143,7 +57143,7 @@
       <c r="O263" s="460"/>
       <c r="P263" s="460"/>
     </row>
-    <row r="264" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" s="1484" t="s">
         <v>280</v>
       </c>
@@ -57193,7 +57193,7 @@
       <c r="O264" s="460"/>
       <c r="P264" s="460"/>
     </row>
-    <row r="265" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265" s="1485"/>
       <c r="B265" s="570">
         <v>2</v>
@@ -57239,7 +57239,7 @@
       <c r="O265" s="460"/>
       <c r="P265" s="460"/>
     </row>
-    <row r="266" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" s="1485"/>
       <c r="B266" s="570">
         <v>3</v>
@@ -57285,7 +57285,7 @@
       <c r="O266" s="460"/>
       <c r="P266" s="460"/>
     </row>
-    <row r="267" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" s="1485"/>
       <c r="B267" s="570">
         <v>4</v>
@@ -57331,7 +57331,7 @@
       <c r="O267" s="460"/>
       <c r="P267" s="460"/>
     </row>
-    <row r="268" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" s="1485"/>
       <c r="B268" s="570">
         <v>5</v>
@@ -57377,7 +57377,7 @@
       <c r="O268" s="460"/>
       <c r="P268" s="460"/>
     </row>
-    <row r="269" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269" s="1485"/>
       <c r="B269" s="570">
         <v>6</v>
@@ -57423,7 +57423,7 @@
       <c r="O269" s="460"/>
       <c r="P269" s="460"/>
     </row>
-    <row r="270" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270" s="1485"/>
       <c r="B270" s="570">
         <v>7</v>
@@ -57469,7 +57469,7 @@
       <c r="O270" s="460"/>
       <c r="P270" s="460"/>
     </row>
-    <row r="271" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271" s="1485"/>
       <c r="B271" s="570">
         <v>8</v>
@@ -57515,7 +57515,7 @@
       <c r="O271" s="460"/>
       <c r="P271" s="460"/>
     </row>
-    <row r="272" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272" s="1485"/>
       <c r="B272" s="570">
         <v>9</v>
@@ -57561,7 +57561,7 @@
       <c r="O272" s="460"/>
       <c r="P272" s="460"/>
     </row>
-    <row r="273" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" s="1485"/>
       <c r="B273" s="570">
         <v>10</v>
@@ -57607,7 +57607,7 @@
       <c r="O273" s="460"/>
       <c r="P273" s="460"/>
     </row>
-    <row r="274" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274" s="1485"/>
       <c r="B274" s="570">
         <v>11</v>
@@ -57653,7 +57653,7 @@
       <c r="O274" s="460"/>
       <c r="P274" s="460"/>
     </row>
-    <row r="275" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275" s="1485"/>
       <c r="B275" s="570">
         <v>12</v>
@@ -57699,7 +57699,7 @@
       <c r="O275" s="460"/>
       <c r="P275" s="460"/>
     </row>
-    <row r="276" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A276" s="1485"/>
       <c r="B276" s="570">
         <v>13</v>
@@ -57745,7 +57745,7 @@
       <c r="O276" s="460"/>
       <c r="P276" s="460"/>
     </row>
-    <row r="277" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277" s="1485"/>
       <c r="B277" s="570">
         <v>14</v>
@@ -57791,7 +57791,7 @@
       <c r="O277" s="460"/>
       <c r="P277" s="460"/>
     </row>
-    <row r="278" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" s="1485"/>
       <c r="B278" s="570">
         <v>15</v>
@@ -57837,7 +57837,7 @@
       <c r="O278" s="460"/>
       <c r="P278" s="460"/>
     </row>
-    <row r="279" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279" s="1485"/>
       <c r="B279" s="570">
         <v>16</v>
@@ -57883,7 +57883,7 @@
       <c r="O279" s="460"/>
       <c r="P279" s="460"/>
     </row>
-    <row r="280" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280" s="1485"/>
       <c r="B280" s="570">
         <v>17</v>
@@ -57929,7 +57929,7 @@
       <c r="O280" s="460"/>
       <c r="P280" s="460"/>
     </row>
-    <row r="281" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A281" s="1485"/>
       <c r="B281" s="570">
         <v>18</v>
@@ -57975,7 +57975,7 @@
       <c r="O281" s="460"/>
       <c r="P281" s="460"/>
     </row>
-    <row r="282" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282" s="1485"/>
       <c r="B282" s="599">
         <v>19</v>
@@ -58021,7 +58021,7 @@
       <c r="O282" s="460"/>
       <c r="P282" s="460"/>
     </row>
-    <row r="283" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283" s="310"/>
       <c r="B283" s="311"/>
       <c r="C283" s="314"/>
@@ -58039,7 +58039,7 @@
       <c r="O283" s="460"/>
       <c r="P283" s="460"/>
     </row>
-    <row r="284" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284" s="1484" t="s">
         <v>393</v>
       </c>
@@ -58089,7 +58089,7 @@
       <c r="O284" s="460"/>
       <c r="P284" s="460"/>
     </row>
-    <row r="285" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285" s="1485"/>
       <c r="B285" s="570">
         <v>2</v>
@@ -58135,7 +58135,7 @@
       <c r="O285" s="460"/>
       <c r="P285" s="460"/>
     </row>
-    <row r="286" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" s="1485"/>
       <c r="B286" s="570">
         <v>3</v>
@@ -58181,7 +58181,7 @@
       <c r="O286" s="460"/>
       <c r="P286" s="460"/>
     </row>
-    <row r="287" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287" s="1485"/>
       <c r="B287" s="570">
         <v>4</v>
@@ -58227,7 +58227,7 @@
       <c r="O287" s="460"/>
       <c r="P287" s="460"/>
     </row>
-    <row r="288" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288" s="1485"/>
       <c r="B288" s="570">
         <v>5</v>
@@ -58273,7 +58273,7 @@
       <c r="O288" s="460"/>
       <c r="P288" s="460"/>
     </row>
-    <row r="289" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A289" s="1485"/>
       <c r="B289" s="570">
         <v>6</v>
@@ -58319,7 +58319,7 @@
       <c r="O289" s="460"/>
       <c r="P289" s="460"/>
     </row>
-    <row r="290" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290" s="1485"/>
       <c r="B290" s="570">
         <v>7</v>
@@ -58365,7 +58365,7 @@
       <c r="O290" s="460"/>
       <c r="P290" s="460"/>
     </row>
-    <row r="291" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A291" s="1485"/>
       <c r="B291" s="570">
         <v>8</v>
@@ -58411,7 +58411,7 @@
       <c r="O291" s="460"/>
       <c r="P291" s="460"/>
     </row>
-    <row r="292" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A292" s="1485"/>
       <c r="B292" s="570">
         <v>9</v>
@@ -58457,7 +58457,7 @@
       <c r="O292" s="460"/>
       <c r="P292" s="460"/>
     </row>
-    <row r="293" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A293" s="1485"/>
       <c r="B293" s="570">
         <v>10</v>
@@ -58503,7 +58503,7 @@
       <c r="O293" s="460"/>
       <c r="P293" s="460"/>
     </row>
-    <row r="294" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A294" s="1485"/>
       <c r="B294" s="570">
         <v>11</v>
@@ -58549,7 +58549,7 @@
       <c r="O294" s="460"/>
       <c r="P294" s="460"/>
     </row>
-    <row r="295" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A295" s="1485"/>
       <c r="B295" s="570">
         <v>12</v>
@@ -58595,7 +58595,7 @@
       <c r="O295" s="460"/>
       <c r="P295" s="460"/>
     </row>
-    <row r="296" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A296" s="1485"/>
       <c r="B296" s="570">
         <v>13</v>
@@ -58641,7 +58641,7 @@
       <c r="O296" s="460"/>
       <c r="P296" s="460"/>
     </row>
-    <row r="297" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A297" s="1485"/>
       <c r="B297" s="570">
         <v>14</v>
@@ -58687,7 +58687,7 @@
       <c r="O297" s="460"/>
       <c r="P297" s="460"/>
     </row>
-    <row r="298" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A298" s="1485"/>
       <c r="B298" s="570">
         <v>15</v>
@@ -58733,7 +58733,7 @@
       <c r="O298" s="460"/>
       <c r="P298" s="460"/>
     </row>
-    <row r="299" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A299" s="1485"/>
       <c r="B299" s="570">
         <v>16</v>
@@ -58779,7 +58779,7 @@
       <c r="O299" s="460"/>
       <c r="P299" s="460"/>
     </row>
-    <row r="300" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A300" s="1485"/>
       <c r="B300" s="570">
         <v>17</v>
@@ -58825,7 +58825,7 @@
       <c r="O300" s="460"/>
       <c r="P300" s="460"/>
     </row>
-    <row r="301" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A301" s="1485"/>
       <c r="B301" s="570">
         <v>18</v>
@@ -58871,7 +58871,7 @@
       <c r="O301" s="460"/>
       <c r="P301" s="460"/>
     </row>
-    <row r="302" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A302" s="1485"/>
       <c r="B302" s="609">
         <v>19</v>
@@ -58917,7 +58917,7 @@
       <c r="O302" s="460"/>
       <c r="P302" s="460"/>
     </row>
-    <row r="303" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A303" s="310"/>
       <c r="B303" s="311"/>
       <c r="C303" s="314"/>
@@ -58935,7 +58935,7 @@
       <c r="O303" s="460"/>
       <c r="P303" s="460"/>
     </row>
-    <row r="304" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A304" s="1484" t="s">
         <v>394</v>
       </c>
@@ -58985,7 +58985,7 @@
       <c r="O304" s="460"/>
       <c r="P304" s="460"/>
     </row>
-    <row r="305" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A305" s="1485"/>
       <c r="B305" s="570">
         <v>2</v>
@@ -59031,7 +59031,7 @@
       <c r="O305" s="460"/>
       <c r="P305" s="460"/>
     </row>
-    <row r="306" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A306" s="1485"/>
       <c r="B306" s="570">
         <v>3</v>
@@ -59077,7 +59077,7 @@
       <c r="O306" s="460"/>
       <c r="P306" s="460"/>
     </row>
-    <row r="307" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A307" s="1485"/>
       <c r="B307" s="570">
         <v>4</v>
@@ -59123,7 +59123,7 @@
       <c r="O307" s="460"/>
       <c r="P307" s="460"/>
     </row>
-    <row r="308" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A308" s="1485"/>
       <c r="B308" s="570">
         <v>5</v>
@@ -59169,7 +59169,7 @@
       <c r="O308" s="460"/>
       <c r="P308" s="460"/>
     </row>
-    <row r="309" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A309" s="1485"/>
       <c r="B309" s="570">
         <v>6</v>
@@ -59215,7 +59215,7 @@
       <c r="O309" s="460"/>
       <c r="P309" s="460"/>
     </row>
-    <row r="310" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A310" s="1485"/>
       <c r="B310" s="570">
         <v>7</v>
@@ -59261,7 +59261,7 @@
       <c r="O310" s="460"/>
       <c r="P310" s="460"/>
     </row>
-    <row r="311" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A311" s="1485"/>
       <c r="B311" s="570">
         <v>8</v>
@@ -59307,7 +59307,7 @@
       <c r="O311" s="460"/>
       <c r="P311" s="460"/>
     </row>
-    <row r="312" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A312" s="1485"/>
       <c r="B312" s="570">
         <v>9</v>
@@ -59353,7 +59353,7 @@
       <c r="O312" s="460"/>
       <c r="P312" s="460"/>
     </row>
-    <row r="313" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A313" s="1485"/>
       <c r="B313" s="570">
         <v>10</v>
@@ -59399,7 +59399,7 @@
       <c r="O313" s="460"/>
       <c r="P313" s="460"/>
     </row>
-    <row r="314" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A314" s="1485"/>
       <c r="B314" s="570">
         <v>11</v>
@@ -59445,7 +59445,7 @@
       <c r="O314" s="460"/>
       <c r="P314" s="460"/>
     </row>
-    <row r="315" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A315" s="1485"/>
       <c r="B315" s="570">
         <v>12</v>
@@ -59491,7 +59491,7 @@
       <c r="O315" s="460"/>
       <c r="P315" s="460"/>
     </row>
-    <row r="316" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A316" s="1485"/>
       <c r="B316" s="570">
         <v>13</v>
@@ -59537,7 +59537,7 @@
       <c r="O316" s="460"/>
       <c r="P316" s="460"/>
     </row>
-    <row r="317" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A317" s="1485"/>
       <c r="B317" s="570">
         <v>14</v>
@@ -59583,7 +59583,7 @@
       <c r="O317" s="460"/>
       <c r="P317" s="460"/>
     </row>
-    <row r="318" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A318" s="1485"/>
       <c r="B318" s="570">
         <v>15</v>
@@ -59629,7 +59629,7 @@
       <c r="O318" s="460"/>
       <c r="P318" s="460"/>
     </row>
-    <row r="319" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A319" s="1485"/>
       <c r="B319" s="570">
         <v>16</v>
@@ -59675,7 +59675,7 @@
       <c r="O319" s="460"/>
       <c r="P319" s="460"/>
     </row>
-    <row r="320" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A320" s="1485"/>
       <c r="B320" s="570">
         <v>17</v>
@@ -59721,7 +59721,7 @@
       <c r="O320" s="460"/>
       <c r="P320" s="460"/>
     </row>
-    <row r="321" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A321" s="1485"/>
       <c r="B321" s="570">
         <v>18</v>
@@ -59767,7 +59767,7 @@
       <c r="O321" s="460"/>
       <c r="P321" s="460"/>
     </row>
-    <row r="322" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" s="1485"/>
       <c r="B322" s="599">
         <v>19</v>
@@ -59813,7 +59813,7 @@
       <c r="O322" s="460"/>
       <c r="P322" s="460"/>
     </row>
-    <row r="323" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A323" s="310"/>
       <c r="B323" s="311"/>
       <c r="C323" s="314"/>
@@ -59831,7 +59831,7 @@
       <c r="O323" s="460"/>
       <c r="P323" s="460"/>
     </row>
-    <row r="324" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A324" s="1486" t="s">
         <v>131</v>
       </c>
@@ -59881,7 +59881,7 @@
       <c r="O324" s="460"/>
       <c r="P324" s="460"/>
     </row>
-    <row r="325" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325" s="1487"/>
       <c r="B325" s="570">
         <v>2</v>
@@ -59927,7 +59927,7 @@
       <c r="O325" s="460"/>
       <c r="P325" s="460"/>
     </row>
-    <row r="326" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A326" s="1487"/>
       <c r="B326" s="570">
         <v>3</v>
@@ -59973,7 +59973,7 @@
       <c r="O326" s="460"/>
       <c r="P326" s="460"/>
     </row>
-    <row r="327" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A327" s="1487"/>
       <c r="B327" s="570">
         <v>4</v>
@@ -60019,7 +60019,7 @@
       <c r="O327" s="460"/>
       <c r="P327" s="460"/>
     </row>
-    <row r="328" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A328" s="1487"/>
       <c r="B328" s="570">
         <v>5</v>
@@ -60065,7 +60065,7 @@
       <c r="O328" s="460"/>
       <c r="P328" s="460"/>
     </row>
-    <row r="329" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A329" s="1487"/>
       <c r="B329" s="570">
         <v>6</v>
@@ -60111,7 +60111,7 @@
       <c r="O329" s="460"/>
       <c r="P329" s="460"/>
     </row>
-    <row r="330" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A330" s="1487"/>
       <c r="B330" s="570">
         <v>7</v>
@@ -60157,7 +60157,7 @@
       <c r="O330" s="460"/>
       <c r="P330" s="460"/>
     </row>
-    <row r="331" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A331" s="1487"/>
       <c r="B331" s="570">
         <v>8</v>
@@ -60203,7 +60203,7 @@
       <c r="O331" s="460"/>
       <c r="P331" s="460"/>
     </row>
-    <row r="332" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A332" s="1487"/>
       <c r="B332" s="570">
         <v>9</v>
@@ -60249,7 +60249,7 @@
       <c r="O332" s="460"/>
       <c r="P332" s="460"/>
     </row>
-    <row r="333" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A333" s="1487"/>
       <c r="B333" s="570">
         <v>10</v>
@@ -60295,7 +60295,7 @@
       <c r="O333" s="460"/>
       <c r="P333" s="460"/>
     </row>
-    <row r="334" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A334" s="1487"/>
       <c r="B334" s="570">
         <v>11</v>
@@ -60341,7 +60341,7 @@
       <c r="O334" s="460"/>
       <c r="P334" s="460"/>
     </row>
-    <row r="335" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A335" s="1487"/>
       <c r="B335" s="570">
         <v>12</v>
@@ -60387,7 +60387,7 @@
       <c r="O335" s="460"/>
       <c r="P335" s="460"/>
     </row>
-    <row r="336" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A336" s="1487"/>
       <c r="B336" s="570">
         <v>13</v>
@@ -60433,7 +60433,7 @@
       <c r="O336" s="460"/>
       <c r="P336" s="460"/>
     </row>
-    <row r="337" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A337" s="1487"/>
       <c r="B337" s="570">
         <v>14</v>
@@ -60479,7 +60479,7 @@
       <c r="O337" s="460"/>
       <c r="P337" s="460"/>
     </row>
-    <row r="338" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A338" s="1487"/>
       <c r="B338" s="570">
         <v>15</v>
@@ -60525,7 +60525,7 @@
       <c r="O338" s="460"/>
       <c r="P338" s="460"/>
     </row>
-    <row r="339" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A339" s="1487"/>
       <c r="B339" s="570">
         <v>16</v>
@@ -60571,7 +60571,7 @@
       <c r="O339" s="460"/>
       <c r="P339" s="460"/>
     </row>
-    <row r="340" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A340" s="1487"/>
       <c r="B340" s="570">
         <v>17</v>
@@ -60617,7 +60617,7 @@
       <c r="O340" s="460"/>
       <c r="P340" s="460"/>
     </row>
-    <row r="341" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A341" s="1487"/>
       <c r="B341" s="570">
         <v>18</v>
@@ -60663,7 +60663,7 @@
       <c r="O341" s="460"/>
       <c r="P341" s="460"/>
     </row>
-    <row r="342" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" s="1487"/>
       <c r="B342" s="605">
         <v>19</v>
@@ -60709,7 +60709,7 @@
       <c r="O342" s="460"/>
       <c r="P342" s="460"/>
     </row>
-    <row r="343" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="520"/>
       <c r="B343" s="318"/>
       <c r="C343" s="305"/>
@@ -60727,7 +60727,7 @@
       <c r="O343" s="305"/>
       <c r="P343" s="460"/>
     </row>
-    <row r="344" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="447">
         <f>A383</f>
         <v>16</v>
@@ -60763,7 +60763,7 @@
       <c r="O344" s="1527"/>
       <c r="P344" s="460"/>
     </row>
-    <row r="345" spans="1:16" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A345" s="320" t="s">
         <v>368</v>
       </c>
@@ -60801,7 +60801,7 @@
       </c>
       <c r="P345" s="460"/>
     </row>
-    <row r="346" spans="1:16" ht="14" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A346" s="299" t="s">
         <v>389</v>
       </c>
@@ -60835,7 +60835,7 @@
       <c r="O346" s="1534"/>
       <c r="P346" s="460"/>
     </row>
-    <row r="347" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" s="322">
         <f>VLOOKUP($A$344,$B$204:$F$222,2,FALSE)</f>
         <v>15</v>
@@ -60877,7 +60877,7 @@
       <c r="O347" s="1534"/>
       <c r="P347" s="460"/>
     </row>
-    <row r="348" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A348" s="322">
         <f>VLOOKUP($A$344,$B$224:$F$242,2,FALSE)</f>
         <v>20</v>
@@ -60932,7 +60932,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="322">
         <f>VLOOKUP($A$344,$B$244:$F$262,2,FALSE)</f>
         <v>25</v>
@@ -60988,7 +60988,7 @@
       </c>
       <c r="P349" s="523"/>
     </row>
-    <row r="350" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A350" s="322">
         <f>VLOOKUP($A$344,$B$264:$F$282,2,FALSE)</f>
         <v>30</v>
@@ -61030,7 +61030,7 @@
       <c r="O350" s="329"/>
       <c r="P350" s="523"/>
     </row>
-    <row r="351" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="322">
         <f>VLOOKUP($A$344,$B$284:$F$302,2,FALSE)</f>
         <v>35</v>
@@ -61069,7 +61069,7 @@
       <c r="O351" s="301"/>
       <c r="P351" s="523"/>
     </row>
-    <row r="352" spans="1:16" ht="14" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A352" s="322">
         <f>VLOOKUP($A$344,$B$304:$F$322,2,FALSE)</f>
         <v>37</v>
@@ -61118,7 +61118,7 @@
       <c r="O352" s="330"/>
       <c r="P352" s="525"/>
     </row>
-    <row r="353" spans="1:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="331">
         <f>VLOOKUP($A$344,$B$324:$F$342,2,FALSE)</f>
         <v>40</v>
@@ -61162,7 +61162,7 @@
       <c r="O353" s="330"/>
       <c r="P353" s="523"/>
     </row>
-    <row r="354" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A354" s="334"/>
       <c r="B354" s="305"/>
       <c r="C354" s="305"/>
@@ -61177,7 +61177,7 @@
       <c r="O354" s="330"/>
       <c r="P354" s="526"/>
     </row>
-    <row r="355" spans="1:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1513" t="s">
         <v>398</v>
       </c>
@@ -61199,7 +61199,7 @@
       <c r="O355" s="330"/>
       <c r="P355" s="527"/>
     </row>
-    <row r="356" spans="1:16" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A356" s="335"/>
       <c r="B356" s="336"/>
       <c r="C356" s="336"/>
@@ -61217,7 +61217,7 @@
       <c r="O356" s="339"/>
       <c r="P356" s="529"/>
     </row>
-    <row r="357" spans="1:16" ht="14" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A357" s="340">
         <f>L348</f>
         <v>25.15</v>
@@ -61247,7 +61247,7 @@
       <c r="O357" s="339"/>
       <c r="P357" s="530"/>
     </row>
-    <row r="358" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="343"/>
       <c r="B358" s="344"/>
       <c r="C358" s="345"/>
@@ -61265,8 +61265,8 @@
       <c r="O358" s="349"/>
       <c r="P358" s="531"/>
     </row>
-    <row r="362" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="363" spans="1:16" s="532" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="363" spans="1:16" s="532" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1516" t="str">
         <f>ID!B75</f>
         <v>Thermohygrobarometer, Merek : EXTECH, Model : SD700, SN : A.100616</v>
@@ -61287,7 +61287,7 @@
       <c r="N363" s="1520"/>
       <c r="O363" s="1520"/>
     </row>
-    <row r="364" spans="1:16" s="532" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" s="532" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A364" s="533" t="s">
         <v>574</v>
       </c>
@@ -61321,7 +61321,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="365" spans="1:16" s="532" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" s="532" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A365" s="533" t="s">
         <v>575</v>
       </c>
@@ -61355,7 +61355,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="366" spans="1:16" s="532" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:16" s="532" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A366" s="533" t="s">
         <v>403</v>
       </c>
@@ -61387,7 +61387,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="367" spans="1:16" s="532" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" s="532" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="533" t="s">
         <v>576</v>
       </c>
@@ -61410,7 +61410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:16" s="532" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" s="532" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="533" t="s">
         <v>577</v>
       </c>
@@ -61433,7 +61433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:11" s="532" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" s="532" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="533" t="s">
         <v>407</v>
       </c>
@@ -61456,7 +61456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="370" spans="1:11" s="532" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" s="532" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="533" t="s">
         <v>408</v>
       </c>
@@ -61479,7 +61479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="371" spans="1:11" s="532" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" s="532" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="533" t="s">
         <v>163</v>
       </c>
@@ -61502,7 +61502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:11" s="532" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" s="532" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="533" t="s">
         <v>409</v>
       </c>
@@ -61525,7 +61525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:11" s="532" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" s="532" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="533" t="s">
         <v>410</v>
       </c>
@@ -61548,7 +61548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:11" s="532" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" s="532" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="533" t="s">
         <v>411</v>
       </c>
@@ -61571,7 +61571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="1:11" s="532" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" s="532" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="533" t="s">
         <v>472</v>
       </c>
@@ -61594,7 +61594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:11" s="532" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" s="532" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="533" t="s">
         <v>471</v>
       </c>
@@ -61617,7 +61617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="377" spans="1:11" s="532" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" s="532" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="533" t="s">
         <v>470</v>
       </c>
@@ -61640,7 +61640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="378" spans="1:11" s="532" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" s="532" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="533" t="s">
         <v>469</v>
       </c>
@@ -61663,7 +61663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:11" s="532" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" s="532" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="533" t="s">
         <v>468</v>
       </c>
@@ -61686,7 +61686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="1:11" s="532" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" s="532" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="533" t="s">
         <v>467</v>
       </c>
@@ -61709,7 +61709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="381" spans="1:11" s="532" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" s="532" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="533" t="s">
         <v>466</v>
       </c>
@@ -61732,7 +61732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="382" spans="1:11" s="532" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" s="532" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="610" t="s">
         <v>465</v>
       </c>
@@ -61755,7 +61755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="383" spans="1:11" s="532" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" s="532" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1521">
         <f>VLOOKUP(A363,A364:K382,11,(FALSE))</f>
         <v>16</v>
